--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/Alto Family Files/"/>
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758360FB-1CC1-4E2F-914C-6F4F5EC9E0AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="lambda_currentage">_xlfn.LAMBDA(_xlpm.birthdate,_xlpm.deathdate,_xlpm.currentdate,IF(AND(NOT(ISBLANK(_xlpm.birthdate)),ISBLANK(_xlpm.deathdate)),lambda_calculateagefrombday(_xlpm.birthdate,_xlpm.currentdate),""))</definedName>
     <definedName name="lambda_lifetimeage">_xlfn.LAMBDA(_xlpm.birthdate,_xlpm.deathdate,IF(AND(NOT(ISBLANK(bir)),NOT(ISBLANK(_xlpm.deathdate))),lambda_calculateagefrombday(_xlpm.birthdate,_xlpm.deathdate),""))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,330 +64,10 @@
 </metadata>
 </file>
 
-<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
-<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
-  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization userModified="1">
-      <code xml:space="preserve">import numpy as np
-import pandas as pd
-import matplotlib.pyplot as plt
-import seaborn as sns
-import statsmodels as sm
-import excel
-import warnings
-warnings.simplefilter('ignore')
-excel.set_xl_scalar_conversion(excel.convert_to_scalar)
-excel.set_xl_array_conversion(excel.convert_to_dataframe)
-</code>
-    </initialization>
-  </environmentDefinition>
-</python>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="102">
   <si>
-    <t>PersonID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>BirthDate</t>
-  </si>
-  <si>
-    <t>FatherID</t>
-  </si>
-  <si>
-    <t>MotherID</t>
-  </si>
-  <si>
-    <t>SpouseID</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Jose G. Alto</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Lookup_Gender</t>
-  </si>
-  <si>
-    <t>Josefa D. Alto</t>
-  </si>
-  <si>
     <t>ALTO FAMILY DATA ENTRY</t>
-  </si>
-  <si>
-    <t>Leticia D. Alto</t>
-  </si>
-  <si>
-    <t>Jose D. Alto Jr.</t>
-  </si>
-  <si>
-    <t>Job D. Alto</t>
-  </si>
-  <si>
-    <t>Jesse D. Alto</t>
-  </si>
-  <si>
-    <t>Jimmy D. Alto</t>
-  </si>
-  <si>
-    <t>Lydia A. Zano</t>
-  </si>
-  <si>
-    <t>Josue D. Alto</t>
-  </si>
-  <si>
-    <t>Joseph D. Alto</t>
-  </si>
-  <si>
-    <t>Linda A. Wongbandue</t>
-  </si>
-  <si>
-    <t>DeathDate</t>
-  </si>
-  <si>
-    <t>LifeTime Age</t>
-  </si>
-  <si>
-    <t>Michelle L. Alto</t>
-  </si>
-  <si>
-    <t>Maria Elena Alto</t>
-  </si>
-  <si>
-    <t>Maria Lourdes Alto</t>
-  </si>
-  <si>
-    <t>Romulita C. Alto</t>
-  </si>
-  <si>
-    <t>Ma. Piedad C. Alto</t>
-  </si>
-  <si>
-    <t>Raul Zano</t>
-  </si>
-  <si>
-    <t>Angelina Alto</t>
-  </si>
-  <si>
-    <t>Loida H. Alto</t>
-  </si>
-  <si>
-    <t>Thongbue Wongbandue</t>
-  </si>
-  <si>
-    <t>Clara de Vera Alto</t>
-  </si>
-  <si>
-    <t>Current date:</t>
-  </si>
-  <si>
-    <t>Current Age</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>Christian Roy Alto</t>
-  </si>
-  <si>
-    <t>Amelia F. Alto</t>
-  </si>
-  <si>
-    <t>Philip Reginald Alto</t>
-  </si>
-  <si>
-    <t>Mylene L. Alto</t>
-  </si>
-  <si>
-    <t>Roland Ira Alto</t>
-  </si>
-  <si>
-    <t>Merylle U. Alto</t>
-  </si>
-  <si>
-    <t>Philo Alto</t>
-  </si>
-  <si>
-    <t>Angel Young-Alto</t>
-  </si>
-  <si>
-    <t>Washington Alto</t>
-  </si>
-  <si>
-    <t>Marissa N. Alto</t>
-  </si>
-  <si>
-    <t>Michael Alto</t>
-  </si>
-  <si>
-    <t>Jaime Alicia H. Alto</t>
-  </si>
-  <si>
-    <t>Angelo Alto</t>
-  </si>
-  <si>
-    <t>Lysander Alto</t>
-  </si>
-  <si>
-    <t>Jimmy Jr. Alto</t>
-  </si>
-  <si>
-    <t>Patrick Elliott</t>
-  </si>
-  <si>
-    <t>Josalyn  Elliott</t>
-  </si>
-  <si>
-    <t>Reginald Zano</t>
-  </si>
-  <si>
-    <t>Angelia Nina Zano</t>
-  </si>
-  <si>
-    <t>Laurenti Raul Zano</t>
-  </si>
-  <si>
-    <t>Raymond Zano</t>
-  </si>
-  <si>
-    <t>Riza Joy Zano</t>
-  </si>
-  <si>
-    <t>Ryan Joy Zano</t>
-  </si>
-  <si>
-    <t>Joey Andrew Alto</t>
-  </si>
-  <si>
-    <t>Rebecca Reyes Alto</t>
-  </si>
-  <si>
-    <t>Richard Obilex</t>
-  </si>
-  <si>
-    <t>Jo Ann Alto-Obilex</t>
-  </si>
-  <si>
-    <t>Joel Adam Alto</t>
-  </si>
-  <si>
-    <t>Lea Abello Alto</t>
-  </si>
-  <si>
-    <t>Jesy Angeli Alto</t>
-  </si>
-  <si>
-    <t>Jason Alto</t>
-  </si>
-  <si>
-    <t>Fabian Lim</t>
-  </si>
-  <si>
-    <t>Grace Ann Lim</t>
-  </si>
-  <si>
-    <t>Amy Hung</t>
-  </si>
-  <si>
-    <t>Denice Alto</t>
-  </si>
-  <si>
-    <t>Ava Margaux Alto</t>
-  </si>
-  <si>
-    <t>Nicolas Miles Alto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tifanny Claire </t>
-  </si>
-  <si>
-    <t>Matthew Ira James</t>
-  </si>
-  <si>
-    <t>Brandon Alto</t>
-  </si>
-  <si>
-    <t>Harold Wilson Alto</t>
-  </si>
-  <si>
-    <t>Sophia Joy Alto</t>
-  </si>
-  <si>
-    <t>Noah Michael Alto</t>
-  </si>
-  <si>
-    <t>Marina Alto</t>
-  </si>
-  <si>
-    <t>Alexander Adam Alto</t>
-  </si>
-  <si>
-    <t>Jayson Jordan Alto</t>
-  </si>
-  <si>
-    <t>Dianne Joy Zano</t>
-  </si>
-  <si>
-    <t>Arlene Reese Alto</t>
-  </si>
-  <si>
-    <t>Arden Rhyle</t>
-  </si>
-  <si>
-    <t>Janiyah Obilex</t>
-  </si>
-  <si>
-    <t>Justin Lhance Alto</t>
-  </si>
-  <si>
-    <t>Joshua Landice Alto</t>
-  </si>
-  <si>
-    <t>Jairo Leslie Alto</t>
-  </si>
-  <si>
-    <t>Lyza Joelie Alto</t>
-  </si>
-  <si>
-    <t>Ryder Garland</t>
-  </si>
-  <si>
-    <t>Alexis Mai Lim</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Jaime Wongbandue</t>
-  </si>
-  <si>
-    <t>Julie Wongbandue</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>pwd: alto</t>
   </si>
   <si>
     <r>
@@ -412,6 +92,306 @@
       <t>Fill-up the cells under "blue" report headers from Name up to Notes. Do not fill under "green" headers as they are calculated fields</t>
     </r>
   </si>
+  <si>
+    <t>Current date:</t>
+  </si>
+  <si>
+    <t>PersonID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>DeathDate</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FatherID</t>
+  </si>
+  <si>
+    <t>MotherID</t>
+  </si>
+  <si>
+    <t>SpouseID</t>
+  </si>
+  <si>
+    <t>LifeTime Age</t>
+  </si>
+  <si>
+    <t>Current Age</t>
+  </si>
+  <si>
+    <t>Jose G. Alto</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Josefa D. Alto</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Leticia D. Alto</t>
+  </si>
+  <si>
+    <t>Jose D. Alto Jr.</t>
+  </si>
+  <si>
+    <t>Clara de Vera Alto</t>
+  </si>
+  <si>
+    <t>Job D. Alto</t>
+  </si>
+  <si>
+    <t>Romulita C. Alto</t>
+  </si>
+  <si>
+    <t>Jesse D. Alto</t>
+  </si>
+  <si>
+    <t>Michelle L. Alto</t>
+  </si>
+  <si>
+    <t>Jimmy D. Alto</t>
+  </si>
+  <si>
+    <t>Ma. Piedad C. Alto</t>
+  </si>
+  <si>
+    <t>Raul Zano</t>
+  </si>
+  <si>
+    <t>Lydia A. Zano</t>
+  </si>
+  <si>
+    <t>Josue D. Alto</t>
+  </si>
+  <si>
+    <t>Angelina Alto</t>
+  </si>
+  <si>
+    <t>Joseph D. Alto</t>
+  </si>
+  <si>
+    <t>Loida H. Alto</t>
+  </si>
+  <si>
+    <t>Thongbue Wongbandue</t>
+  </si>
+  <si>
+    <t>Linda A. Wongbandue</t>
+  </si>
+  <si>
+    <t>Maria Elena Alto</t>
+  </si>
+  <si>
+    <t>Maria Lourdes Alto</t>
+  </si>
+  <si>
+    <t>Christian Roy Alto</t>
+  </si>
+  <si>
+    <t>Amelia F. Alto</t>
+  </si>
+  <si>
+    <t>Philip Reginald Alto</t>
+  </si>
+  <si>
+    <t>Mylene L. Alto</t>
+  </si>
+  <si>
+    <t>Roland Ira Alto</t>
+  </si>
+  <si>
+    <t>Merylle U. Alto</t>
+  </si>
+  <si>
+    <t>Philo Alto</t>
+  </si>
+  <si>
+    <t>Angel Young-Alto</t>
+  </si>
+  <si>
+    <t>Washington Alto</t>
+  </si>
+  <si>
+    <t>Marissa N. Alto</t>
+  </si>
+  <si>
+    <t>Michael Alto</t>
+  </si>
+  <si>
+    <t>Jaime Alicia H. Alto</t>
+  </si>
+  <si>
+    <t>Lysander Alto</t>
+  </si>
+  <si>
+    <t>Jimmy Jr. Alto</t>
+  </si>
+  <si>
+    <t>Angelo Alto</t>
+  </si>
+  <si>
+    <t>Josalyn  Elliott</t>
+  </si>
+  <si>
+    <t>Patrick Elliott</t>
+  </si>
+  <si>
+    <t>Reginald Zano</t>
+  </si>
+  <si>
+    <t>Angelia Nina Zano</t>
+  </si>
+  <si>
+    <t>Laurenti Raul Zano</t>
+  </si>
+  <si>
+    <t>Raymond Zano</t>
+  </si>
+  <si>
+    <t>Ryan Joy Zano</t>
+  </si>
+  <si>
+    <t>Riza Joy Zano</t>
+  </si>
+  <si>
+    <t>Joey Andrew Alto</t>
+  </si>
+  <si>
+    <t>Rebecca Reyes Alto</t>
+  </si>
+  <si>
+    <t>Richard Obilex</t>
+  </si>
+  <si>
+    <t>Jo Ann Alto-Obilex</t>
+  </si>
+  <si>
+    <t>Joel Adam Alto</t>
+  </si>
+  <si>
+    <t>Lea Abello Alto</t>
+  </si>
+  <si>
+    <t>Jesy Angeli Alto</t>
+  </si>
+  <si>
+    <t>Fabian Lim</t>
+  </si>
+  <si>
+    <t>Grace Ann Lim</t>
+  </si>
+  <si>
+    <t>Jason Alto</t>
+  </si>
+  <si>
+    <t>Amy Hung</t>
+  </si>
+  <si>
+    <t>Jaime Wongbandue</t>
+  </si>
+  <si>
+    <t>Julie Wongbandue</t>
+  </si>
+  <si>
+    <t>Denice Alto</t>
+  </si>
+  <si>
+    <t>Nicolas Miles Alto</t>
+  </si>
+  <si>
+    <t>Ava Margaux Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tifanny Claire </t>
+  </si>
+  <si>
+    <t>Matthew Ira James</t>
+  </si>
+  <si>
+    <t>Brandon Alto</t>
+  </si>
+  <si>
+    <t>Harold Wilson Alto</t>
+  </si>
+  <si>
+    <t>Sophia Joy Alto</t>
+  </si>
+  <si>
+    <t>Noah Michael Alto</t>
+  </si>
+  <si>
+    <t>Marina Alto</t>
+  </si>
+  <si>
+    <t>Alexander Adam Alto</t>
+  </si>
+  <si>
+    <t>Jayson Jordan Alto</t>
+  </si>
+  <si>
+    <t>Dianne Joy Zano</t>
+  </si>
+  <si>
+    <t>Arlene Reese Alto</t>
+  </si>
+  <si>
+    <t>Arden Rhyle</t>
+  </si>
+  <si>
+    <t>Janiyah Obilex</t>
+  </si>
+  <si>
+    <t>Justin Lhance Alto</t>
+  </si>
+  <si>
+    <t>Joshua Landice Alto</t>
+  </si>
+  <si>
+    <t>Jairo Leslie Alto</t>
+  </si>
+  <si>
+    <t>Lyza Joelie Alto</t>
+  </si>
+  <si>
+    <t>Ryder Garland</t>
+  </si>
+  <si>
+    <t>Alexis Mai Lim</t>
+  </si>
+  <si>
+    <t>Lookup_Gender</t>
+  </si>
+  <si>
+    <t>pwd: alto</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +492,15 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -528,15 +517,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -609,10 +589,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O84" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A5:O84" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
@@ -650,10 +626,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -981,39 +957,38 @@
   </sheetPr>
   <dimension ref="A2:O205"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
@@ -1021,64 +996,64 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
         <v>1174</v>
@@ -1087,13 +1062,13 @@
         <v>32314</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" t="str" cm="1">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N6" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="O6" t="str" cm="1">
@@ -1117,17 +1092,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6">
         <v>4753</v>
@@ -1136,13 +1111,13 @@
         <v>33847</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" t="str" cm="1">
@@ -1158,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N7" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>79 years, 7 months, 27 days</v>
       </c>
       <c r="O7" t="str" cm="1">
@@ -1166,17 +1141,17 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6">
         <v>11763</v>
@@ -1185,13 +1160,13 @@
         <v>37626</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" cm="1">
@@ -1207,7 +1182,7 @@
         <v/>
       </c>
       <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N8" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>70 years, 9 months, 21 days</v>
       </c>
       <c r="O8" t="str" cm="1">
@@ -1215,30 +1190,30 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
         <v>12395</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" cm="1">
@@ -1254,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N9" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O9" t="str" cm="1">
@@ -1262,28 +1237,28 @@
         <v>92 years, 1 months, 23 days</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" t="str" cm="1">
@@ -1299,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N10" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O10" t="str" cm="1">
@@ -1307,30 +1282,30 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6">
         <v>13162</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" cm="1">
@@ -1346,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N11" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O11" t="str" cm="1">
@@ -1354,28 +1329,28 @@
         <v>90 years, 0 months, 17 days</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" t="str" cm="1">
@@ -1391,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N12" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O12" t="str" cm="1">
@@ -1399,30 +1374,30 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6">
         <v>14782</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" cm="1">
@@ -1438,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N13" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O13" t="str" cm="1">
@@ -1446,28 +1421,28 @@
         <v>85 years, 7 months, 10 days</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" t="str" cm="1">
@@ -1483,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N14" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O14" t="str" cm="1">
@@ -1491,30 +1466,30 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6">
         <v>15523</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" cm="1">
@@ -1530,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N15" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O15" t="str" cm="1">
@@ -1538,28 +1513,28 @@
         <v>83 years, 6 months, 29 days</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" t="str" cm="1">
@@ -1575,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N16" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O16" t="str" cm="1">
@@ -1583,28 +1558,28 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" t="str" cm="1">
@@ -1620,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N17" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O17" t="str" cm="1">
@@ -1628,30 +1603,30 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6">
         <v>17507</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" cm="1">
@@ -1667,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N18" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O18" t="str" cm="1">
@@ -1675,17 +1650,17 @@
         <v>78 years, 1 months, 24 days</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6">
         <v>18790</v>
@@ -1694,13 +1669,13 @@
         <v>36903</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" cm="1">
@@ -1716,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N19" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>49 years, 7 months, 1 days</v>
       </c>
       <c r="O19" t="str" cm="1">
@@ -1724,28 +1699,28 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" t="str" cm="1">
@@ -1761,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N20" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O20" t="str" cm="1">
@@ -1769,30 +1744,30 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6">
         <v>19798</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" cm="1">
@@ -1808,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N21" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O21" t="str" cm="1">
@@ -1816,28 +1791,28 @@
         <v>71 years, 10 months, 15 days</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" t="str" cm="1">
@@ -1853,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N22" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O22" t="str" cm="1">
@@ -1861,28 +1836,28 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" t="str" cm="1">
@@ -1898,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N23" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O23" t="str" cm="1">
@@ -1906,30 +1881,30 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="6">
         <v>20712</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" cm="1">
@@ -1945,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N24" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O24" t="str" cm="1">
@@ -1953,28 +1928,28 @@
         <v>69 years, 4 months, 16 days</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" cm="1">
@@ -1990,7 +1965,7 @@
         <v/>
       </c>
       <c r="N25" t="str" cm="1">
-        <f t="array" ref="N25">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N25" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O25" t="str" cm="1">
@@ -1998,28 +1973,28 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" cm="1">
@@ -2035,7 +2010,7 @@
         <v/>
       </c>
       <c r="N26" t="str" cm="1">
-        <f t="array" ref="N26">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N26" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O26" t="str" cm="1">
@@ -2043,28 +2018,28 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" cm="1">
@@ -2080,7 +2055,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="str" cm="1">
-        <f t="array" ref="N27">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N27" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O27" t="str" cm="1">
@@ -2088,28 +2063,28 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" t="str" cm="1">
@@ -2125,7 +2100,7 @@
         <v>22</v>
       </c>
       <c r="N28" t="str" cm="1">
-        <f t="array" ref="N28">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N28" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O28" t="str" cm="1">
@@ -2133,28 +2108,28 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" cm="1">
@@ -2170,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="N29" t="str" cm="1">
-        <f t="array" ref="N29">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N29" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O29" t="str" cm="1">
@@ -2178,28 +2153,28 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" t="str" cm="1">
@@ -2215,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="N30" t="str" cm="1">
-        <f t="array" ref="N30">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N30" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O30" t="str" cm="1">
@@ -2223,28 +2198,28 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" cm="1">
@@ -2260,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="N31" t="str" cm="1">
-        <f t="array" ref="N31">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N31" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O31" t="str" cm="1">
@@ -2268,28 +2243,28 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" t="str" cm="1">
@@ -2305,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="N32" t="str" cm="1">
-        <f t="array" ref="N32">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N32" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O32" t="str" cm="1">
@@ -2313,28 +2288,28 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" cm="1">
@@ -2350,7 +2325,7 @@
         <v>29</v>
       </c>
       <c r="N33" t="str" cm="1">
-        <f t="array" ref="N33">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N33" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O33" t="str" cm="1">
@@ -2358,28 +2333,28 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" t="str" cm="1">
@@ -2395,7 +2370,7 @@
         <v>28</v>
       </c>
       <c r="N34" t="str" cm="1">
-        <f t="array" ref="N34">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N34" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O34" t="str" cm="1">
@@ -2403,28 +2378,28 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" cm="1">
@@ -2440,7 +2415,7 @@
         <v>31</v>
       </c>
       <c r="N35" t="str" cm="1">
-        <f t="array" ref="N35">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N35" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O35" t="str" cm="1">
@@ -2448,28 +2423,28 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" t="str" cm="1">
@@ -2485,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="N36" t="str" cm="1">
-        <f t="array" ref="N36">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N36" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O36" t="str" cm="1">
@@ -2493,28 +2468,28 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" cm="1">
@@ -2530,7 +2505,7 @@
         <v>33</v>
       </c>
       <c r="N37" t="str" cm="1">
-        <f t="array" ref="N37">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N37" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O37" t="str" cm="1">
@@ -2538,28 +2513,28 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" t="str" cm="1">
@@ -2575,7 +2550,7 @@
         <v>32</v>
       </c>
       <c r="N38" t="str" cm="1">
-        <f t="array" ref="N38">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N38" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O38" t="str" cm="1">
@@ -2583,28 +2558,28 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" cm="1">
@@ -2620,7 +2595,7 @@
         <v/>
       </c>
       <c r="N39" t="str" cm="1">
-        <f t="array" ref="N39">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N39" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O39" t="str" cm="1">
@@ -2628,28 +2603,28 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" cm="1">
@@ -2665,7 +2640,7 @@
         <v/>
       </c>
       <c r="N40" t="str" cm="1">
-        <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N40" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O40" t="str" cm="1">
@@ -2673,28 +2648,28 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" cm="1">
@@ -2710,7 +2685,7 @@
         <v/>
       </c>
       <c r="N41" t="str" cm="1">
-        <f t="array" ref="N41">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N41" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O41" t="str" cm="1">
@@ -2718,28 +2693,28 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" cm="1">
@@ -2755,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="N42" t="str" cm="1">
-        <f t="array" ref="N42">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N42" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O42" t="str" cm="1">
@@ -2763,28 +2738,28 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" t="str" cm="1">
@@ -2800,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="N43" t="str" cm="1">
-        <f t="array" ref="N43">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N43" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O43" t="str" cm="1">
@@ -2808,28 +2783,28 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" cm="1">
@@ -2845,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="N44" t="str" cm="1">
-        <f t="array" ref="N44">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N44" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O44" t="str" cm="1">
@@ -2853,28 +2828,28 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" t="str" cm="1">
@@ -2890,7 +2865,7 @@
         <v>39</v>
       </c>
       <c r="N45" t="str" cm="1">
-        <f t="array" ref="N45">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N45" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O45" t="str" cm="1">
@@ -2898,28 +2873,28 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" cm="1">
@@ -2935,7 +2910,7 @@
         <v/>
       </c>
       <c r="N46" t="str" cm="1">
-        <f t="array" ref="N46">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N46" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O46" t="str" cm="1">
@@ -2943,28 +2918,28 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" cm="1">
@@ -2980,7 +2955,7 @@
         <v/>
       </c>
       <c r="N47" t="str" cm="1">
-        <f t="array" ref="N47">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N47" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O47" t="str" cm="1">
@@ -2988,28 +2963,28 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" cm="1">
@@ -3025,7 +3000,7 @@
         <v>44</v>
       </c>
       <c r="N48" t="str" cm="1">
-        <f t="array" ref="N48">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N48" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O48" t="str" cm="1">
@@ -3033,28 +3008,28 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" t="str" cm="1">
@@ -3070,7 +3045,7 @@
         <v>43</v>
       </c>
       <c r="N49" t="str" cm="1">
-        <f t="array" ref="N49">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N49" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O49" t="str" cm="1">
@@ -3078,28 +3053,28 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" cm="1">
@@ -3115,7 +3090,7 @@
         <v>46</v>
       </c>
       <c r="N50" t="str" cm="1">
-        <f t="array" ref="N50">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N50" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O50" t="str" cm="1">
@@ -3123,28 +3098,28 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" t="str" cm="1">
@@ -3160,7 +3135,7 @@
         <v>45</v>
       </c>
       <c r="N51" t="str" cm="1">
-        <f t="array" ref="N51">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N51" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O51" t="str" cm="1">
@@ -3168,28 +3143,28 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" t="str" cm="1">
@@ -3205,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="N52" t="str" cm="1">
-        <f t="array" ref="N52">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N52" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O52" t="str" cm="1">
@@ -3213,28 +3188,28 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" cm="1">
@@ -3250,7 +3225,7 @@
         <v>47</v>
       </c>
       <c r="N53" t="str" cm="1">
-        <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N53" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O53" t="str" cm="1">
@@ -3258,28 +3233,28 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" cm="1">
@@ -3295,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="N54" t="str" cm="1">
-        <f t="array" ref="N54">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N54" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O54" t="str" cm="1">
@@ -3303,28 +3278,28 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" t="str" cm="1">
@@ -3340,7 +3315,7 @@
         <v>49</v>
       </c>
       <c r="N55" t="str" cm="1">
-        <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N55" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O55" t="str" cm="1">
@@ -3348,28 +3323,28 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" cm="1">
@@ -3385,7 +3360,7 @@
         <v/>
       </c>
       <c r="N56" t="str" cm="1">
-        <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N56" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O56" t="str" cm="1">
@@ -3393,28 +3368,28 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" t="str" cm="1">
@@ -3430,7 +3405,7 @@
         <v>53</v>
       </c>
       <c r="N57" t="str" cm="1">
-        <f t="array" ref="N57">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N57" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O57" t="str" cm="1">
@@ -3438,28 +3413,28 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" cm="1">
@@ -3475,7 +3450,7 @@
         <v>52</v>
       </c>
       <c r="N58" t="str" cm="1">
-        <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N58" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O58" t="str" cm="1">
@@ -3483,28 +3458,28 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" cm="1">
@@ -3520,7 +3495,7 @@
         <v>55</v>
       </c>
       <c r="N59" t="str" cm="1">
-        <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N59" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O59" t="str" cm="1">
@@ -3528,28 +3503,28 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" t="str" cm="1">
@@ -3565,7 +3540,7 @@
         <v>54</v>
       </c>
       <c r="N60" t="str" cm="1">
-        <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N60" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O60" t="str" cm="1">
@@ -3573,28 +3548,28 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" cm="1">
@@ -3610,7 +3585,7 @@
         <v/>
       </c>
       <c r="N61" t="str" cm="1">
-        <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N61" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O61" t="str" cm="1">
@@ -3618,28 +3593,28 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" cm="1">
@@ -3655,7 +3630,7 @@
         <v/>
       </c>
       <c r="N62" t="str" cm="1">
-        <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N62" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O62" t="str" cm="1">
@@ -3663,28 +3638,28 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" cm="1">
@@ -3700,7 +3675,7 @@
         <v/>
       </c>
       <c r="N63" t="str" cm="1">
-        <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N63" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O63" t="str" cm="1">
@@ -3708,28 +3683,28 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" cm="1">
@@ -3745,7 +3720,7 @@
         <v/>
       </c>
       <c r="N64" t="str" cm="1">
-        <f t="array" ref="N64">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N64" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O64" t="str" cm="1">
@@ -3753,28 +3728,28 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" cm="1">
@@ -3790,7 +3765,7 @@
         <v/>
       </c>
       <c r="N65" t="str" cm="1">
-        <f t="array" ref="N65">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N65" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O65" t="str" cm="1">
@@ -3798,28 +3773,28 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" cm="1">
@@ -3835,7 +3810,7 @@
         <v/>
       </c>
       <c r="N66" t="str" cm="1">
-        <f t="array" ref="N66">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N66" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O66" t="str" cm="1">
@@ -3843,28 +3818,28 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" cm="1">
@@ -3880,7 +3855,7 @@
         <v/>
       </c>
       <c r="N67" t="str" cm="1">
-        <f t="array" ref="N67">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N67" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O67" t="str" cm="1">
@@ -3888,28 +3863,28 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" cm="1">
@@ -3925,7 +3900,7 @@
         <v/>
       </c>
       <c r="N68" t="str" cm="1">
-        <f t="array" ref="N68">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N68" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O68" t="str" cm="1">
@@ -3933,28 +3908,28 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" cm="1">
@@ -3970,7 +3945,7 @@
         <v/>
       </c>
       <c r="N69" t="str" cm="1">
-        <f t="array" ref="N69">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N69" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O69" t="str" cm="1">
@@ -3978,28 +3953,28 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" cm="1">
@@ -4015,7 +3990,7 @@
         <v/>
       </c>
       <c r="N70" t="str" cm="1">
-        <f t="array" ref="N70">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N70" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O70" t="str" cm="1">
@@ -4023,28 +3998,28 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" cm="1">
@@ -4060,7 +4035,7 @@
         <v/>
       </c>
       <c r="N71" t="str" cm="1">
-        <f t="array" ref="N71">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N71" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O71" t="str" cm="1">
@@ -4068,28 +4043,28 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" cm="1">
@@ -4105,7 +4080,7 @@
         <v/>
       </c>
       <c r="N72" t="str" cm="1">
-        <f t="array" ref="N72">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N72" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O72" t="str" cm="1">
@@ -4113,28 +4088,28 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" cm="1">
@@ -4150,7 +4125,7 @@
         <v/>
       </c>
       <c r="N73" t="str" cm="1">
-        <f t="array" ref="N73">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N73" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O73" t="str" cm="1">
@@ -4158,28 +4133,28 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" cm="1">
@@ -4195,7 +4170,7 @@
         <v/>
       </c>
       <c r="N74" t="str" cm="1">
-        <f t="array" ref="N74">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N74" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O74" t="str" cm="1">
@@ -4203,28 +4178,28 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" cm="1">
@@ -4240,7 +4215,7 @@
         <v/>
       </c>
       <c r="N75" t="str" cm="1">
-        <f t="array" ref="N75">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N75" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O75" t="str" cm="1">
@@ -4248,28 +4223,28 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" cm="1">
@@ -4285,7 +4260,7 @@
         <v/>
       </c>
       <c r="N76" t="str" cm="1">
-        <f t="array" ref="N76">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N76" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O76" t="str" cm="1">
@@ -4293,28 +4268,28 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" cm="1">
@@ -4330,7 +4305,7 @@
         <v/>
       </c>
       <c r="N77" t="str" cm="1">
-        <f t="array" ref="N77">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N77" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O77" t="str" cm="1">
@@ -4338,28 +4313,28 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" cm="1">
@@ -4375,7 +4350,7 @@
         <v/>
       </c>
       <c r="N78" t="str" cm="1">
-        <f t="array" ref="N78">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N78" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O78" t="str" cm="1">
@@ -4383,28 +4358,28 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" cm="1">
@@ -4420,7 +4395,7 @@
         <v/>
       </c>
       <c r="N79" t="str" cm="1">
-        <f t="array" ref="N79">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N79" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O79" t="str" cm="1">
@@ -4428,28 +4403,28 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" cm="1">
@@ -4465,7 +4440,7 @@
         <v/>
       </c>
       <c r="N80" t="str" cm="1">
-        <f t="array" ref="N80">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N80" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O80" t="str" cm="1">
@@ -4473,28 +4448,28 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" cm="1">
@@ -4510,7 +4485,7 @@
         <v/>
       </c>
       <c r="N81" t="str" cm="1">
-        <f t="array" ref="N81">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N81" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O81" t="str" cm="1">
@@ -4518,28 +4493,28 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" cm="1">
@@ -4555,7 +4530,7 @@
         <v/>
       </c>
       <c r="N82" t="str" cm="1">
-        <f t="array" ref="N82">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N82" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O82" t="str" cm="1">
@@ -4563,28 +4538,28 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" t="str" cm="1">
@@ -4600,7 +4575,7 @@
         <v/>
       </c>
       <c r="N83" t="str" cm="1">
-        <f t="array" ref="N83">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N83" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O83" t="str" cm="1">
@@ -4608,28 +4583,28 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" cm="1">
@@ -4645,7 +4620,7 @@
         <v/>
       </c>
       <c r="N84" t="str" cm="1">
-        <f t="array" ref="N84">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" aca="1" ref="N84" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O84" t="str" cm="1">
@@ -4653,7 +4628,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4664,7 +4639,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4675,7 +4650,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4686,7 +4661,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4697,7 +4672,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4708,7 +4683,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4719,7 +4694,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4730,7 +4705,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4741,7 +4716,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4752,7 +4727,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4763,7 +4738,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4774,7 +4749,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4785,7 +4760,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4796,7 +4771,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4807,7 +4782,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4818,7 +4793,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4829,7 +4804,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4840,7 +4815,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4851,7 +4826,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4862,7 +4837,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4873,7 +4848,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4884,7 +4859,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4895,7 +4870,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -4906,7 +4881,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4917,7 +4892,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -4928,7 +4903,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -4939,7 +4914,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4950,7 +4925,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4961,7 +4936,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4972,7 +4947,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4983,7 +4958,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4994,7 +4969,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -5005,7 +4980,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -5016,7 +4991,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5027,7 +5002,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5038,7 +5013,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5049,7 +5024,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5060,7 +5035,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5071,7 +5046,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5082,7 +5057,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5093,7 +5068,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5104,7 +5079,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5115,7 +5090,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5126,7 +5101,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5137,7 +5112,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -5148,7 +5123,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -5159,7 +5134,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5170,7 +5145,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5181,7 +5156,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5192,7 +5167,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5203,7 +5178,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -5214,7 +5189,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -5225,7 +5200,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5236,7 +5211,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5247,7 +5222,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5258,7 +5233,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5269,7 +5244,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -5280,7 +5255,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -5291,7 +5266,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -5302,7 +5277,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5313,7 +5288,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5324,7 +5299,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5335,7 +5310,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5346,7 +5321,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -5357,7 +5332,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -5368,7 +5343,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5379,7 +5354,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5390,7 +5365,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -5401,7 +5376,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5412,7 +5387,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5423,7 +5398,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5434,7 +5409,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5445,7 +5420,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5456,7 +5431,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5467,7 +5442,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -5478,7 +5453,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -5489,7 +5464,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5500,7 +5475,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5511,7 +5486,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5522,7 +5497,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5533,7 +5508,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5544,7 +5519,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5555,7 +5530,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5566,7 +5541,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5577,7 +5552,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5588,7 +5563,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5599,7 +5574,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5610,7 +5585,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5621,7 +5596,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5632,7 +5607,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5643,7 +5618,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5654,7 +5629,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5665,7 +5640,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5676,7 +5651,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5687,7 +5662,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5698,7 +5673,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5709,7 +5684,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5720,7 +5695,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -5731,7 +5706,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -5742,7 +5717,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -5753,7 +5728,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5764,7 +5739,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5775,7 +5750,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5786,7 +5761,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5797,7 +5772,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5808,7 +5783,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5819,7 +5794,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5830,7 +5805,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5841,7 +5816,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5852,7 +5827,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -5863,7 +5838,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -5874,7 +5849,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -5885,7 +5860,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -5896,7 +5871,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5907,7 +5882,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5918,7 +5893,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -5929,7 +5904,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5940,7 +5915,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -5951,7 +5926,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -5962,7 +5937,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -5973,7 +5948,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -6012,64 +5987,64 @@
   </sheetPr>
   <dimension ref="A5:L84"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" cm="1">
         <f t="array" ref="A6:A84">Family[PersonID]</f>
         <v>1</v>
@@ -6107,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:J84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" aca="1" ref="J6:J84" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
@@ -6119,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6148,6 +6123,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="str">
+        <f ca="1"/>
         <v>79 years, 7 months, 27 days</v>
       </c>
       <c r="K7" t="str">
@@ -6158,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6187,6 +6163,7 @@
         <v/>
       </c>
       <c r="J8" t="str">
+        <f ca="1"/>
         <v>70 years, 9 months, 21 days</v>
       </c>
       <c r="K8" t="str">
@@ -6197,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6226,6 +6203,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -6236,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6265,6 +6243,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -6275,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6304,6 +6283,7 @@
         <v>7</v>
       </c>
       <c r="J11" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K11" t="str">
@@ -6314,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6343,6 +6323,7 @@
         <v>6</v>
       </c>
       <c r="J12" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K12" t="str">
@@ -6353,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6382,6 +6363,7 @@
         <v>9</v>
       </c>
       <c r="J13" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K13" t="str">
@@ -6392,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6421,6 +6403,7 @@
         <v>8</v>
       </c>
       <c r="J14" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K14" t="str">
@@ -6431,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6460,6 +6443,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K15" t="str">
@@ -6470,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6499,6 +6483,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K16" t="str">
@@ -6509,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6538,6 +6523,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K17" t="str">
@@ -6548,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6577,6 +6563,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K18" t="str">
@@ -6587,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6616,6 +6603,7 @@
         <v>15</v>
       </c>
       <c r="J19" t="str">
+        <f ca="1"/>
         <v>49 years, 7 months, 1 days</v>
       </c>
       <c r="K19" t="str">
@@ -6626,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6655,6 +6643,7 @@
         <v>14</v>
       </c>
       <c r="J20" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K20" t="str">
@@ -6665,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6694,6 +6683,7 @@
         <v>17</v>
       </c>
       <c r="J21" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K21" t="str">
@@ -6704,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6733,6 +6723,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K22" t="str">
@@ -6743,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6772,6 +6763,7 @@
         <v>19</v>
       </c>
       <c r="J23" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K23" t="str">
@@ -6782,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>19</v>
       </c>
@@ -6811,6 +6803,7 @@
         <v>18</v>
       </c>
       <c r="J24" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K24" t="str">
@@ -6821,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6850,6 +6843,7 @@
         <v/>
       </c>
       <c r="J25" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K25" t="str">
@@ -6860,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>21</v>
       </c>
@@ -6889,6 +6883,7 @@
         <v/>
       </c>
       <c r="J26" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K26" t="str">
@@ -6899,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>22</v>
       </c>
@@ -6928,6 +6923,7 @@
         <v>23</v>
       </c>
       <c r="J27" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K27" t="str">
@@ -6938,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>23</v>
       </c>
@@ -6967,6 +6963,7 @@
         <v>22</v>
       </c>
       <c r="J28" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K28" t="str">
@@ -6977,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>24</v>
       </c>
@@ -7006,6 +7003,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K29" t="str">
@@ -7016,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>25</v>
       </c>
@@ -7045,6 +7043,7 @@
         <v>24</v>
       </c>
       <c r="J30" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K30" t="str">
@@ -7055,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>26</v>
       </c>
@@ -7084,6 +7083,7 @@
         <v>27</v>
       </c>
       <c r="J31" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K31" t="str">
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>27</v>
       </c>
@@ -7123,6 +7123,7 @@
         <v>26</v>
       </c>
       <c r="J32" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K32" t="str">
@@ -7133,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>28</v>
       </c>
@@ -7162,6 +7163,7 @@
         <v>29</v>
       </c>
       <c r="J33" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K33" t="str">
@@ -7172,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>29</v>
       </c>
@@ -7201,6 +7203,7 @@
         <v>28</v>
       </c>
       <c r="J34" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K34" t="str">
@@ -7211,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>30</v>
       </c>
@@ -7240,6 +7243,7 @@
         <v>31</v>
       </c>
       <c r="J35" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K35" t="str">
@@ -7250,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>31</v>
       </c>
@@ -7279,6 +7283,7 @@
         <v>30</v>
       </c>
       <c r="J36" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K36" t="str">
@@ -7289,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>32</v>
       </c>
@@ -7318,6 +7323,7 @@
         <v>33</v>
       </c>
       <c r="J37" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K37" t="str">
@@ -7328,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>33</v>
       </c>
@@ -7357,6 +7363,7 @@
         <v>32</v>
       </c>
       <c r="J38" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K38" t="str">
@@ -7367,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>34</v>
       </c>
@@ -7396,6 +7403,7 @@
         <v/>
       </c>
       <c r="J39" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K39" t="str">
@@ -7406,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>35</v>
       </c>
@@ -7435,6 +7443,7 @@
         <v/>
       </c>
       <c r="J40" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K40" t="str">
@@ -7445,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>36</v>
       </c>
@@ -7474,6 +7483,7 @@
         <v/>
       </c>
       <c r="J41" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K41" t="str">
@@ -7484,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>37</v>
       </c>
@@ -7513,6 +7523,7 @@
         <v>38</v>
       </c>
       <c r="J42" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K42" t="str">
@@ -7523,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>38</v>
       </c>
@@ -7552,6 +7563,7 @@
         <v>37</v>
       </c>
       <c r="J43" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K43" t="str">
@@ -7562,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>39</v>
       </c>
@@ -7591,6 +7603,7 @@
         <v>40</v>
       </c>
       <c r="J44" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K44" t="str">
@@ -7601,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>40</v>
       </c>
@@ -7630,6 +7643,7 @@
         <v>39</v>
       </c>
       <c r="J45" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K45" t="str">
@@ -7640,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7669,6 +7683,7 @@
         <v/>
       </c>
       <c r="J46" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K46" t="str">
@@ -7679,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7708,6 +7723,7 @@
         <v/>
       </c>
       <c r="J47" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K47" t="str">
@@ -7718,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7747,6 +7763,7 @@
         <v>44</v>
       </c>
       <c r="J48" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K48" t="str">
@@ -7757,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7786,6 +7803,7 @@
         <v>43</v>
       </c>
       <c r="J49" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K49" t="str">
@@ -7796,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7825,6 +7843,7 @@
         <v>46</v>
       </c>
       <c r="J50" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K50" t="str">
@@ -7835,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7864,6 +7883,7 @@
         <v>45</v>
       </c>
       <c r="J51" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K51" t="str">
@@ -7874,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>47</v>
       </c>
@@ -7903,6 +7923,7 @@
         <v>48</v>
       </c>
       <c r="J52" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K52" t="str">
@@ -7913,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>48</v>
       </c>
@@ -7942,6 +7963,7 @@
         <v>47</v>
       </c>
       <c r="J53" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K53" t="str">
@@ -7952,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>49</v>
       </c>
@@ -7981,6 +8003,7 @@
         <v>50</v>
       </c>
       <c r="J54" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K54" t="str">
@@ -7991,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8020,6 +8043,7 @@
         <v>49</v>
       </c>
       <c r="J55" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K55" t="str">
@@ -8030,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8059,6 +8083,7 @@
         <v/>
       </c>
       <c r="J56" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K56" t="str">
@@ -8069,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>52</v>
       </c>
@@ -8098,6 +8123,7 @@
         <v>53</v>
       </c>
       <c r="J57" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K57" t="str">
@@ -8108,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8137,6 +8163,7 @@
         <v>52</v>
       </c>
       <c r="J58" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K58" t="str">
@@ -8147,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8176,6 +8203,7 @@
         <v>55</v>
       </c>
       <c r="J59" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K59" t="str">
@@ -8186,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>55</v>
       </c>
@@ -8215,6 +8243,7 @@
         <v>54</v>
       </c>
       <c r="J60" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K60" t="str">
@@ -8225,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>56</v>
       </c>
@@ -8254,6 +8283,7 @@
         <v/>
       </c>
       <c r="J61" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K61" t="str">
@@ -8264,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>57</v>
       </c>
@@ -8293,6 +8323,7 @@
         <v/>
       </c>
       <c r="J62" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K62" t="str">
@@ -8303,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>58</v>
       </c>
@@ -8332,6 +8363,7 @@
         <v/>
       </c>
       <c r="J63" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K63" t="str">
@@ -8342,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>59</v>
       </c>
@@ -8371,6 +8403,7 @@
         <v/>
       </c>
       <c r="J64" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K64" t="str">
@@ -8381,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>60</v>
       </c>
@@ -8410,6 +8443,7 @@
         <v/>
       </c>
       <c r="J65" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K65" t="str">
@@ -8420,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>61</v>
       </c>
@@ -8449,6 +8483,7 @@
         <v/>
       </c>
       <c r="J66" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K66" t="str">
@@ -8459,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>62</v>
       </c>
@@ -8488,6 +8523,7 @@
         <v/>
       </c>
       <c r="J67" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K67" t="str">
@@ -8498,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>63</v>
       </c>
@@ -8527,6 +8563,7 @@
         <v/>
       </c>
       <c r="J68" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K68" t="str">
@@ -8537,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>64</v>
       </c>
@@ -8566,6 +8603,7 @@
         <v/>
       </c>
       <c r="J69" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K69" t="str">
@@ -8576,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>65</v>
       </c>
@@ -8605,6 +8643,7 @@
         <v/>
       </c>
       <c r="J70" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K70" t="str">
@@ -8615,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>66</v>
       </c>
@@ -8644,6 +8683,7 @@
         <v/>
       </c>
       <c r="J71" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K71" t="str">
@@ -8654,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>67</v>
       </c>
@@ -8683,6 +8723,7 @@
         <v/>
       </c>
       <c r="J72" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K72" t="str">
@@ -8693,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>68</v>
       </c>
@@ -8722,6 +8763,7 @@
         <v/>
       </c>
       <c r="J73" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K73" t="str">
@@ -8732,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>69</v>
       </c>
@@ -8761,6 +8803,7 @@
         <v/>
       </c>
       <c r="J74" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K74" t="str">
@@ -8771,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>70</v>
       </c>
@@ -8800,6 +8843,7 @@
         <v/>
       </c>
       <c r="J75" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K75" t="str">
@@ -8810,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>71</v>
       </c>
@@ -8839,6 +8883,7 @@
         <v/>
       </c>
       <c r="J76" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K76" t="str">
@@ -8849,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>72</v>
       </c>
@@ -8878,6 +8923,7 @@
         <v/>
       </c>
       <c r="J77" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K77" t="str">
@@ -8888,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>73</v>
       </c>
@@ -8917,6 +8963,7 @@
         <v/>
       </c>
       <c r="J78" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K78" t="str">
@@ -8927,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>74</v>
       </c>
@@ -8956,6 +9003,7 @@
         <v/>
       </c>
       <c r="J79" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K79" t="str">
@@ -8966,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>75</v>
       </c>
@@ -8995,6 +9043,7 @@
         <v/>
       </c>
       <c r="J80" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K80" t="str">
@@ -9005,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>76</v>
       </c>
@@ -9034,6 +9083,7 @@
         <v/>
       </c>
       <c r="J81" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K81" t="str">
@@ -9044,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>77</v>
       </c>
@@ -9073,6 +9123,7 @@
         <v/>
       </c>
       <c r="J82" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K82" t="str">
@@ -9083,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>78</v>
       </c>
@@ -9112,6 +9163,7 @@
         <v/>
       </c>
       <c r="J83" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K83" t="str">
@@ -9122,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>79</v>
       </c>
@@ -9151,6 +9203,7 @@
         <v/>
       </c>
       <c r="J84" t="str">
+        <f ca="1"/>
         <v/>
       </c>
       <c r="K84" t="str">
@@ -9164,7 +9217,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z2qPucUrqzpAbNrSN+cTXqXL9VmvHlBebf7zJLZukSo935FG2MWtQHQaAHBYBjvhorIZyzPuXgxNE9xi36mPtA==" saltValue="RQEcPLaOesrjkBOnJxq8Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A6:L10000">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(ISBLANK(A6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9183,32 +9236,32 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/Alto Family Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758360FB-1CC1-4E2F-914C-6F4F5EC9E0AC}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343435BD-2150-4E02-8912-3CCD08FAD1F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,15 +492,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -517,6 +508,15 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -589,6 +589,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O84" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A5:O84" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
@@ -626,10 +630,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,28 +961,26 @@
   </sheetPr>
   <dimension ref="A2:O205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.77734375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -996,7 +998,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
@@ -1084,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="str" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N6">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="O6" t="str" cm="1">
@@ -1092,7 +1094,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
@@ -1133,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="str" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N7">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>79 years, 7 months, 27 days</v>
       </c>
       <c r="O7" t="str" cm="1">
@@ -1141,7 +1143,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
@@ -1182,7 +1184,7 @@
         <v/>
       </c>
       <c r="N8" t="str" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N8">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>70 years, 9 months, 21 days</v>
       </c>
       <c r="O8" t="str" cm="1">
@@ -1190,7 +1192,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
@@ -1229,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="N9" t="str" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N9">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O9" t="str" cm="1">
@@ -1237,7 +1239,7 @@
         <v>92 years, 1 months, 23 days</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
@@ -1274,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="N10" t="str" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N10">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O10" t="str" cm="1">
@@ -1282,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
@@ -1321,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="N11" t="str" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N11">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O11" t="str" cm="1">
@@ -1329,7 +1331,7 @@
         <v>90 years, 0 months, 17 days</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
@@ -1366,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="N12" t="str" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N12">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O12" t="str" cm="1">
@@ -1374,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
@@ -1413,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="N13" t="str" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N13">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O13" t="str" cm="1">
@@ -1421,7 +1423,7 @@
         <v>85 years, 7 months, 10 days</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
@@ -1458,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="N14" t="str" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N14">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O14" t="str" cm="1">
@@ -1466,7 +1468,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
@@ -1505,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="N15" t="str" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N15">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O15" t="str" cm="1">
@@ -1513,7 +1515,7 @@
         <v>83 years, 6 months, 29 days</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
@@ -1550,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="N16" t="str" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N16">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O16" t="str" cm="1">
@@ -1558,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
@@ -1595,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="N17" t="str" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N17">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O17" t="str" cm="1">
@@ -1603,7 +1605,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
@@ -1642,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="N18" t="str" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N18">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O18" t="str" cm="1">
@@ -1650,7 +1652,7 @@
         <v>78 years, 1 months, 24 days</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
@@ -1691,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="N19" t="str" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N19">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>49 years, 7 months, 1 days</v>
       </c>
       <c r="O19" t="str" cm="1">
@@ -1699,7 +1701,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
@@ -1736,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="N20" t="str" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N20">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O20" t="str" cm="1">
@@ -1744,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
@@ -1783,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="N21" t="str" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N21">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O21" t="str" cm="1">
@@ -1791,7 +1793,7 @@
         <v>71 years, 10 months, 15 days</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
@@ -1828,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="N22" t="str" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N22">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O22" t="str" cm="1">
@@ -1836,7 +1838,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
@@ -1873,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="N23" t="str" cm="1">
-        <f t="array" aca="1" ref="N23" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N23">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O23" t="str" cm="1">
@@ -1881,7 +1883,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
@@ -1920,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="N24" t="str" cm="1">
-        <f t="array" aca="1" ref="N24" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N24">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O24" t="str" cm="1">
@@ -1928,7 +1930,7 @@
         <v>69 years, 4 months, 16 days</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
@@ -1965,7 +1967,7 @@
         <v/>
       </c>
       <c r="N25" t="str" cm="1">
-        <f t="array" aca="1" ref="N25" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N25">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O25" t="str" cm="1">
@@ -1973,7 +1975,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
@@ -2010,7 +2012,7 @@
         <v/>
       </c>
       <c r="N26" t="str" cm="1">
-        <f t="array" aca="1" ref="N26" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N26">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O26" t="str" cm="1">
@@ -2018,7 +2020,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
@@ -2055,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="str" cm="1">
-        <f t="array" aca="1" ref="N27" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N27">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O27" t="str" cm="1">
@@ -2063,7 +2065,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
@@ -2100,7 +2102,7 @@
         <v>22</v>
       </c>
       <c r="N28" t="str" cm="1">
-        <f t="array" aca="1" ref="N28" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N28">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O28" t="str" cm="1">
@@ -2108,7 +2110,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
@@ -2145,7 +2147,7 @@
         <v>25</v>
       </c>
       <c r="N29" t="str" cm="1">
-        <f t="array" aca="1" ref="N29" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N29">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O29" t="str" cm="1">
@@ -2153,7 +2155,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
@@ -2190,7 +2192,7 @@
         <v>24</v>
       </c>
       <c r="N30" t="str" cm="1">
-        <f t="array" aca="1" ref="N30" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N30">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O30" t="str" cm="1">
@@ -2198,7 +2200,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
@@ -2235,7 +2237,7 @@
         <v>27</v>
       </c>
       <c r="N31" t="str" cm="1">
-        <f t="array" aca="1" ref="N31" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N31">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O31" t="str" cm="1">
@@ -2243,7 +2245,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
@@ -2280,7 +2282,7 @@
         <v>26</v>
       </c>
       <c r="N32" t="str" cm="1">
-        <f t="array" aca="1" ref="N32" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N32">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O32" t="str" cm="1">
@@ -2288,7 +2290,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
@@ -2325,7 +2327,7 @@
         <v>29</v>
       </c>
       <c r="N33" t="str" cm="1">
-        <f t="array" aca="1" ref="N33" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N33">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O33" t="str" cm="1">
@@ -2333,7 +2335,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
@@ -2370,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="N34" t="str" cm="1">
-        <f t="array" aca="1" ref="N34" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N34">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O34" t="str" cm="1">
@@ -2378,7 +2380,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
@@ -2415,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="N35" t="str" cm="1">
-        <f t="array" aca="1" ref="N35" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N35">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O35" t="str" cm="1">
@@ -2423,7 +2425,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
@@ -2460,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="N36" t="str" cm="1">
-        <f t="array" aca="1" ref="N36" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N36">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O36" t="str" cm="1">
@@ -2468,7 +2470,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
@@ -2505,7 +2507,7 @@
         <v>33</v>
       </c>
       <c r="N37" t="str" cm="1">
-        <f t="array" aca="1" ref="N37" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N37">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O37" t="str" cm="1">
@@ -2513,7 +2515,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
@@ -2550,7 +2552,7 @@
         <v>32</v>
       </c>
       <c r="N38" t="str" cm="1">
-        <f t="array" aca="1" ref="N38" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N38">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O38" t="str" cm="1">
@@ -2558,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
@@ -2595,7 +2597,7 @@
         <v/>
       </c>
       <c r="N39" t="str" cm="1">
-        <f t="array" aca="1" ref="N39" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N39">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O39" t="str" cm="1">
@@ -2603,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
@@ -2640,7 +2642,7 @@
         <v/>
       </c>
       <c r="N40" t="str" cm="1">
-        <f t="array" aca="1" ref="N40" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O40" t="str" cm="1">
@@ -2648,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
@@ -2685,7 +2687,7 @@
         <v/>
       </c>
       <c r="N41" t="str" cm="1">
-        <f t="array" aca="1" ref="N41" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N41">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O41" t="str" cm="1">
@@ -2693,7 +2695,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
@@ -2730,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="N42" t="str" cm="1">
-        <f t="array" aca="1" ref="N42" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N42">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O42" t="str" cm="1">
@@ -2738,7 +2740,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
@@ -2775,7 +2777,7 @@
         <v>37</v>
       </c>
       <c r="N43" t="str" cm="1">
-        <f t="array" aca="1" ref="N43" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N43">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O43" t="str" cm="1">
@@ -2783,7 +2785,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
@@ -2820,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="N44" t="str" cm="1">
-        <f t="array" aca="1" ref="N44" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N44">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O44" t="str" cm="1">
@@ -2828,7 +2830,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
@@ -2865,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="N45" t="str" cm="1">
-        <f t="array" aca="1" ref="N45" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N45">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O45" t="str" cm="1">
@@ -2873,7 +2875,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
@@ -2910,7 +2912,7 @@
         <v/>
       </c>
       <c r="N46" t="str" cm="1">
-        <f t="array" aca="1" ref="N46" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N46">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O46" t="str" cm="1">
@@ -2918,7 +2920,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
@@ -2955,7 +2957,7 @@
         <v/>
       </c>
       <c r="N47" t="str" cm="1">
-        <f t="array" aca="1" ref="N47" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N47">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O47" t="str" cm="1">
@@ -2963,7 +2965,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
@@ -3000,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="N48" t="str" cm="1">
-        <f t="array" aca="1" ref="N48" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N48">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O48" t="str" cm="1">
@@ -3008,7 +3010,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
@@ -3045,7 +3047,7 @@
         <v>43</v>
       </c>
       <c r="N49" t="str" cm="1">
-        <f t="array" aca="1" ref="N49" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N49">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O49" t="str" cm="1">
@@ -3053,7 +3055,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
@@ -3090,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="N50" t="str" cm="1">
-        <f t="array" aca="1" ref="N50" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N50">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O50" t="str" cm="1">
@@ -3098,7 +3100,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
@@ -3135,7 +3137,7 @@
         <v>45</v>
       </c>
       <c r="N51" t="str" cm="1">
-        <f t="array" aca="1" ref="N51" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N51">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O51" t="str" cm="1">
@@ -3143,7 +3145,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
@@ -3180,7 +3182,7 @@
         <v>48</v>
       </c>
       <c r="N52" t="str" cm="1">
-        <f t="array" aca="1" ref="N52" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N52">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O52" t="str" cm="1">
@@ -3188,7 +3190,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
@@ -3225,7 +3227,7 @@
         <v>47</v>
       </c>
       <c r="N53" t="str" cm="1">
-        <f t="array" aca="1" ref="N53" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O53" t="str" cm="1">
@@ -3233,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
@@ -3270,7 +3272,7 @@
         <v>50</v>
       </c>
       <c r="N54" t="str" cm="1">
-        <f t="array" aca="1" ref="N54" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N54">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O54" t="str" cm="1">
@@ -3278,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
@@ -3315,7 +3317,7 @@
         <v>49</v>
       </c>
       <c r="N55" t="str" cm="1">
-        <f t="array" aca="1" ref="N55" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O55" t="str" cm="1">
@@ -3323,7 +3325,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
@@ -3360,7 +3362,7 @@
         <v/>
       </c>
       <c r="N56" t="str" cm="1">
-        <f t="array" aca="1" ref="N56" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O56" t="str" cm="1">
@@ -3368,7 +3370,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
@@ -3405,7 +3407,7 @@
         <v>53</v>
       </c>
       <c r="N57" t="str" cm="1">
-        <f t="array" aca="1" ref="N57" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N57">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O57" t="str" cm="1">
@@ -3413,7 +3415,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
@@ -3450,7 +3452,7 @@
         <v>52</v>
       </c>
       <c r="N58" t="str" cm="1">
-        <f t="array" aca="1" ref="N58" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O58" t="str" cm="1">
@@ -3458,7 +3460,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
@@ -3495,7 +3497,7 @@
         <v>55</v>
       </c>
       <c r="N59" t="str" cm="1">
-        <f t="array" aca="1" ref="N59" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O59" t="str" cm="1">
@@ -3503,7 +3505,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
@@ -3540,7 +3542,7 @@
         <v>54</v>
       </c>
       <c r="N60" t="str" cm="1">
-        <f t="array" aca="1" ref="N60" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O60" t="str" cm="1">
@@ -3548,7 +3550,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
@@ -3585,7 +3587,7 @@
         <v/>
       </c>
       <c r="N61" t="str" cm="1">
-        <f t="array" aca="1" ref="N61" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O61" t="str" cm="1">
@@ -3593,7 +3595,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
@@ -3630,7 +3632,7 @@
         <v/>
       </c>
       <c r="N62" t="str" cm="1">
-        <f t="array" aca="1" ref="N62" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O62" t="str" cm="1">
@@ -3638,7 +3640,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
@@ -3675,7 +3677,7 @@
         <v/>
       </c>
       <c r="N63" t="str" cm="1">
-        <f t="array" aca="1" ref="N63" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O63" t="str" cm="1">
@@ -3683,7 +3685,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
@@ -3720,7 +3722,7 @@
         <v/>
       </c>
       <c r="N64" t="str" cm="1">
-        <f t="array" aca="1" ref="N64" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N64">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O64" t="str" cm="1">
@@ -3728,7 +3730,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
@@ -3765,7 +3767,7 @@
         <v/>
       </c>
       <c r="N65" t="str" cm="1">
-        <f t="array" aca="1" ref="N65" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N65">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O65" t="str" cm="1">
@@ -3773,7 +3775,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
@@ -3810,7 +3812,7 @@
         <v/>
       </c>
       <c r="N66" t="str" cm="1">
-        <f t="array" aca="1" ref="N66" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N66">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O66" t="str" cm="1">
@@ -3818,7 +3820,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
@@ -3855,7 +3857,7 @@
         <v/>
       </c>
       <c r="N67" t="str" cm="1">
-        <f t="array" aca="1" ref="N67" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N67">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O67" t="str" cm="1">
@@ -3863,7 +3865,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
@@ -3900,7 +3902,7 @@
         <v/>
       </c>
       <c r="N68" t="str" cm="1">
-        <f t="array" aca="1" ref="N68" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N68">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O68" t="str" cm="1">
@@ -3908,7 +3910,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
@@ -3945,7 +3947,7 @@
         <v/>
       </c>
       <c r="N69" t="str" cm="1">
-        <f t="array" aca="1" ref="N69" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N69">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O69" t="str" cm="1">
@@ -3953,7 +3955,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
@@ -3990,7 +3992,7 @@
         <v/>
       </c>
       <c r="N70" t="str" cm="1">
-        <f t="array" aca="1" ref="N70" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N70">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O70" t="str" cm="1">
@@ -3998,7 +4000,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
@@ -4035,7 +4037,7 @@
         <v/>
       </c>
       <c r="N71" t="str" cm="1">
-        <f t="array" aca="1" ref="N71" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N71">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O71" t="str" cm="1">
@@ -4043,7 +4045,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
@@ -4080,7 +4082,7 @@
         <v/>
       </c>
       <c r="N72" t="str" cm="1">
-        <f t="array" aca="1" ref="N72" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N72">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O72" t="str" cm="1">
@@ -4088,7 +4090,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
@@ -4125,7 +4127,7 @@
         <v/>
       </c>
       <c r="N73" t="str" cm="1">
-        <f t="array" aca="1" ref="N73" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N73">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O73" t="str" cm="1">
@@ -4133,7 +4135,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
@@ -4170,7 +4172,7 @@
         <v/>
       </c>
       <c r="N74" t="str" cm="1">
-        <f t="array" aca="1" ref="N74" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N74">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O74" t="str" cm="1">
@@ -4178,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
@@ -4215,7 +4217,7 @@
         <v/>
       </c>
       <c r="N75" t="str" cm="1">
-        <f t="array" aca="1" ref="N75" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N75">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O75" t="str" cm="1">
@@ -4223,7 +4225,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
@@ -4260,7 +4262,7 @@
         <v/>
       </c>
       <c r="N76" t="str" cm="1">
-        <f t="array" aca="1" ref="N76" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N76">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O76" t="str" cm="1">
@@ -4268,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
@@ -4305,7 +4307,7 @@
         <v/>
       </c>
       <c r="N77" t="str" cm="1">
-        <f t="array" aca="1" ref="N77" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N77">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O77" t="str" cm="1">
@@ -4313,7 +4315,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
@@ -4350,7 +4352,7 @@
         <v/>
       </c>
       <c r="N78" t="str" cm="1">
-        <f t="array" aca="1" ref="N78" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N78">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O78" t="str" cm="1">
@@ -4358,7 +4360,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
@@ -4395,7 +4397,7 @@
         <v/>
       </c>
       <c r="N79" t="str" cm="1">
-        <f t="array" aca="1" ref="N79" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N79">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O79" t="str" cm="1">
@@ -4403,7 +4405,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
@@ -4440,7 +4442,7 @@
         <v/>
       </c>
       <c r="N80" t="str" cm="1">
-        <f t="array" aca="1" ref="N80" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N80">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O80" t="str" cm="1">
@@ -4448,7 +4450,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
@@ -4485,7 +4487,7 @@
         <v/>
       </c>
       <c r="N81" t="str" cm="1">
-        <f t="array" aca="1" ref="N81" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N81">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O81" t="str" cm="1">
@@ -4493,7 +4495,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
@@ -4530,7 +4532,7 @@
         <v/>
       </c>
       <c r="N82" t="str" cm="1">
-        <f t="array" aca="1" ref="N82" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N82">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O82" t="str" cm="1">
@@ -4538,7 +4540,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
@@ -4575,7 +4577,7 @@
         <v/>
       </c>
       <c r="N83" t="str" cm="1">
-        <f t="array" aca="1" ref="N83" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N83">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O83" t="str" cm="1">
@@ -4583,7 +4585,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
@@ -4620,7 +4622,7 @@
         <v/>
       </c>
       <c r="N84" t="str" cm="1">
-        <f t="array" aca="1" ref="N84" ca="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <f t="array" ref="N84">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
       <c r="O84" t="str" cm="1">
@@ -4628,7 +4630,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4639,7 +4641,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4650,7 +4652,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4661,7 +4663,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4672,7 +4674,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4683,7 +4685,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4694,7 +4696,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4705,7 +4707,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4716,7 +4718,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4727,7 +4729,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4738,7 +4740,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4749,7 +4751,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4760,7 +4762,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4771,7 +4773,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4782,7 +4784,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4793,7 +4795,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4804,7 +4806,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4815,7 +4817,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4826,7 +4828,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4837,7 +4839,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4848,7 +4850,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4859,7 +4861,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4870,7 +4872,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -4881,7 +4883,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4892,7 +4894,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -4903,7 +4905,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -4914,7 +4916,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4925,7 +4927,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4936,7 +4938,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4947,7 +4949,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4958,7 +4960,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4969,7 +4971,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4980,7 +4982,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -4991,7 +4993,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5002,7 +5004,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5013,7 +5015,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5024,7 +5026,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5035,7 +5037,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5046,7 +5048,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5057,7 +5059,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5068,7 +5070,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5079,7 +5081,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5090,7 +5092,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5101,7 +5103,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5112,7 +5114,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -5123,7 +5125,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -5134,7 +5136,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5145,7 +5147,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5156,7 +5158,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5167,7 +5169,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5178,7 +5180,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -5189,7 +5191,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -5200,7 +5202,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5211,7 +5213,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5222,7 +5224,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5233,7 +5235,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5244,7 +5246,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -5255,7 +5257,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -5266,7 +5268,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -5277,7 +5279,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5288,7 +5290,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5299,7 +5301,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5310,7 +5312,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5321,7 +5323,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -5332,7 +5334,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -5343,7 +5345,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5354,7 +5356,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5365,7 +5367,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -5376,7 +5378,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5387,7 +5389,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5398,7 +5400,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5409,7 +5411,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5420,7 +5422,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5431,7 +5433,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5442,7 +5444,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -5453,7 +5455,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -5464,7 +5466,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5475,7 +5477,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5486,7 +5488,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5497,7 +5499,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5508,7 +5510,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5519,7 +5521,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5530,7 +5532,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5541,7 +5543,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5552,7 +5554,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5563,7 +5565,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5574,7 +5576,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5585,7 +5587,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5596,7 +5598,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5607,7 +5609,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5618,7 +5620,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5629,7 +5631,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5640,7 +5642,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5651,7 +5653,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5662,7 +5664,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5673,7 +5675,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5684,7 +5686,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5695,7 +5697,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -5706,7 +5708,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -5717,7 +5719,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -5728,7 +5730,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5739,7 +5741,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5750,7 +5752,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5761,7 +5763,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5772,7 +5774,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5783,7 +5785,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5794,7 +5796,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5805,7 +5807,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5816,7 +5818,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5827,7 +5829,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -5838,7 +5840,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -5849,7 +5851,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -5860,7 +5862,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -5871,7 +5873,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5882,7 +5884,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5893,7 +5895,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -5904,7 +5906,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5915,7 +5917,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -5926,7 +5928,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -5937,7 +5939,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -5948,7 +5950,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -5960,8 +5962,8 @@
       <c r="J205" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7et89gUOeO0L/NLda29lqFUEcrfA1Ho+8CqhqK3+JEiTdqYa2ZHkWBBX89qsXaBoOEva0WMrQNKLqyzcjUgPfw==" saltValue="S1M9z3ydoMEVZT96dzUU2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations disablePrompts="1" count="2">
+  <sheetProtection algorithmName="SHA-512" hashValue="OSXJL2j2klc/3rV8JR0C05heaM4HFLFyBsFnOWmv6JuJKXv3Z8lH92zSsabSI5cV9dHuaC6y4rg1Y2KlTOEjXA==" saltValue="voqt7IrGQpq392JNuj33JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:D84 D6:D58" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
     </dataValidation>
@@ -5991,22 +5993,22 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
         <f t="array" ref="A6:A84">Family[PersonID]</f>
         <v>1</v>
@@ -6082,7 +6084,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" aca="1" ref="J6:J84" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" ref="J6:J84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
@@ -6094,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6123,7 +6125,6 @@
         <v>1</v>
       </c>
       <c r="J7" t="str">
-        <f ca="1"/>
         <v>79 years, 7 months, 27 days</v>
       </c>
       <c r="K7" t="str">
@@ -6134,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6163,7 +6164,6 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <f ca="1"/>
         <v>70 years, 9 months, 21 days</v>
       </c>
       <c r="K8" t="str">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6203,7 +6203,6 @@
         <v>5</v>
       </c>
       <c r="J9" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K9" t="str">
@@ -6214,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6243,7 +6242,6 @@
         <v>4</v>
       </c>
       <c r="J10" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K10" t="str">
@@ -6254,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6283,7 +6281,6 @@
         <v>7</v>
       </c>
       <c r="J11" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K11" t="str">
@@ -6294,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6323,7 +6320,6 @@
         <v>6</v>
       </c>
       <c r="J12" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K12" t="str">
@@ -6334,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6363,7 +6359,6 @@
         <v>9</v>
       </c>
       <c r="J13" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K13" t="str">
@@ -6374,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6403,7 +6398,6 @@
         <v>8</v>
       </c>
       <c r="J14" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K14" t="str">
@@ -6414,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6443,7 +6437,6 @@
         <v>11</v>
       </c>
       <c r="J15" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K15" t="str">
@@ -6454,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6483,7 +6476,6 @@
         <v>10</v>
       </c>
       <c r="J16" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K16" t="str">
@@ -6494,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6523,7 +6515,6 @@
         <v>13</v>
       </c>
       <c r="J17" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K17" t="str">
@@ -6534,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6563,7 +6554,6 @@
         <v>12</v>
       </c>
       <c r="J18" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K18" t="str">
@@ -6574,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6603,7 +6593,6 @@
         <v>15</v>
       </c>
       <c r="J19" t="str">
-        <f ca="1"/>
         <v>49 years, 7 months, 1 days</v>
       </c>
       <c r="K19" t="str">
@@ -6614,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6643,7 +6632,6 @@
         <v>14</v>
       </c>
       <c r="J20" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K20" t="str">
@@ -6654,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6683,7 +6671,6 @@
         <v>17</v>
       </c>
       <c r="J21" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K21" t="str">
@@ -6694,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6723,7 +6710,6 @@
         <v>16</v>
       </c>
       <c r="J22" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K22" t="str">
@@ -6734,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6763,7 +6749,6 @@
         <v>19</v>
       </c>
       <c r="J23" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K23" t="str">
@@ -6774,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -6803,7 +6788,6 @@
         <v>18</v>
       </c>
       <c r="J24" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K24" t="str">
@@ -6814,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6843,7 +6827,6 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K25" t="str">
@@ -6854,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -6883,7 +6866,6 @@
         <v/>
       </c>
       <c r="J26" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K26" t="str">
@@ -6894,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -6923,7 +6905,6 @@
         <v>23</v>
       </c>
       <c r="J27" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K27" t="str">
@@ -6934,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -6963,7 +6944,6 @@
         <v>22</v>
       </c>
       <c r="J28" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K28" t="str">
@@ -6974,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -7003,7 +6983,6 @@
         <v>25</v>
       </c>
       <c r="J29" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K29" t="str">
@@ -7014,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -7043,7 +7022,6 @@
         <v>24</v>
       </c>
       <c r="J30" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K30" t="str">
@@ -7054,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -7083,7 +7061,6 @@
         <v>27</v>
       </c>
       <c r="J31" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K31" t="str">
@@ -7094,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -7123,7 +7100,6 @@
         <v>26</v>
       </c>
       <c r="J32" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K32" t="str">
@@ -7134,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -7163,7 +7139,6 @@
         <v>29</v>
       </c>
       <c r="J33" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K33" t="str">
@@ -7174,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -7203,7 +7178,6 @@
         <v>28</v>
       </c>
       <c r="J34" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K34" t="str">
@@ -7214,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -7243,7 +7217,6 @@
         <v>31</v>
       </c>
       <c r="J35" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K35" t="str">
@@ -7254,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>31</v>
       </c>
@@ -7283,7 +7256,6 @@
         <v>30</v>
       </c>
       <c r="J36" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K36" t="str">
@@ -7294,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -7323,7 +7295,6 @@
         <v>33</v>
       </c>
       <c r="J37" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K37" t="str">
@@ -7334,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -7363,7 +7334,6 @@
         <v>32</v>
       </c>
       <c r="J38" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K38" t="str">
@@ -7374,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>34</v>
       </c>
@@ -7403,7 +7373,6 @@
         <v/>
       </c>
       <c r="J39" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K39" t="str">
@@ -7414,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>35</v>
       </c>
@@ -7443,7 +7412,6 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K40" t="str">
@@ -7454,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -7483,7 +7451,6 @@
         <v/>
       </c>
       <c r="J41" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K41" t="str">
@@ -7494,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -7523,7 +7490,6 @@
         <v>38</v>
       </c>
       <c r="J42" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K42" t="str">
@@ -7534,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38</v>
       </c>
@@ -7563,7 +7529,6 @@
         <v>37</v>
       </c>
       <c r="J43" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K43" t="str">
@@ -7574,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>39</v>
       </c>
@@ -7603,7 +7568,6 @@
         <v>40</v>
       </c>
       <c r="J44" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K44" t="str">
@@ -7614,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -7643,7 +7607,6 @@
         <v>39</v>
       </c>
       <c r="J45" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K45" t="str">
@@ -7654,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7683,7 +7646,6 @@
         <v/>
       </c>
       <c r="J46" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K46" t="str">
@@ -7694,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7723,7 +7685,6 @@
         <v/>
       </c>
       <c r="J47" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K47" t="str">
@@ -7734,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7763,7 +7724,6 @@
         <v>44</v>
       </c>
       <c r="J48" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K48" t="str">
@@ -7774,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7803,7 +7763,6 @@
         <v>43</v>
       </c>
       <c r="J49" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K49" t="str">
@@ -7814,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7843,7 +7802,6 @@
         <v>46</v>
       </c>
       <c r="J50" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K50" t="str">
@@ -7854,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7883,7 +7841,6 @@
         <v>45</v>
       </c>
       <c r="J51" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K51" t="str">
@@ -7894,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>47</v>
       </c>
@@ -7923,7 +7880,6 @@
         <v>48</v>
       </c>
       <c r="J52" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K52" t="str">
@@ -7934,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -7963,7 +7919,6 @@
         <v>47</v>
       </c>
       <c r="J53" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K53" t="str">
@@ -7974,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -8003,7 +7958,6 @@
         <v>50</v>
       </c>
       <c r="J54" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K54" t="str">
@@ -8014,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8043,7 +7997,6 @@
         <v>49</v>
       </c>
       <c r="J55" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K55" t="str">
@@ -8054,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8083,7 +8036,6 @@
         <v/>
       </c>
       <c r="J56" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K56" t="str">
@@ -8094,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>52</v>
       </c>
@@ -8123,7 +8075,6 @@
         <v>53</v>
       </c>
       <c r="J57" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K57" t="str">
@@ -8134,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8163,7 +8114,6 @@
         <v>52</v>
       </c>
       <c r="J58" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K58" t="str">
@@ -8174,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8203,7 +8153,6 @@
         <v>55</v>
       </c>
       <c r="J59" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K59" t="str">
@@ -8214,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>55</v>
       </c>
@@ -8243,7 +8192,6 @@
         <v>54</v>
       </c>
       <c r="J60" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K60" t="str">
@@ -8254,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>56</v>
       </c>
@@ -8283,7 +8231,6 @@
         <v/>
       </c>
       <c r="J61" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K61" t="str">
@@ -8294,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>57</v>
       </c>
@@ -8323,7 +8270,6 @@
         <v/>
       </c>
       <c r="J62" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K62" t="str">
@@ -8334,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>58</v>
       </c>
@@ -8363,7 +8309,6 @@
         <v/>
       </c>
       <c r="J63" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K63" t="str">
@@ -8374,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>59</v>
       </c>
@@ -8403,7 +8348,6 @@
         <v/>
       </c>
       <c r="J64" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K64" t="str">
@@ -8414,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>60</v>
       </c>
@@ -8443,7 +8387,6 @@
         <v/>
       </c>
       <c r="J65" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K65" t="str">
@@ -8454,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>61</v>
       </c>
@@ -8483,7 +8426,6 @@
         <v/>
       </c>
       <c r="J66" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K66" t="str">
@@ -8494,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>62</v>
       </c>
@@ -8523,7 +8465,6 @@
         <v/>
       </c>
       <c r="J67" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K67" t="str">
@@ -8534,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>63</v>
       </c>
@@ -8563,7 +8504,6 @@
         <v/>
       </c>
       <c r="J68" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K68" t="str">
@@ -8574,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>64</v>
       </c>
@@ -8603,7 +8543,6 @@
         <v/>
       </c>
       <c r="J69" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K69" t="str">
@@ -8614,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>65</v>
       </c>
@@ -8643,7 +8582,6 @@
         <v/>
       </c>
       <c r="J70" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K70" t="str">
@@ -8654,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>66</v>
       </c>
@@ -8683,7 +8621,6 @@
         <v/>
       </c>
       <c r="J71" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K71" t="str">
@@ -8694,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>67</v>
       </c>
@@ -8723,7 +8660,6 @@
         <v/>
       </c>
       <c r="J72" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K72" t="str">
@@ -8734,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>68</v>
       </c>
@@ -8763,7 +8699,6 @@
         <v/>
       </c>
       <c r="J73" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K73" t="str">
@@ -8774,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69</v>
       </c>
@@ -8803,7 +8738,6 @@
         <v/>
       </c>
       <c r="J74" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K74" t="str">
@@ -8814,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>70</v>
       </c>
@@ -8843,7 +8777,6 @@
         <v/>
       </c>
       <c r="J75" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K75" t="str">
@@ -8854,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>71</v>
       </c>
@@ -8883,7 +8816,6 @@
         <v/>
       </c>
       <c r="J76" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K76" t="str">
@@ -8894,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>72</v>
       </c>
@@ -8923,7 +8855,6 @@
         <v/>
       </c>
       <c r="J77" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K77" t="str">
@@ -8934,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>73</v>
       </c>
@@ -8963,7 +8894,6 @@
         <v/>
       </c>
       <c r="J78" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K78" t="str">
@@ -8974,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>74</v>
       </c>
@@ -9003,7 +8933,6 @@
         <v/>
       </c>
       <c r="J79" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K79" t="str">
@@ -9014,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>75</v>
       </c>
@@ -9043,7 +8972,6 @@
         <v/>
       </c>
       <c r="J80" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K80" t="str">
@@ -9054,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>76</v>
       </c>
@@ -9083,7 +9011,6 @@
         <v/>
       </c>
       <c r="J81" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K81" t="str">
@@ -9094,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>77</v>
       </c>
@@ -9123,7 +9050,6 @@
         <v/>
       </c>
       <c r="J82" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K82" t="str">
@@ -9134,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>78</v>
       </c>
@@ -9163,7 +9089,6 @@
         <v/>
       </c>
       <c r="J83" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K83" t="str">
@@ -9174,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>79</v>
       </c>
@@ -9203,7 +9128,6 @@
         <v/>
       </c>
       <c r="J84" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="K84" t="str">
@@ -9217,7 +9141,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z2qPucUrqzpAbNrSN+cTXqXL9VmvHlBebf7zJLZukSo935FG2MWtQHQaAHBYBjvhorIZyzPuXgxNE9xi36mPtA==" saltValue="RQEcPLaOesrjkBOnJxq8Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A6:L10000">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(A6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9236,17 +9160,17 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9254,12 +9178,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -400,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,15 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -508,15 +517,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -589,10 +589,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O84" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A5:O84" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
@@ -630,10 +626,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,22 +961,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.77734375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -998,7 +994,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
@@ -1094,7 +1090,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
@@ -1143,7 +1139,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
@@ -1192,7 +1188,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
@@ -1239,7 +1235,7 @@
         <v>92 years, 1 months, 23 days</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
@@ -1284,7 +1280,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
@@ -1331,7 +1327,7 @@
         <v>90 years, 0 months, 17 days</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
@@ -1376,7 +1372,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
@@ -1423,7 +1419,7 @@
         <v>85 years, 7 months, 10 days</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
@@ -1468,7 +1464,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
@@ -1515,7 +1511,7 @@
         <v>83 years, 6 months, 29 days</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
@@ -1560,7 +1556,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
@@ -1605,7 +1601,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
@@ -1652,7 +1648,7 @@
         <v>78 years, 1 months, 24 days</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
@@ -1701,7 +1697,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
@@ -1746,7 +1742,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
@@ -1793,7 +1789,7 @@
         <v>71 years, 10 months, 15 days</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
@@ -1838,7 +1834,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
@@ -1883,7 +1879,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
@@ -1930,7 +1926,7 @@
         <v>69 years, 4 months, 16 days</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
@@ -1975,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
@@ -2020,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
@@ -2065,7 +2061,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
@@ -2110,7 +2106,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
@@ -2155,7 +2151,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
@@ -2200,7 +2196,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
@@ -2245,7 +2241,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
@@ -2290,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
@@ -2335,7 +2331,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
@@ -2380,7 +2376,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
@@ -2425,7 +2421,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
@@ -2470,7 +2466,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
@@ -2515,7 +2511,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
@@ -2560,7 +2556,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
@@ -2605,7 +2601,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
@@ -2650,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
@@ -2695,7 +2691,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
@@ -2740,7 +2736,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
@@ -2785,7 +2781,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
@@ -2830,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
@@ -2875,7 +2871,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
@@ -2920,7 +2916,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
@@ -2965,7 +2961,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
@@ -3010,7 +3006,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
@@ -3055,7 +3051,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
@@ -3100,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
@@ -3145,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
@@ -3190,7 +3186,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
@@ -3235,7 +3231,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
@@ -3280,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
@@ -3325,7 +3321,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
@@ -3370,7 +3366,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
@@ -3415,7 +3411,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
@@ -3460,7 +3456,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
@@ -3505,7 +3501,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
@@ -3550,7 +3546,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
@@ -3595,7 +3591,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
@@ -3640,7 +3636,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
@@ -3685,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
@@ -3730,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
@@ -3775,7 +3771,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
@@ -3820,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
@@ -3865,7 +3861,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
@@ -3910,7 +3906,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
@@ -3955,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
@@ -4000,7 +3996,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
@@ -4045,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
@@ -4090,7 +4086,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
@@ -4135,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
@@ -4180,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
@@ -4225,7 +4221,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
@@ -4270,7 +4266,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
@@ -4315,7 +4311,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
@@ -4360,7 +4356,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
@@ -4405,7 +4401,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
@@ -4450,7 +4446,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
@@ -4495,7 +4491,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
@@ -4540,7 +4536,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
@@ -4585,7 +4581,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
@@ -4630,7 +4626,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4641,7 +4637,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4652,7 +4648,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4663,7 +4659,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4674,7 +4670,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4685,7 +4681,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4696,7 +4692,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4707,7 +4703,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4718,7 +4714,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4729,7 +4725,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4740,7 +4736,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4751,7 +4747,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4762,7 +4758,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4773,7 +4769,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4784,7 +4780,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4795,7 +4791,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4806,7 +4802,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4817,7 +4813,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4828,7 +4824,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4839,7 +4835,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4850,7 +4846,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4861,7 +4857,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4872,7 +4868,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -4883,7 +4879,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4894,7 +4890,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -4905,7 +4901,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -4916,7 +4912,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4927,7 +4923,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4938,7 +4934,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4949,7 +4945,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4960,7 +4956,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4971,7 +4967,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4982,7 +4978,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -4993,7 +4989,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5004,7 +5000,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5015,7 +5011,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5026,7 +5022,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5037,7 +5033,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5048,7 +5044,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5059,7 +5055,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5070,7 +5066,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5081,7 +5077,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5092,7 +5088,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5103,7 +5099,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5114,7 +5110,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -5125,7 +5121,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -5136,7 +5132,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5147,7 +5143,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5158,7 +5154,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5169,7 +5165,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5180,7 +5176,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -5191,7 +5187,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -5202,7 +5198,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5213,7 +5209,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5224,7 +5220,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5235,7 +5231,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5246,7 +5242,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -5257,7 +5253,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -5268,7 +5264,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -5279,7 +5275,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5290,7 +5286,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5301,7 +5297,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5312,7 +5308,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5323,7 +5319,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -5334,7 +5330,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -5345,7 +5341,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5356,7 +5352,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5367,7 +5363,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -5378,7 +5374,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5389,7 +5385,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5400,7 +5396,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5411,7 +5407,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5422,7 +5418,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5433,7 +5429,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5444,7 +5440,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -5455,7 +5451,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -5466,7 +5462,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5477,7 +5473,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5488,7 +5484,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5499,7 +5495,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5510,7 +5506,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5521,7 +5517,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5532,7 +5528,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5543,7 +5539,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5554,7 +5550,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5565,7 +5561,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5576,7 +5572,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5587,7 +5583,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5598,7 +5594,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5609,7 +5605,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5620,7 +5616,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5631,7 +5627,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5642,7 +5638,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5653,7 +5649,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5664,7 +5660,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5675,7 +5671,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5686,7 +5682,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5697,7 +5693,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -5708,7 +5704,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -5719,7 +5715,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -5730,7 +5726,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5741,7 +5737,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5752,7 +5748,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5763,7 +5759,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5774,7 +5770,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5785,7 +5781,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5796,7 +5792,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5807,7 +5803,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5818,7 +5814,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5829,7 +5825,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -5840,7 +5836,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -5851,7 +5847,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -5862,7 +5858,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -5873,7 +5869,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5884,7 +5880,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5895,7 +5891,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -5906,7 +5902,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5917,7 +5913,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -5928,7 +5924,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -5939,7 +5935,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -5950,7 +5946,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -5993,22 +5989,22 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6046,7 +6042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" cm="1">
         <f t="array" ref="A6:A84">Family[PersonID]</f>
         <v>1</v>
@@ -6096,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6174,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6252,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6447,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6564,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6603,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6642,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6681,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6759,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>19</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6837,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>21</v>
       </c>
@@ -6876,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>22</v>
       </c>
@@ -6915,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>23</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>24</v>
       </c>
@@ -6993,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>25</v>
       </c>
@@ -7032,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>26</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>27</v>
       </c>
@@ -7110,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>28</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>29</v>
       </c>
@@ -7188,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>30</v>
       </c>
@@ -7227,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>31</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>32</v>
       </c>
@@ -7305,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>33</v>
       </c>
@@ -7344,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>34</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>35</v>
       </c>
@@ -7422,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>36</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>37</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>38</v>
       </c>
@@ -7539,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>39</v>
       </c>
@@ -7578,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>40</v>
       </c>
@@ -7617,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7656,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7695,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7734,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7773,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7812,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7851,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>47</v>
       </c>
@@ -7890,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>48</v>
       </c>
@@ -7929,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>49</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8007,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>52</v>
       </c>
@@ -8085,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8124,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8163,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>55</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>56</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>57</v>
       </c>
@@ -8280,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>58</v>
       </c>
@@ -8319,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>59</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>60</v>
       </c>
@@ -8397,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>61</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>62</v>
       </c>
@@ -8475,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>63</v>
       </c>
@@ -8514,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>64</v>
       </c>
@@ -8553,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>65</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>66</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>67</v>
       </c>
@@ -8670,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>68</v>
       </c>
@@ -8709,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>69</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>70</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>71</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>72</v>
       </c>
@@ -8865,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>73</v>
       </c>
@@ -8904,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>74</v>
       </c>
@@ -8943,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>75</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>76</v>
       </c>
@@ -9021,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>77</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>78</v>
       </c>
@@ -9099,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>79</v>
       </c>
@@ -9141,7 +9137,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z2qPucUrqzpAbNrSN+cTXqXL9VmvHlBebf7zJLZukSo935FG2MWtQHQaAHBYBjvhorIZyzPuXgxNE9xi36mPtA==" saltValue="RQEcPLaOesrjkBOnJxq8Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A6:L10000">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(ISBLANK(A6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9160,17 +9156,17 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9178,12 +9174,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343435BD-2150-4E02-8912-3CCD08FAD1F3}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5002D9-9AAE-44EC-9857-5062D0DD5FC6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="105">
   <si>
     <t>ALTO FAMILY DATA ENTRY</t>
   </si>
@@ -384,13 +384,22 @@
     <t>Ryder Garland</t>
   </si>
   <si>
-    <t>Alexis Mai Lim</t>
-  </si>
-  <si>
     <t>Lookup_Gender</t>
   </si>
   <si>
     <t>pwd: alto</t>
+  </si>
+  <si>
+    <t>Alexis Mei Lim</t>
+  </si>
+  <si>
+    <t>Samara Jia Lim</t>
+  </si>
+  <si>
+    <t>Tamsyn Jie Lim</t>
+  </si>
+  <si>
+    <t>Nita Nash Wongbandue</t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -486,20 +495,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -517,6 +519,15 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -590,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O84" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A5:O84" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O87" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A5:O87" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="18">
       <calculatedColumnFormula>ROW()-ROW(Family[[#Headers],[PersonID]])</calculatedColumnFormula>
@@ -626,10 +637,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,28 +966,31 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A2:O205"/>
+  <dimension ref="A2:O206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,17 +998,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
@@ -1090,7 +1104,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
@@ -1139,7 +1153,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
@@ -1188,7 +1202,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
@@ -1232,10 +1246,10 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>92 years, 1 months, 23 days</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>92 years, 1 months, 25 days</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
@@ -1280,7 +1294,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
@@ -1324,10 +1338,10 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>90 years, 0 months, 17 days</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>90 years, 0 months, 19 days</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
@@ -1372,7 +1386,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
@@ -1416,10 +1430,10 @@
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>85 years, 7 months, 10 days</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>85 years, 7 months, 12 days</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
@@ -1464,7 +1478,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
@@ -1508,10 +1522,10 @@
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>83 years, 6 months, 29 days</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>83 years, 7 months, 0 days</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
@@ -1556,7 +1570,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
@@ -1601,7 +1615,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
@@ -1645,10 +1659,10 @@
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>78 years, 1 months, 24 days</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>78 years, 1 months, 26 days</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
@@ -1697,7 +1711,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
@@ -1742,7 +1756,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
@@ -1786,10 +1800,10 @@
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>71 years, 10 months, 15 days</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>71 years, 10 months, 17 days</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
@@ -1834,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
@@ -1879,7 +1893,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
@@ -1923,10 +1937,10 @@
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>69 years, 4 months, 16 days</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>69 years, 4 months, 18 days</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
@@ -1971,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
@@ -2016,7 +2030,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
@@ -2061,7 +2075,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
@@ -2106,7 +2120,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
@@ -2151,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
@@ -2196,7 +2210,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
@@ -2241,7 +2255,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
@@ -2286,7 +2300,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
@@ -2331,7 +2345,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
@@ -2376,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
@@ -2421,7 +2435,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
@@ -2466,7 +2480,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
@@ -2511,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
@@ -2556,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
@@ -2601,7 +2615,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
@@ -2646,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
@@ -2691,7 +2705,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
@@ -2736,7 +2750,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
@@ -2781,7 +2795,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
@@ -2826,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
@@ -2871,7 +2885,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
@@ -2916,7 +2930,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
@@ -2961,7 +2975,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
@@ -3006,7 +3020,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
@@ -3051,7 +3065,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
@@ -3096,7 +3110,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
@@ -3141,7 +3155,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
@@ -3186,7 +3200,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
@@ -3231,7 +3245,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
@@ -3276,7 +3290,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
@@ -3321,7 +3335,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
@@ -3366,7 +3380,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
@@ -3411,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
@@ -3456,7 +3470,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
@@ -3501,7 +3515,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
@@ -3546,7 +3560,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
@@ -3567,7 +3581,7 @@
         <v>39</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" cm="1">
@@ -3578,9 +3592,9 @@
         <f t="array" ref="L61">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="M61" t="str" cm="1">
+      <c r="M61" cm="1">
         <f t="array" ref="M61">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>57</v>
       </c>
       <c r="N61" t="str" cm="1">
         <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3591,13 +3605,13 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
@@ -3605,44 +3619,40 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>20</v>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" cm="1">
+      <c r="K62" s="9" t="str" cm="1">
         <f t="array" ref="K62">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>18</v>
-      </c>
-      <c r="L62" cm="1">
+        <v/>
+      </c>
+      <c r="L62" s="9" t="str" cm="1">
         <f t="array" ref="L62">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>19</v>
-      </c>
-      <c r="M62" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="M62" s="9" cm="1">
         <f t="array" ref="M62">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="N62" t="str" cm="1">
+        <v>56</v>
+      </c>
+      <c r="N62" s="10" t="str" cm="1">
         <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O62" t="str" cm="1">
+      <c r="O62" s="10" t="str" cm="1">
         <f t="array" ref="O62">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
@@ -3651,10 +3661,10 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>20</v>
@@ -3662,11 +3672,11 @@
       <c r="J63" s="5"/>
       <c r="K63" cm="1">
         <f t="array" ref="K63">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L63" cm="1">
         <f t="array" ref="L63">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M63" t="str" cm="1">
         <f t="array" ref="M63">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3681,17 +3691,17 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3726,25 +3736,25 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>20</v>
@@ -3752,11 +3762,11 @@
       <c r="J65" s="5"/>
       <c r="K65" cm="1">
         <f t="array" ref="K65">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L65" cm="1">
         <f t="array" ref="L65">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M65" t="str" cm="1">
         <f t="array" ref="M65">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3771,13 +3781,13 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
@@ -3786,10 +3796,10 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>20</v>
@@ -3797,11 +3807,11 @@
       <c r="J66" s="5"/>
       <c r="K66" cm="1">
         <f t="array" ref="K66">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L66" cm="1">
         <f t="array" ref="L66">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M66" t="str" cm="1">
         <f t="array" ref="M66">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3816,17 +3826,17 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -3861,13 +3871,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
@@ -3876,10 +3886,10 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>20</v>
@@ -3887,11 +3897,11 @@
       <c r="J68" s="5"/>
       <c r="K68" cm="1">
         <f t="array" ref="K68">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L68" cm="1">
         <f t="array" ref="L68">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M68" t="str" cm="1">
         <f t="array" ref="M68">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3906,13 +3916,13 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
@@ -3921,10 +3931,10 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>20</v>
@@ -3932,11 +3942,11 @@
       <c r="J69" s="5"/>
       <c r="K69" cm="1">
         <f t="array" ref="K69">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L69" cm="1">
         <f t="array" ref="L69">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M69" t="str" cm="1">
         <f t="array" ref="M69">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3951,17 +3961,17 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3996,25 +4006,25 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>20</v>
@@ -4022,11 +4032,11 @@
       <c r="J71" s="5"/>
       <c r="K71" cm="1">
         <f t="array" ref="K71">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L71" cm="1">
         <f t="array" ref="L71">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M71" t="str" cm="1">
         <f t="array" ref="M71">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4041,25 +4051,25 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>20</v>
@@ -4067,11 +4077,11 @@
       <c r="J72" s="5"/>
       <c r="K72" cm="1">
         <f t="array" ref="K72">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>35</v>
-      </c>
-      <c r="L72" t="str" cm="1">
+        <v>32</v>
+      </c>
+      <c r="L72" cm="1">
         <f t="array" ref="L72">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="M72" t="str" cm="1">
         <f t="array" ref="M72">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4086,17 +4096,17 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -4131,13 +4141,13 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
@@ -4176,25 +4186,25 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>20</v>
@@ -4202,11 +4212,11 @@
       <c r="J75" s="5"/>
       <c r="K75" cm="1">
         <f t="array" ref="K75">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>39</v>
-      </c>
-      <c r="L75" cm="1">
+        <v>35</v>
+      </c>
+      <c r="L75" t="str" cm="1">
         <f t="array" ref="L75">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>40</v>
+        <v/>
       </c>
       <c r="M75" t="str" cm="1">
         <f t="array" ref="M75">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4221,13 +4231,13 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
@@ -4236,10 +4246,10 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>20</v>
@@ -4247,11 +4257,11 @@
       <c r="J76" s="5"/>
       <c r="K76" cm="1">
         <f t="array" ref="K76">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L76" cm="1">
         <f t="array" ref="L76">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M76" t="str" cm="1">
         <f t="array" ref="M76">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4266,17 +4276,17 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -4311,25 +4321,25 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>20</v>
@@ -4337,11 +4347,11 @@
       <c r="J78" s="5"/>
       <c r="K78" cm="1">
         <f t="array" ref="K78">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L78" cm="1">
         <f t="array" ref="L78">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M78" t="str" cm="1">
         <f t="array" ref="M78">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4356,25 +4366,25 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>20</v>
@@ -4382,11 +4392,11 @@
       <c r="J79" s="5"/>
       <c r="K79" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L79" cm="1">
         <f t="array" ref="L79">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M79" t="str" cm="1">
         <f t="array" ref="M79">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4401,13 +4411,13 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
@@ -4446,13 +4456,13 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
@@ -4491,17 +4501,17 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4536,13 +4546,13 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
@@ -4551,22 +4561,22 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="5" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J83" s="5"/>
-      <c r="K83" t="str" cm="1">
+      <c r="K83" cm="1">
         <f t="array" ref="K83">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>49</v>
       </c>
       <c r="L83" cm="1">
         <f t="array" ref="L83">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M83" t="str" cm="1">
         <f t="array" ref="M83">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4581,13 +4591,13 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
@@ -4596,22 +4606,22 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="5" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="K84" cm="1">
+      <c r="K84" t="str" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="L84" cm="1">
         <f t="array" ref="L84">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M84" t="str" cm="1">
         <f t="array" ref="M84">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4626,40 +4636,146 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15">
-      <c r="B85" s="5"/>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
+        <v>80</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
+      <c r="D85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="6">
+        <v>41817</v>
+      </c>
       <c r="F85" s="6"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="B86" s="5"/>
+      <c r="K85" cm="1">
+        <f t="array" ref="K85">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>52</v>
+      </c>
+      <c r="L85" cm="1">
+        <f t="array" ref="L85">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>53</v>
+      </c>
+      <c r="M85" t="str" cm="1">
+        <f t="array" ref="M85">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v/>
+      </c>
+      <c r="N85" t="str" cm="1">
+        <f t="array" ref="N85">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <v/>
+      </c>
+      <c r="O85" t="str" cm="1">
+        <f t="array" aca="1" ref="O85" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>11 years, 7 months, 5 days</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
+        <v>81</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="6">
+        <v>44335</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45164</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="B87" s="5"/>
+      <c r="K86" s="9" cm="1">
+        <f t="array" ref="K86">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>52</v>
+      </c>
+      <c r="L86" s="9" cm="1">
+        <f t="array" ref="L86">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>53</v>
+      </c>
+      <c r="M86" s="9" t="str" cm="1">
+        <f t="array" ref="M86">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v/>
+      </c>
+      <c r="N86" s="10" t="str" cm="1">
+        <f t="array" ref="N86">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <v>2 years, 3 months, 7 days</v>
+      </c>
+      <c r="O86" s="10" t="str" cm="1">
+        <f t="array" ref="O86">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
+        <v>82</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="6">
+        <v>45188</v>
+      </c>
       <c r="F87" s="6"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="G87" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" s="6"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="K87" s="9" cm="1">
+        <f t="array" ref="K87">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>52</v>
+      </c>
+      <c r="L87" s="9" cm="1">
+        <f t="array" ref="L87">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>53</v>
+      </c>
+      <c r="M87" s="9" t="str" cm="1">
+        <f t="array" ref="M87">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v/>
+      </c>
+      <c r="N87" s="10" t="str" cm="1">
+        <f t="array" ref="N87">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <v/>
+      </c>
+      <c r="O87" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="O87" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>2 years, 4 months, 13 days</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4670,7 +4786,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4681,7 +4797,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4692,7 +4808,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4703,7 +4819,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4714,7 +4830,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4725,7 +4841,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4736,7 +4852,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4747,7 +4863,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4758,7 +4874,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4769,7 +4885,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4780,7 +4896,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4791,7 +4907,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4802,7 +4918,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4813,7 +4929,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4824,7 +4940,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4835,7 +4951,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4846,7 +4962,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4857,7 +4973,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4868,7 +4984,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -4879,7 +4995,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4890,7 +5006,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -4901,7 +5017,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -4912,7 +5028,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4923,7 +5039,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4934,7 +5050,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4945,7 +5061,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4956,7 +5072,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4967,7 +5083,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4978,7 +5094,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -4989,7 +5105,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5000,7 +5116,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5011,7 +5127,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5022,7 +5138,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5033,7 +5149,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5044,7 +5160,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5055,7 +5171,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5066,7 +5182,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5077,7 +5193,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5088,7 +5204,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5099,7 +5215,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5110,7 +5226,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -5121,7 +5237,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -5132,7 +5248,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5143,7 +5259,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5154,7 +5270,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5165,7 +5281,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5176,7 +5292,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -5187,7 +5303,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -5198,7 +5314,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5209,7 +5325,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5220,7 +5336,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5231,7 +5347,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5242,7 +5358,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -5253,7 +5369,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -5264,7 +5380,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -5275,7 +5391,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5286,7 +5402,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5297,7 +5413,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5308,7 +5424,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5319,7 +5435,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -5330,7 +5446,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -5341,7 +5457,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5352,7 +5468,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5363,7 +5479,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -5374,7 +5490,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5385,7 +5501,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5396,7 +5512,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5407,7 +5523,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5418,7 +5534,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5429,7 +5545,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5440,7 +5556,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -5451,7 +5567,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -5462,7 +5578,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5473,7 +5589,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5484,7 +5600,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5495,7 +5611,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5506,7 +5622,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5517,7 +5633,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5528,7 +5644,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5539,7 +5655,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5550,7 +5666,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5561,7 +5677,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5572,7 +5688,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5583,7 +5699,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5594,7 +5710,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5605,7 +5721,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5616,7 +5732,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5627,7 +5743,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5638,7 +5754,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5649,7 +5765,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5660,7 +5776,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5671,7 +5787,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5682,7 +5798,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5693,7 +5809,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -5704,7 +5820,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -5715,7 +5831,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -5726,7 +5842,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5737,7 +5853,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5748,7 +5864,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5759,7 +5875,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5770,7 +5886,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5781,7 +5897,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5792,7 +5908,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5803,7 +5919,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5814,7 +5930,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5825,7 +5941,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -5836,7 +5952,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -5847,7 +5963,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -5858,7 +5974,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -5869,7 +5985,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5880,7 +5996,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5891,7 +6007,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -5902,7 +6018,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5913,7 +6029,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -5924,7 +6040,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -5935,7 +6051,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -5946,7 +6062,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -5957,20 +6073,31 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OSXJL2j2klc/3rV8JR0C05heaM4HFLFyBsFnOWmv6JuJKXv3Z8lH92zSsabSI5cV9dHuaC6y4rg1Y2KlTOEjXA==" saltValue="voqt7IrGQpq392JNuj33JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8tElWfJnWP+A652nkbOenVe0TIPHMqB+hzMn2S0e/Qf6R6AzhLYCgGtJw73kwlXibS6hWKY2e11QLr8oc0H1NA==" saltValue="MErHZgUwbc9mlqPOljtERQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:D84 D6:D58" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D85" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59:J84 G6:J58" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:J85" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
       <formula1>INDIRECT("Family[name]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G6:I16 I18:I22 I24:I51 I58 I53:I56 I59:I84 G59:H84 G53:H56 G58:H58 G24:H51 G18:H22 G17:H17 G23:H23 G52:H52 G57:H57" listDataValidation="1"/>
+    <ignoredError sqref="G6:I16 I18:I22 I24:I51 I58 I53:I56 I63:I85 G63:H85 G53:H56 G58:H58 G24:H51 G18:H22 G17:H17 G23:H23 G52:H52 G57:H57 G59:H61 I59:I60" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5983,28 +6110,28 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A5:L84"/>
+  <dimension ref="A5:L87"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6042,57 +6169,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A84">Family[PersonID]</f>
+        <f t="array" ref="A6:A87">Family[PersonID]</f>
         <v>1</v>
       </c>
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:B84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
+        <f t="array" ref="B6:B87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
         <v>Jose G. Alto</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
+        <f t="array" ref="C6:C87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6:D84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
+        <f t="array" ref="D6:D87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
         <v>male</v>
       </c>
       <c r="E6" s="3" cm="1">
-        <f t="array" ref="E6:E84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
+        <f t="array" ref="E6:E87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
         <v>1174</v>
       </c>
       <c r="F6" s="3" cm="1">
-        <f t="array" ref="F6:F84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
+        <f t="array" ref="F6:F87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
         <v>32314</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6:G84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
+        <f t="array" ref="G6:G87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
         <v/>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6:H84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
+        <f t="array" ref="H6:H87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
         <v/>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6:I84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
+        <f t="array" ref="I6:I87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:J84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" ref="J6:J87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
-        <f t="array" aca="1" ref="K6:K84" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
+        <f t="array" aca="1" ref="K6:K87" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
         <v/>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6:L84">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <f t="array" ref="L6:L87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6131,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6170,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6203,13 +6330,13 @@
       </c>
       <c r="K9" t="str">
         <f ca="1"/>
-        <v>92 years, 1 months, 23 days</v>
+        <v>92 years, 1 months, 25 days</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6248,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6281,13 +6408,13 @@
       </c>
       <c r="K11" t="str">
         <f ca="1"/>
-        <v>90 years, 0 months, 17 days</v>
+        <v>90 years, 0 months, 19 days</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6326,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6359,13 +6486,13 @@
       </c>
       <c r="K13" t="str">
         <f ca="1"/>
-        <v>85 years, 7 months, 10 days</v>
+        <v>85 years, 7 months, 12 days</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6404,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6437,13 +6564,13 @@
       </c>
       <c r="K15" t="str">
         <f ca="1"/>
-        <v>83 years, 6 months, 29 days</v>
+        <v>83 years, 7 months, 0 days</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6482,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6521,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6554,13 +6681,13 @@
       </c>
       <c r="K18" t="str">
         <f ca="1"/>
-        <v>78 years, 1 months, 24 days</v>
+        <v>78 years, 1 months, 26 days</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6599,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6638,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -6671,13 +6798,13 @@
       </c>
       <c r="K21" t="str">
         <f ca="1"/>
-        <v>71 years, 10 months, 15 days</v>
+        <v>71 years, 10 months, 17 days</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6716,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6755,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -6788,13 +6915,13 @@
       </c>
       <c r="K24" t="str">
         <f ca="1"/>
-        <v>69 years, 4 months, 16 days</v>
+        <v>69 years, 4 months, 18 days</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6833,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -6872,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -6911,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -6950,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -6989,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -7028,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -7067,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -7106,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -7145,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -7184,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -7223,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>31</v>
       </c>
@@ -7262,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -7301,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -7340,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>34</v>
       </c>
@@ -7379,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>35</v>
       </c>
@@ -7418,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -7457,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -7496,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38</v>
       </c>
@@ -7535,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>39</v>
       </c>
@@ -7574,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -7613,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7652,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7691,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7730,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7769,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7808,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7847,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>47</v>
       </c>
@@ -7886,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -7925,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -7964,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8003,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8042,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>52</v>
       </c>
@@ -8081,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8120,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8159,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>55</v>
       </c>
@@ -8198,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>56</v>
       </c>
@@ -8223,8 +8350,8 @@
       <c r="H61">
         <v>19</v>
       </c>
-      <c r="I61" t="str">
-        <v/>
+      <c r="I61">
+        <v>57</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -8237,12 +8364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>57</v>
       </c>
       <c r="B62" t="str">
-        <v>Julie Wongbandue</v>
+        <v>Nita Nash Wongbandue</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -8256,14 +8383,14 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>18</v>
-      </c>
-      <c r="H62">
-        <v>19</v>
-      </c>
-      <c r="I62" t="str">
-        <v/>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62">
+        <v>56</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -8276,12 +8403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>58</v>
       </c>
       <c r="B63" t="str">
-        <v>Denice Alto</v>
+        <v>Julie Wongbandue</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -8296,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I63" t="str">
         <v/>
@@ -8315,18 +8442,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>59</v>
       </c>
       <c r="B64" t="str">
-        <v>Nicolas Miles Alto</v>
+        <v>Denice Alto</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -8354,18 +8481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65" t="str">
-        <v>Ava Margaux Alto</v>
+        <v>Nicolas Miles Alto</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
@@ -8374,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H65">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I65" t="str">
         <v/>
@@ -8393,12 +8520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>61</v>
       </c>
       <c r="B66" t="str">
-        <v xml:space="preserve">Tifanny Claire </v>
+        <v>Ava Margaux Alto</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -8413,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I66" t="str">
         <v/>
@@ -8432,18 +8559,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="B67" t="str">
-        <v>Matthew Ira James</v>
+        <v xml:space="preserve">Tifanny Claire </v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -8471,12 +8598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="B68" t="str">
-        <v>Brandon Alto</v>
+        <v>Matthew Ira James</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -8491,10 +8618,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -8510,12 +8637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>64</v>
       </c>
       <c r="B69" t="str">
-        <v>Harold Wilson Alto</v>
+        <v>Brandon Alto</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8530,10 +8657,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H69">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -8549,18 +8676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>65</v>
       </c>
       <c r="B70" t="str">
-        <v>Sophia Joy Alto</v>
+        <v>Harold Wilson Alto</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -8588,18 +8715,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>66</v>
       </c>
       <c r="B71" t="str">
-        <v>Noah Michael Alto</v>
+        <v>Sophia Joy Alto</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
@@ -8608,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I71" t="str">
         <v/>
@@ -8627,18 +8754,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>67</v>
       </c>
       <c r="B72" t="str">
-        <v>Marina Alto</v>
+        <v>Noah Michael Alto</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -8647,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>35</v>
-      </c>
-      <c r="H72" t="str">
-        <v/>
+        <v>32</v>
+      </c>
+      <c r="H72">
+        <v>33</v>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -8666,18 +8793,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>68</v>
       </c>
       <c r="B73" t="str">
-        <v>Alexander Adam Alto</v>
+        <v>Marina Alto</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
@@ -8705,12 +8832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69</v>
       </c>
       <c r="B74" t="str">
-        <v>Jayson Jordan Alto</v>
+        <v>Alexander Adam Alto</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8744,18 +8871,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>70</v>
       </c>
       <c r="B75" t="str">
-        <v>Dianne Joy Zano</v>
+        <v>Jayson Jordan Alto</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
@@ -8764,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>39</v>
-      </c>
-      <c r="H75">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
       </c>
       <c r="I75" t="str">
         <v/>
@@ -8783,12 +8910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>71</v>
       </c>
       <c r="B76" t="str">
-        <v>Arlene Reese Alto</v>
+        <v>Dianne Joy Zano</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8803,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -8822,18 +8949,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>72</v>
       </c>
       <c r="B77" t="str">
-        <v>Arden Rhyle</v>
+        <v>Arlene Reese Alto</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
@@ -8861,18 +8988,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>73</v>
       </c>
       <c r="B78" t="str">
-        <v>Janiyah Obilex</v>
+        <v>Arden Rhyle</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -8881,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H78">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I78" t="str">
         <v/>
@@ -8900,18 +9027,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>74</v>
       </c>
       <c r="B79" t="str">
-        <v>Justin Lhance Alto</v>
+        <v>Janiyah Obilex</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -8920,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H79">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I79" t="str">
         <v/>
@@ -8939,12 +9066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>75</v>
       </c>
       <c r="B80" t="str">
-        <v>Joshua Landice Alto</v>
+        <v>Justin Lhance Alto</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8978,12 +9105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>76</v>
       </c>
       <c r="B81" t="str">
-        <v>Jairo Leslie Alto</v>
+        <v>Joshua Landice Alto</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -9017,18 +9144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>77</v>
       </c>
       <c r="B82" t="str">
-        <v>Lyza Joelie Alto</v>
+        <v>Jairo Leslie Alto</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E82" s="3">
         <v>0</v>
@@ -9056,12 +9183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>78</v>
       </c>
       <c r="B83" t="str">
-        <v>Ryder Garland</v>
+        <v>Lyza Joelie Alto</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -9075,11 +9202,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" t="str">
-        <v/>
+      <c r="G83">
+        <v>49</v>
       </c>
       <c r="H83">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -9095,12 +9222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>79</v>
       </c>
       <c r="B84" t="str">
-        <v>Alexis Mai Lim</v>
+        <v>Ryder Garland</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -9114,11 +9241,11 @@
       <c r="F84" s="3">
         <v>0</v>
       </c>
-      <c r="G84">
-        <v>52</v>
+      <c r="G84" t="str">
+        <v/>
       </c>
       <c r="H84">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I84" t="str">
         <v/>
@@ -9131,13 +9258,130 @@
         <v/>
       </c>
       <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Alexis Mei Lim</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="str">
+        <v>female</v>
+      </c>
+      <c r="E85" s="3">
+        <v>41817</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>52</v>
+      </c>
+      <c r="H85">
+        <v>53</v>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <f ca="1"/>
+        <v>11 years, 7 months, 5 days</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Samara Jia Lim</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <v>female</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44335</v>
+      </c>
+      <c r="F86" s="3">
+        <v>45164</v>
+      </c>
+      <c r="G86">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <v>53</v>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <v>2 years, 3 months, 7 days</v>
+      </c>
+      <c r="K86" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Tamsyn Jie Lim</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="str">
+        <v>female</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45188</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>52</v>
+      </c>
+      <c r="H87">
+        <v>53</v>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <f ca="1"/>
+        <v>2 years, 4 months, 13 days</v>
+      </c>
+      <c r="L87">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z2qPucUrqzpAbNrSN+cTXqXL9VmvHlBebf7zJLZukSo935FG2MWtQHQaAHBYBjvhorIZyzPuXgxNE9xi36mPtA==" saltValue="RQEcPLaOesrjkBOnJxq8Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A6:L10000">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(A6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9156,30 +9400,30 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5002D9-9AAE-44EC-9857-5062D0DD5FC6}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E144071C-1466-4677-8D30-6134246F66CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -481,12 +481,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -495,8 +493,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,33 +522,10 @@
       </border>
     </dxf>
     <dxf>
-      <protection locked="1" hidden="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
@@ -587,6 +565,29 @@
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -601,34 +602,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O87" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A5:O87" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="11">
       <calculatedColumnFormula>ROW()-ROW(Family[[#Headers],[PersonID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{009CC418-924E-49F6-8FCA-7B769637F7FD}" name="Name" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{4C1D044A-8C5E-4AFC-8E4E-C2FCAB97A34D}" name="Nickname" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{898E856A-3E67-443A-B6CF-A9B5A12CEA46}" name="Gender" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C720E0FF-6359-47E6-A2F4-AB8D9A363EE2}" name="BirthDate" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{498E45FE-D50F-467A-AB83-B2E8C3D04DA1}" name="DeathDate" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{2AA98799-20C7-411D-B2A5-DFEA0A7F7642}" name="Father" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{5C4798DF-DFB6-4E73-9DAE-E1E139398347}" name="Mother" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{DA7E8D0B-ED72-46F5-9628-B968F57BEA59}" name="Spouse" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{EA2B7671-49E5-4902-A3F3-B1918B8494DE}" name="Notes" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9E746590-7A16-434E-8227-D0E8463A67D0}" name="FatherID" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{009CC418-924E-49F6-8FCA-7B769637F7FD}" name="Name" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{4C1D044A-8C5E-4AFC-8E4E-C2FCAB97A34D}" name="Nickname" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{898E856A-3E67-443A-B6CF-A9B5A12CEA46}" name="Gender" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C720E0FF-6359-47E6-A2F4-AB8D9A363EE2}" name="BirthDate" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{498E45FE-D50F-467A-AB83-B2E8C3D04DA1}" name="DeathDate" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{2AA98799-20C7-411D-B2A5-DFEA0A7F7642}" name="Father" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{5C4798DF-DFB6-4E73-9DAE-E1E139398347}" name="Mother" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{DA7E8D0B-ED72-46F5-9628-B968F57BEA59}" name="Spouse" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EA2B7671-49E5-4902-A3F3-B1918B8494DE}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9E746590-7A16-434E-8227-D0E8463A67D0}" name="FatherID" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7235B4CA-878D-4B51-8E3E-78366A0E6F26}" name="MotherID" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{7235B4CA-878D-4B51-8E3E-78366A0E6F26}" name="MotherID" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F7290562-5B6C-472E-A7B3-6D448F6C0C7C}" name="SpouseID" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{F7290562-5B6C-472E-A7B3-6D448F6C0C7C}" name="SpouseID" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E9A75D4F-73FD-4BCA-A42C-52AA6886EF1A}" name="LifeTime Age" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{E9A75D4F-73FD-4BCA-A42C-52AA6886EF1A}" name="LifeTime Age" dataDxfId="15">
       <calculatedColumnFormula array="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{475558A6-F896-4F9A-AC89-3F2AB0951ED8}" name="Current Age" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{475558A6-F896-4F9A-AC89-3F2AB0951ED8}" name="Current Age" dataDxfId="14">
       <calculatedColumnFormula array="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -637,10 +638,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,5126 +967,4500 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A2:O206"/>
+  <dimension ref="A2:O149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="9" customWidth="1"/>
+    <col min="7" max="9" width="20.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <f ca="1">TODAY()</f>
         <v>46054</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1174</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>32314</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" t="str" cm="1">
+      <c r="J6" s="3"/>
+      <c r="K6" s="8" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L6" t="str" cm="1">
+      <c r="L6" s="8" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M6" cm="1">
+      <c r="M6" s="8" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="N6" t="str" cm="1">
+      <c r="N6" s="8" t="str" cm="1">
         <f t="array" ref="N6">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
-      <c r="O6" t="str" cm="1">
+      <c r="O6" s="8" t="str" cm="1">
         <f t="array" ref="O6">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>4753</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>33847</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" t="str" cm="1">
+      <c r="J7" s="3"/>
+      <c r="K7" s="8" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L7" t="str" cm="1">
+      <c r="L7" s="8" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M7" cm="1">
+      <c r="M7" s="8" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="N7" t="str" cm="1">
+      <c r="N7" s="8" t="str" cm="1">
         <f t="array" ref="N7">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>79 years, 7 months, 27 days</v>
       </c>
-      <c r="O7" t="str" cm="1">
+      <c r="O7" s="8" t="str" cm="1">
         <f t="array" ref="O7">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>11763</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>37626</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" cm="1">
+      <c r="J8" s="3"/>
+      <c r="K8" s="8" cm="1">
         <f t="array" ref="K8">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L8" cm="1">
+      <c r="L8" s="8" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M8" t="str" cm="1">
+      <c r="M8" s="8" t="str" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N8" t="str" cm="1">
+      <c r="N8" s="8" t="str" cm="1">
         <f t="array" ref="N8">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>70 years, 9 months, 21 days</v>
       </c>
-      <c r="O8" t="str" cm="1">
+      <c r="O8" s="8" t="str" cm="1">
         <f t="array" ref="O8">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>12395</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" cm="1">
+      <c r="J9" s="3"/>
+      <c r="K9" s="8" cm="1">
         <f t="array" ref="K9">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L9" cm="1">
+      <c r="L9" s="8" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M9" cm="1">
+      <c r="M9" s="8" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="N9" t="str" cm="1">
+      <c r="N9" s="8" t="str" cm="1">
         <f t="array" ref="N9">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O9" t="str" cm="1">
+      <c r="O9" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>92 years, 1 months, 25 days</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" t="str" cm="1">
+      <c r="J10" s="3"/>
+      <c r="K10" s="8" t="str" cm="1">
         <f t="array" ref="K10">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L10" t="str" cm="1">
+      <c r="L10" s="8" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M10" cm="1">
+      <c r="M10" s="8" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="N10" t="str" cm="1">
+      <c r="N10" s="8" t="str" cm="1">
         <f t="array" ref="N10">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O10" t="str" cm="1">
+      <c r="O10" s="8" t="str" cm="1">
         <f t="array" ref="O10">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>13162</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" cm="1">
+      <c r="J11" s="3"/>
+      <c r="K11" s="8" cm="1">
         <f t="array" ref="K11">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L11" cm="1">
+      <c r="L11" s="8" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M11" cm="1">
+      <c r="M11" s="8" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="N11" t="str" cm="1">
+      <c r="N11" s="8" t="str" cm="1">
         <f t="array" ref="N11">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O11" t="str" cm="1">
+      <c r="O11" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>90 years, 0 months, 19 days</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" t="str" cm="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="8" t="str" cm="1">
         <f t="array" ref="K12">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L12" t="str" cm="1">
+      <c r="L12" s="8" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M12" cm="1">
+      <c r="M12" s="8" cm="1">
         <f t="array" ref="M12">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="N12" t="str" cm="1">
+      <c r="N12" s="8" t="str" cm="1">
         <f t="array" ref="N12">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O12" t="str" cm="1">
+      <c r="O12" s="8" t="str" cm="1">
         <f t="array" ref="O12">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>14782</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" cm="1">
+      <c r="J13" s="3"/>
+      <c r="K13" s="8" cm="1">
         <f t="array" ref="K13">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L13" cm="1">
+      <c r="L13" s="8" cm="1">
         <f t="array" ref="L13">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M13" cm="1">
+      <c r="M13" s="8" cm="1">
         <f t="array" ref="M13">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="N13" t="str" cm="1">
+      <c r="N13" s="8" t="str" cm="1">
         <f t="array" ref="N13">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O13" t="str" cm="1">
+      <c r="O13" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>85 years, 7 months, 12 days</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" t="str" cm="1">
+      <c r="J14" s="3"/>
+      <c r="K14" s="8" t="str" cm="1">
         <f t="array" ref="K14">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L14" t="str" cm="1">
+      <c r="L14" s="8" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M14" cm="1">
+      <c r="M14" s="8" cm="1">
         <f t="array" ref="M14">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="N14" t="str" cm="1">
+      <c r="N14" s="8" t="str" cm="1">
         <f t="array" ref="N14">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O14" t="str" cm="1">
+      <c r="O14" s="8" t="str" cm="1">
         <f t="array" ref="O14">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>15523</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" cm="1">
+      <c r="J15" s="3"/>
+      <c r="K15" s="8" cm="1">
         <f t="array" ref="K15">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L15" cm="1">
+      <c r="L15" s="8" cm="1">
         <f t="array" ref="L15">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M15" cm="1">
+      <c r="M15" s="8" cm="1">
         <f t="array" ref="M15">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="N15" t="str" cm="1">
+      <c r="N15" s="8" t="str" cm="1">
         <f t="array" ref="N15">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O15" t="str" cm="1">
+      <c r="O15" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>83 years, 7 months, 0 days</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" t="str" cm="1">
+      <c r="J16" s="3"/>
+      <c r="K16" s="8" t="str" cm="1">
         <f t="array" ref="K16">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L16" t="str" cm="1">
+      <c r="L16" s="8" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M16" cm="1">
+      <c r="M16" s="8" cm="1">
         <f t="array" ref="M16">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="N16" t="str" cm="1">
+      <c r="N16" s="8" t="str" cm="1">
         <f t="array" ref="N16">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O16" t="str" cm="1">
+      <c r="O16" s="8" t="str" cm="1">
         <f t="array" ref="O16">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" t="str" cm="1">
+      <c r="J17" s="3"/>
+      <c r="K17" s="8" t="str" cm="1">
         <f t="array" ref="K17">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L17" t="str" cm="1">
+      <c r="L17" s="8" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M17" cm="1">
+      <c r="M17" s="8" cm="1">
         <f t="array" ref="M17">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="N17" t="str" cm="1">
+      <c r="N17" s="8" t="str" cm="1">
         <f t="array" ref="N17">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O17" t="str" cm="1">
+      <c r="O17" s="8" t="str" cm="1">
         <f t="array" ref="O17">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>17507</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" cm="1">
+      <c r="J18" s="3"/>
+      <c r="K18" s="8" cm="1">
         <f t="array" ref="K18">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L18" cm="1">
+      <c r="L18" s="8" cm="1">
         <f t="array" ref="L18">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M18" cm="1">
+      <c r="M18" s="8" cm="1">
         <f t="array" ref="M18">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="N18" t="str" cm="1">
+      <c r="N18" s="8" t="str" cm="1">
         <f t="array" ref="N18">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O18" t="str" cm="1">
+      <c r="O18" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>78 years, 1 months, 26 days</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>18790</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>36903</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" cm="1">
+      <c r="J19" s="3"/>
+      <c r="K19" s="8" cm="1">
         <f t="array" ref="K19">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L19" cm="1">
+      <c r="L19" s="8" cm="1">
         <f t="array" ref="L19">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M19" cm="1">
+      <c r="M19" s="8" cm="1">
         <f t="array" ref="M19">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="N19" t="str" cm="1">
+      <c r="N19" s="8" t="str" cm="1">
         <f t="array" ref="N19">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>49 years, 7 months, 1 days</v>
       </c>
-      <c r="O19" t="str" cm="1">
+      <c r="O19" s="8" t="str" cm="1">
         <f t="array" ref="O19">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" t="str" cm="1">
+      <c r="J20" s="3"/>
+      <c r="K20" s="8" t="str" cm="1">
         <f t="array" ref="K20">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L20" t="str" cm="1">
+      <c r="L20" s="8" t="str" cm="1">
         <f t="array" ref="L20">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M20" cm="1">
+      <c r="M20" s="8" cm="1">
         <f t="array" ref="M20">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="N20" t="str" cm="1">
+      <c r="N20" s="8" t="str" cm="1">
         <f t="array" ref="N20">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O20" t="str" cm="1">
+      <c r="O20" s="8" t="str" cm="1">
         <f t="array" ref="O20">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>19798</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" cm="1">
+      <c r="J21" s="3"/>
+      <c r="K21" s="8" cm="1">
         <f t="array" ref="K21">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L21" cm="1">
+      <c r="L21" s="8" cm="1">
         <f t="array" ref="L21">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M21" cm="1">
+      <c r="M21" s="8" cm="1">
         <f t="array" ref="M21">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="N21" t="str" cm="1">
+      <c r="N21" s="8" t="str" cm="1">
         <f t="array" ref="N21">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O21" t="str" cm="1">
+      <c r="O21" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>71 years, 10 months, 17 days</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" t="str" cm="1">
+      <c r="J22" s="3"/>
+      <c r="K22" s="8" t="str" cm="1">
         <f t="array" ref="K22">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L22" t="str" cm="1">
+      <c r="L22" s="8" t="str" cm="1">
         <f t="array" ref="L22">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M22" cm="1">
+      <c r="M22" s="8" cm="1">
         <f t="array" ref="M22">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="N22" t="str" cm="1">
+      <c r="N22" s="8" t="str" cm="1">
         <f t="array" ref="N22">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O22" t="str" cm="1">
+      <c r="O22" s="8" t="str" cm="1">
         <f t="array" ref="O22">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" t="str" cm="1">
+      <c r="J23" s="3"/>
+      <c r="K23" s="8" t="str" cm="1">
         <f t="array" ref="K23">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L23" t="str" cm="1">
+      <c r="L23" s="8" t="str" cm="1">
         <f t="array" ref="L23">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M23" cm="1">
+      <c r="M23" s="8" cm="1">
         <f t="array" ref="M23">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="N23" t="str" cm="1">
+      <c r="N23" s="8" t="str" cm="1">
         <f t="array" ref="N23">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O23" t="str" cm="1">
+      <c r="O23" s="8" t="str" cm="1">
         <f t="array" ref="O23">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>20712</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" cm="1">
+      <c r="J24" s="3"/>
+      <c r="K24" s="8" cm="1">
         <f t="array" ref="K24">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L24" cm="1">
+      <c r="L24" s="8" cm="1">
         <f t="array" ref="L24">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M24" cm="1">
+      <c r="M24" s="8" cm="1">
         <f t="array" ref="M24">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="N24" t="str" cm="1">
+      <c r="N24" s="8" t="str" cm="1">
         <f t="array" ref="N24">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O24" t="str" cm="1">
+      <c r="O24" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>69 years, 4 months, 18 days</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" cm="1">
+      <c r="J25" s="3"/>
+      <c r="K25" s="8" cm="1">
         <f t="array" ref="K25">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="L25" cm="1">
+      <c r="L25" s="8" cm="1">
         <f t="array" ref="L25">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="M25" t="str" cm="1">
+      <c r="M25" s="8" t="str" cm="1">
         <f t="array" ref="M25">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N25" t="str" cm="1">
+      <c r="N25" s="8" t="str" cm="1">
         <f t="array" ref="N25">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O25" t="str" cm="1">
+      <c r="O25" s="8" t="str" cm="1">
         <f t="array" ref="O25">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" cm="1">
+      <c r="J26" s="3"/>
+      <c r="K26" s="8" cm="1">
         <f t="array" ref="K26">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="L26" cm="1">
+      <c r="L26" s="8" cm="1">
         <f t="array" ref="L26">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="M26" t="str" cm="1">
+      <c r="M26" s="8" t="str" cm="1">
         <f t="array" ref="M26">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N26" t="str" cm="1">
+      <c r="N26" s="8" t="str" cm="1">
         <f t="array" ref="N26">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O26" t="str" cm="1">
+      <c r="O26" s="8" t="str" cm="1">
         <f t="array" ref="O26">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" cm="1">
+      <c r="J27" s="3"/>
+      <c r="K27" s="8" cm="1">
         <f t="array" ref="K27">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L27" cm="1">
+      <c r="L27" s="8" cm="1">
         <f t="array" ref="L27">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M27" cm="1">
+      <c r="M27" s="8" cm="1">
         <f t="array" ref="M27">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="N27" t="str" cm="1">
+      <c r="N27" s="8" t="str" cm="1">
         <f t="array" ref="N27">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O27" t="str" cm="1">
+      <c r="O27" s="8" t="str" cm="1">
         <f t="array" ref="O27">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" t="str" cm="1">
+      <c r="J28" s="3"/>
+      <c r="K28" s="8" t="str" cm="1">
         <f t="array" ref="K28">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L28" t="str" cm="1">
+      <c r="L28" s="8" t="str" cm="1">
         <f t="array" ref="L28">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M28" cm="1">
+      <c r="M28" s="8" cm="1">
         <f t="array" ref="M28">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="N28" t="str" cm="1">
+      <c r="N28" s="8" t="str" cm="1">
         <f t="array" ref="N28">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O28" t="str" cm="1">
+      <c r="O28" s="8" t="str" cm="1">
         <f t="array" ref="O28">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" cm="1">
+      <c r="J29" s="3"/>
+      <c r="K29" s="8" cm="1">
         <f t="array" ref="K29">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L29" cm="1">
+      <c r="L29" s="8" cm="1">
         <f t="array" ref="L29">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M29" cm="1">
+      <c r="M29" s="8" cm="1">
         <f t="array" ref="M29">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>25</v>
       </c>
-      <c r="N29" t="str" cm="1">
+      <c r="N29" s="8" t="str" cm="1">
         <f t="array" ref="N29">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O29" t="str" cm="1">
+      <c r="O29" s="8" t="str" cm="1">
         <f t="array" ref="O29">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" t="str" cm="1">
+      <c r="J30" s="3"/>
+      <c r="K30" s="8" t="str" cm="1">
         <f t="array" ref="K30">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L30" t="str" cm="1">
+      <c r="L30" s="8" t="str" cm="1">
         <f t="array" ref="L30">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M30" cm="1">
+      <c r="M30" s="8" cm="1">
         <f t="array" ref="M30">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>24</v>
       </c>
-      <c r="N30" t="str" cm="1">
+      <c r="N30" s="8" t="str" cm="1">
         <f t="array" ref="N30">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O30" t="str" cm="1">
+      <c r="O30" s="8" t="str" cm="1">
         <f t="array" ref="O30">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" cm="1">
+      <c r="J31" s="3"/>
+      <c r="K31" s="8" cm="1">
         <f t="array" ref="K31">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L31" cm="1">
+      <c r="L31" s="8" cm="1">
         <f t="array" ref="L31">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M31" cm="1">
+      <c r="M31" s="8" cm="1">
         <f t="array" ref="M31">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="N31" t="str" cm="1">
+      <c r="N31" s="8" t="str" cm="1">
         <f t="array" ref="N31">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O31" t="str" cm="1">
+      <c r="O31" s="8" t="str" cm="1">
         <f t="array" ref="O31">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" t="str" cm="1">
+      <c r="J32" s="3"/>
+      <c r="K32" s="8" t="str" cm="1">
         <f t="array" ref="K32">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L32" t="str" cm="1">
+      <c r="L32" s="8" t="str" cm="1">
         <f t="array" ref="L32">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M32" cm="1">
+      <c r="M32" s="8" cm="1">
         <f t="array" ref="M32">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="N32" t="str" cm="1">
+      <c r="N32" s="8" t="str" cm="1">
         <f t="array" ref="N32">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O32" t="str" cm="1">
+      <c r="O32" s="8" t="str" cm="1">
         <f t="array" ref="O32">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" cm="1">
+      <c r="J33" s="3"/>
+      <c r="K33" s="8" cm="1">
         <f t="array" ref="K33">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="L33" cm="1">
+      <c r="L33" s="8" cm="1">
         <f t="array" ref="L33">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="M33" cm="1">
+      <c r="M33" s="8" cm="1">
         <f t="array" ref="M33">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>29</v>
       </c>
-      <c r="N33" t="str" cm="1">
+      <c r="N33" s="8" t="str" cm="1">
         <f t="array" ref="N33">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O33" t="str" cm="1">
+      <c r="O33" s="8" t="str" cm="1">
         <f t="array" ref="O33">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" t="str" cm="1">
+      <c r="J34" s="3"/>
+      <c r="K34" s="8" t="str" cm="1">
         <f t="array" ref="K34">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L34" t="str" cm="1">
+      <c r="L34" s="8" t="str" cm="1">
         <f t="array" ref="L34">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M34" cm="1">
+      <c r="M34" s="8" cm="1">
         <f t="array" ref="M34">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>28</v>
       </c>
-      <c r="N34" t="str" cm="1">
+      <c r="N34" s="8" t="str" cm="1">
         <f t="array" ref="N34">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O34" t="str" cm="1">
+      <c r="O34" s="8" t="str" cm="1">
         <f t="array" ref="O34">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" cm="1">
+      <c r="J35" s="3"/>
+      <c r="K35" s="8" cm="1">
         <f t="array" ref="K35">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="L35" cm="1">
+      <c r="L35" s="8" cm="1">
         <f t="array" ref="L35">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="M35" cm="1">
+      <c r="M35" s="8" cm="1">
         <f t="array" ref="M35">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="N35" t="str" cm="1">
+      <c r="N35" s="8" t="str" cm="1">
         <f t="array" ref="N35">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O35" t="str" cm="1">
+      <c r="O35" s="8" t="str" cm="1">
         <f t="array" ref="O35">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" t="str" cm="1">
+      <c r="J36" s="3"/>
+      <c r="K36" s="8" t="str" cm="1">
         <f t="array" ref="K36">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L36" t="str" cm="1">
+      <c r="L36" s="8" t="str" cm="1">
         <f t="array" ref="L36">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M36" cm="1">
+      <c r="M36" s="8" cm="1">
         <f t="array" ref="M36">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="N36" t="str" cm="1">
+      <c r="N36" s="8" t="str" cm="1">
         <f t="array" ref="N36">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O36" t="str" cm="1">
+      <c r="O36" s="8" t="str" cm="1">
         <f t="array" ref="O36">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" cm="1">
+      <c r="J37" s="3"/>
+      <c r="K37" s="8" cm="1">
         <f t="array" ref="K37">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L37" cm="1">
+      <c r="L37" s="8" cm="1">
         <f t="array" ref="L37">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M37" cm="1">
+      <c r="M37" s="8" cm="1">
         <f t="array" ref="M37">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>33</v>
       </c>
-      <c r="N37" t="str" cm="1">
+      <c r="N37" s="8" t="str" cm="1">
         <f t="array" ref="N37">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O37" t="str" cm="1">
+      <c r="O37" s="8" t="str" cm="1">
         <f t="array" ref="O37">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" t="str" cm="1">
+      <c r="J38" s="3"/>
+      <c r="K38" s="8" t="str" cm="1">
         <f t="array" ref="K38">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L38" t="str" cm="1">
+      <c r="L38" s="8" t="str" cm="1">
         <f t="array" ref="L38">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M38" cm="1">
+      <c r="M38" s="8" cm="1">
         <f t="array" ref="M38">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>32</v>
       </c>
-      <c r="N38" t="str" cm="1">
+      <c r="N38" s="8" t="str" cm="1">
         <f t="array" ref="N38">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O38" t="str" cm="1">
+      <c r="O38" s="8" t="str" cm="1">
         <f t="array" ref="O38">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" cm="1">
+      <c r="J39" s="3"/>
+      <c r="K39" s="8" cm="1">
         <f t="array" ref="K39">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L39" cm="1">
+      <c r="L39" s="8" cm="1">
         <f t="array" ref="L39">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M39" t="str" cm="1">
+      <c r="M39" s="8" t="str" cm="1">
         <f t="array" ref="M39">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N39" t="str" cm="1">
+      <c r="N39" s="8" t="str" cm="1">
         <f t="array" ref="N39">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O39" t="str" cm="1">
+      <c r="O39" s="8" t="str" cm="1">
         <f t="array" ref="O39">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" cm="1">
+      <c r="J40" s="3"/>
+      <c r="K40" s="8" cm="1">
         <f t="array" ref="K40">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L40" cm="1">
+      <c r="L40" s="8" cm="1">
         <f t="array" ref="L40">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M40" t="str" cm="1">
+      <c r="M40" s="8" t="str" cm="1">
         <f t="array" ref="M40">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N40" t="str" cm="1">
+      <c r="N40" s="8" t="str" cm="1">
         <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O40" t="str" cm="1">
+      <c r="O40" s="8" t="str" cm="1">
         <f t="array" ref="O40">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="5" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" cm="1">
+      <c r="J41" s="3"/>
+      <c r="K41" s="8" cm="1">
         <f t="array" ref="K41">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L41" cm="1">
+      <c r="L41" s="8" cm="1">
         <f t="array" ref="L41">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M41" t="str" cm="1">
+      <c r="M41" s="8" t="str" cm="1">
         <f t="array" ref="M41">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N41" t="str" cm="1">
+      <c r="N41" s="8" t="str" cm="1">
         <f t="array" ref="N41">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O41" t="str" cm="1">
+      <c r="O41" s="8" t="str" cm="1">
         <f t="array" ref="O41">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="5" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" cm="1">
+      <c r="J42" s="3"/>
+      <c r="K42" s="8" cm="1">
         <f t="array" ref="K42">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L42" cm="1">
+      <c r="L42" s="8" cm="1">
         <f t="array" ref="L42">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M42" cm="1">
+      <c r="M42" s="8" cm="1">
         <f t="array" ref="M42">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>38</v>
       </c>
-      <c r="N42" t="str" cm="1">
+      <c r="N42" s="8" t="str" cm="1">
         <f t="array" ref="N42">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O42" t="str" cm="1">
+      <c r="O42" s="8" t="str" cm="1">
         <f t="array" ref="O42">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="5" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" t="str" cm="1">
+      <c r="J43" s="3"/>
+      <c r="K43" s="8" t="str" cm="1">
         <f t="array" ref="K43">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L43" t="str" cm="1">
+      <c r="L43" s="8" t="str" cm="1">
         <f t="array" ref="L43">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M43" cm="1">
+      <c r="M43" s="8" cm="1">
         <f t="array" ref="M43">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>37</v>
       </c>
-      <c r="N43" t="str" cm="1">
+      <c r="N43" s="8" t="str" cm="1">
         <f t="array" ref="N43">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O43" t="str" cm="1">
+      <c r="O43" s="8" t="str" cm="1">
         <f t="array" ref="O43">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="5" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" cm="1">
+      <c r="J44" s="3"/>
+      <c r="K44" s="8" cm="1">
         <f t="array" ref="K44">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L44" cm="1">
+      <c r="L44" s="8" cm="1">
         <f t="array" ref="L44">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M44" cm="1">
+      <c r="M44" s="8" cm="1">
         <f t="array" ref="M44">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>40</v>
       </c>
-      <c r="N44" t="str" cm="1">
+      <c r="N44" s="8" t="str" cm="1">
         <f t="array" ref="N44">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O44" t="str" cm="1">
+      <c r="O44" s="8" t="str" cm="1">
         <f t="array" ref="O44">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="5" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" t="str" cm="1">
+      <c r="J45" s="3"/>
+      <c r="K45" s="8" t="str" cm="1">
         <f t="array" ref="K45">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L45" t="str" cm="1">
+      <c r="L45" s="8" t="str" cm="1">
         <f t="array" ref="L45">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M45" cm="1">
+      <c r="M45" s="8" cm="1">
         <f t="array" ref="M45">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>39</v>
       </c>
-      <c r="N45" t="str" cm="1">
+      <c r="N45" s="8" t="str" cm="1">
         <f t="array" ref="N45">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O45" t="str" cm="1">
+      <c r="O45" s="8" t="str" cm="1">
         <f t="array" ref="O45">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="5" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" cm="1">
+      <c r="J46" s="3"/>
+      <c r="K46" s="8" cm="1">
         <f t="array" ref="K46">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L46" cm="1">
+      <c r="L46" s="8" cm="1">
         <f t="array" ref="L46">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M46" t="str" cm="1">
+      <c r="M46" s="8" t="str" cm="1">
         <f t="array" ref="M46">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N46" t="str" cm="1">
+      <c r="N46" s="8" t="str" cm="1">
         <f t="array" ref="N46">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O46" t="str" cm="1">
+      <c r="O46" s="8" t="str" cm="1">
         <f t="array" ref="O46">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="5" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" cm="1">
+      <c r="J47" s="3"/>
+      <c r="K47" s="8" cm="1">
         <f t="array" ref="K47">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L47" cm="1">
+      <c r="L47" s="8" cm="1">
         <f t="array" ref="L47">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M47" t="str" cm="1">
+      <c r="M47" s="8" t="str" cm="1">
         <f t="array" ref="M47">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N47" t="str" cm="1">
+      <c r="N47" s="8" t="str" cm="1">
         <f t="array" ref="N47">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O47" t="str" cm="1">
+      <c r="O47" s="8" t="str" cm="1">
         <f t="array" ref="O47">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5" t="s">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" cm="1">
+      <c r="J48" s="3"/>
+      <c r="K48" s="8" cm="1">
         <f t="array" ref="K48">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L48" cm="1">
+      <c r="L48" s="8" cm="1">
         <f t="array" ref="L48">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M48" cm="1">
+      <c r="M48" s="8" cm="1">
         <f t="array" ref="M48">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>44</v>
       </c>
-      <c r="N48" t="str" cm="1">
+      <c r="N48" s="8" t="str" cm="1">
         <f t="array" ref="N48">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O48" t="str" cm="1">
+      <c r="O48" s="8" t="str" cm="1">
         <f t="array" ref="O48">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="5" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" t="str" cm="1">
+      <c r="J49" s="3"/>
+      <c r="K49" s="8" t="str" cm="1">
         <f t="array" ref="K49">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L49" t="str" cm="1">
+      <c r="L49" s="8" t="str" cm="1">
         <f t="array" ref="L49">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M49" cm="1">
+      <c r="M49" s="8" cm="1">
         <f t="array" ref="M49">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>43</v>
       </c>
-      <c r="N49" t="str" cm="1">
+      <c r="N49" s="8" t="str" cm="1">
         <f t="array" ref="N49">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O49" t="str" cm="1">
+      <c r="O49" s="8" t="str" cm="1">
         <f t="array" ref="O49">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="5" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" cm="1">
+      <c r="J50" s="3"/>
+      <c r="K50" s="8" cm="1">
         <f t="array" ref="K50">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L50" cm="1">
+      <c r="L50" s="8" cm="1">
         <f t="array" ref="L50">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M50" cm="1">
+      <c r="M50" s="8" cm="1">
         <f t="array" ref="M50">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="N50" t="str" cm="1">
+      <c r="N50" s="8" t="str" cm="1">
         <f t="array" ref="N50">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O50" t="str" cm="1">
+      <c r="O50" s="8" t="str" cm="1">
         <f t="array" ref="O50">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" t="str" cm="1">
+      <c r="J51" s="3"/>
+      <c r="K51" s="8" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L51" t="str" cm="1">
+      <c r="L51" s="8" t="str" cm="1">
         <f t="array" ref="L51">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M51" cm="1">
+      <c r="M51" s="8" cm="1">
         <f t="array" ref="M51">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="N51" t="str" cm="1">
+      <c r="N51" s="8" t="str" cm="1">
         <f t="array" ref="N51">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O51" t="str" cm="1">
+      <c r="O51" s="8" t="str" cm="1">
         <f t="array" ref="O51">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="5" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" t="str" cm="1">
+      <c r="J52" s="3"/>
+      <c r="K52" s="8" t="str" cm="1">
         <f t="array" ref="K52">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L52" t="str" cm="1">
+      <c r="L52" s="8" t="str" cm="1">
         <f t="array" ref="L52">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M52" cm="1">
+      <c r="M52" s="8" cm="1">
         <f t="array" ref="M52">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>48</v>
       </c>
-      <c r="N52" t="str" cm="1">
+      <c r="N52" s="8" t="str" cm="1">
         <f t="array" ref="N52">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O52" t="str" cm="1">
+      <c r="O52" s="8" t="str" cm="1">
         <f t="array" ref="O52">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" cm="1">
+      <c r="J53" s="3"/>
+      <c r="K53" s="8" cm="1">
         <f t="array" ref="K53">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L53" cm="1">
+      <c r="L53" s="8" cm="1">
         <f t="array" ref="L53">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M53" cm="1">
+      <c r="M53" s="8" cm="1">
         <f t="array" ref="M53">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>47</v>
       </c>
-      <c r="N53" t="str" cm="1">
+      <c r="N53" s="8" t="str" cm="1">
         <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O53" t="str" cm="1">
+      <c r="O53" s="8" t="str" cm="1">
         <f t="array" ref="O53">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" cm="1">
+      <c r="J54" s="3"/>
+      <c r="K54" s="8" cm="1">
         <f t="array" ref="K54">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L54" cm="1">
+      <c r="L54" s="8" cm="1">
         <f t="array" ref="L54">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M54" cm="1">
+      <c r="M54" s="8" cm="1">
         <f t="array" ref="M54">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="N54" t="str" cm="1">
+      <c r="N54" s="8" t="str" cm="1">
         <f t="array" ref="N54">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O54" t="str" cm="1">
+      <c r="O54" s="8" t="str" cm="1">
         <f t="array" ref="O54">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" t="str" cm="1">
+      <c r="J55" s="3"/>
+      <c r="K55" s="8" t="str" cm="1">
         <f t="array" ref="K55">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L55" t="str" cm="1">
+      <c r="L55" s="8" t="str" cm="1">
         <f t="array" ref="L55">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M55" cm="1">
+      <c r="M55" s="8" cm="1">
         <f t="array" ref="M55">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="N55" t="str" cm="1">
+      <c r="N55" s="8" t="str" cm="1">
         <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O55" t="str" cm="1">
+      <c r="O55" s="8" t="str" cm="1">
         <f t="array" ref="O55">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="5" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" cm="1">
+      <c r="J56" s="3"/>
+      <c r="K56" s="8" cm="1">
         <f t="array" ref="K56">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L56" cm="1">
+      <c r="L56" s="8" cm="1">
         <f t="array" ref="L56">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M56" t="str" cm="1">
+      <c r="M56" s="8" t="str" cm="1">
         <f t="array" ref="M56">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N56" t="str" cm="1">
+      <c r="N56" s="8" t="str" cm="1">
         <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O56" t="str" cm="1">
+      <c r="O56" s="8" t="str" cm="1">
         <f t="array" ref="O56">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="5" t="s">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" t="str" cm="1">
+      <c r="J57" s="3"/>
+      <c r="K57" s="8" t="str" cm="1">
         <f t="array" ref="K57">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L57" t="str" cm="1">
+      <c r="L57" s="8" t="str" cm="1">
         <f t="array" ref="L57">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M57" cm="1">
+      <c r="M57" s="8" cm="1">
         <f t="array" ref="M57">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="N57" t="str" cm="1">
+      <c r="N57" s="8" t="str" cm="1">
         <f t="array" ref="N57">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O57" t="str" cm="1">
+      <c r="O57" s="8" t="str" cm="1">
         <f t="array" ref="O57">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" cm="1">
+      <c r="J58" s="3"/>
+      <c r="K58" s="8" cm="1">
         <f t="array" ref="K58">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="L58" cm="1">
+      <c r="L58" s="8" cm="1">
         <f t="array" ref="L58">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="M58" cm="1">
+      <c r="M58" s="8" cm="1">
         <f t="array" ref="M58">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="N58" t="str" cm="1">
+      <c r="N58" s="8" t="str" cm="1">
         <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O58" t="str" cm="1">
+      <c r="O58" s="8" t="str" cm="1">
         <f t="array" ref="O58">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" cm="1">
+      <c r="J59" s="3"/>
+      <c r="K59" s="8" cm="1">
         <f t="array" ref="K59">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="L59" cm="1">
+      <c r="L59" s="8" cm="1">
         <f t="array" ref="L59">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="M59" cm="1">
+      <c r="M59" s="8" cm="1">
         <f t="array" ref="M59">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>55</v>
       </c>
-      <c r="N59" t="str" cm="1">
+      <c r="N59" s="8" t="str" cm="1">
         <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O59" t="str" cm="1">
+      <c r="O59" s="8" t="str" cm="1">
         <f t="array" ref="O59">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="5" t="s">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" t="str" cm="1">
+      <c r="J60" s="3"/>
+      <c r="K60" s="8" t="str" cm="1">
         <f t="array" ref="K60">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L60" t="str" cm="1">
+      <c r="L60" s="8" t="str" cm="1">
         <f t="array" ref="L60">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M60" cm="1">
+      <c r="M60" s="8" cm="1">
         <f t="array" ref="M60">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>54</v>
       </c>
-      <c r="N60" t="str" cm="1">
+      <c r="N60" s="8" t="str" cm="1">
         <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O60" t="str" cm="1">
+      <c r="O60" s="8" t="str" cm="1">
         <f t="array" ref="O60">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="5" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J61" s="5"/>
-      <c r="K61" cm="1">
+      <c r="J61" s="3"/>
+      <c r="K61" s="8" cm="1">
         <f t="array" ref="K61">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="L61" cm="1">
+      <c r="L61" s="8" cm="1">
         <f t="array" ref="L61">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="M61" cm="1">
+      <c r="M61" s="8" cm="1">
         <f t="array" ref="M61">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>57</v>
       </c>
-      <c r="N61" t="str" cm="1">
+      <c r="N61" s="8" t="str" cm="1">
         <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O61" t="str" cm="1">
+      <c r="O61" s="8" t="str" cm="1">
         <f t="array" ref="O61">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6" t="s">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="9" t="str" cm="1">
+      <c r="J62" s="3"/>
+      <c r="K62" s="8" t="str" cm="1">
         <f t="array" ref="K62">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L62" s="9" t="str" cm="1">
+      <c r="L62" s="8" t="str" cm="1">
         <f t="array" ref="L62">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M62" s="9" cm="1">
+      <c r="M62" s="8" cm="1">
         <f t="array" ref="M62">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>56</v>
       </c>
-      <c r="N62" s="10" t="str" cm="1">
+      <c r="N62" s="8" t="str" cm="1">
         <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O62" s="10" t="str" cm="1">
+      <c r="O62" s="8" t="str" cm="1">
         <f t="array" ref="O62">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="5" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" cm="1">
+      <c r="J63" s="3"/>
+      <c r="K63" s="8" cm="1">
         <f t="array" ref="K63">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="L63" cm="1">
+      <c r="L63" s="8" cm="1">
         <f t="array" ref="L63">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="M63" t="str" cm="1">
+      <c r="M63" s="8" t="str" cm="1">
         <f t="array" ref="M63">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N63" t="str" cm="1">
+      <c r="N63" s="8" t="str" cm="1">
         <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O63" t="str" cm="1">
+      <c r="O63" s="8" t="str" cm="1">
         <f t="array" ref="O63">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="5" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" cm="1">
+      <c r="J64" s="3"/>
+      <c r="K64" s="8" cm="1">
         <f t="array" ref="K64">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="L64" cm="1">
+      <c r="L64" s="8" cm="1">
         <f t="array" ref="L64">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="M64" t="str" cm="1">
+      <c r="M64" s="8" t="str" cm="1">
         <f t="array" ref="M64">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N64" t="str" cm="1">
+      <c r="N64" s="8" t="str" cm="1">
         <f t="array" ref="N64">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O64" t="str" cm="1">
+      <c r="O64" s="8" t="str" cm="1">
         <f t="array" ref="O64">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="5" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" cm="1">
+      <c r="J65" s="3"/>
+      <c r="K65" s="8" cm="1">
         <f t="array" ref="K65">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="L65" cm="1">
+      <c r="L65" s="8" cm="1">
         <f t="array" ref="L65">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="M65" t="str" cm="1">
+      <c r="M65" s="8" t="str" cm="1">
         <f t="array" ref="M65">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N65" t="str" cm="1">
+      <c r="N65" s="8" t="str" cm="1">
         <f t="array" ref="N65">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O65" t="str" cm="1">
+      <c r="O65" s="8" t="str" cm="1">
         <f t="array" ref="O65">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="5" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" cm="1">
+      <c r="J66" s="3"/>
+      <c r="K66" s="8" cm="1">
         <f t="array" ref="K66">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>24</v>
       </c>
-      <c r="L66" cm="1">
+      <c r="L66" s="8" cm="1">
         <f t="array" ref="L66">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>25</v>
       </c>
-      <c r="M66" t="str" cm="1">
+      <c r="M66" s="8" t="str" cm="1">
         <f t="array" ref="M66">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N66" t="str" cm="1">
+      <c r="N66" s="8" t="str" cm="1">
         <f t="array" ref="N66">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O66" t="str" cm="1">
+      <c r="O66" s="8" t="str" cm="1">
         <f t="array" ref="O66">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="5" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" cm="1">
+      <c r="J67" s="3"/>
+      <c r="K67" s="8" cm="1">
         <f t="array" ref="K67">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="L67" cm="1">
+      <c r="L67" s="8" cm="1">
         <f t="array" ref="L67">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="M67" t="str" cm="1">
+      <c r="M67" s="8" t="str" cm="1">
         <f t="array" ref="M67">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N67" t="str" cm="1">
+      <c r="N67" s="8" t="str" cm="1">
         <f t="array" ref="N67">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O67" t="str" cm="1">
+      <c r="O67" s="8" t="str" cm="1">
         <f t="array" ref="O67">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="5" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" cm="1">
+      <c r="J68" s="3"/>
+      <c r="K68" s="8" cm="1">
         <f t="array" ref="K68">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="L68" cm="1">
+      <c r="L68" s="8" cm="1">
         <f t="array" ref="L68">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="M68" t="str" cm="1">
+      <c r="M68" s="8" t="str" cm="1">
         <f t="array" ref="M68">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N68" t="str" cm="1">
+      <c r="N68" s="8" t="str" cm="1">
         <f t="array" ref="N68">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O68" t="str" cm="1">
+      <c r="O68" s="8" t="str" cm="1">
         <f t="array" ref="O68">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="5" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="5"/>
-      <c r="K69" cm="1">
+      <c r="J69" s="3"/>
+      <c r="K69" s="8" cm="1">
         <f t="array" ref="K69">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>28</v>
       </c>
-      <c r="L69" cm="1">
+      <c r="L69" s="8" cm="1">
         <f t="array" ref="L69">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>29</v>
       </c>
-      <c r="M69" t="str" cm="1">
+      <c r="M69" s="8" t="str" cm="1">
         <f t="array" ref="M69">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N69" t="str" cm="1">
+      <c r="N69" s="8" t="str" cm="1">
         <f t="array" ref="N69">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O69" t="str" cm="1">
+      <c r="O69" s="8" t="str" cm="1">
         <f t="array" ref="O69">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="5" t="s">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" cm="1">
+      <c r="J70" s="3"/>
+      <c r="K70" s="8" cm="1">
         <f t="array" ref="K70">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="L70" cm="1">
+      <c r="L70" s="8" cm="1">
         <f t="array" ref="L70">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="M70" t="str" cm="1">
+      <c r="M70" s="8" t="str" cm="1">
         <f t="array" ref="M70">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N70" t="str" cm="1">
+      <c r="N70" s="8" t="str" cm="1">
         <f t="array" ref="N70">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O70" t="str" cm="1">
+      <c r="O70" s="8" t="str" cm="1">
         <f t="array" ref="O70">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="5" t="s">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" cm="1">
+      <c r="J71" s="3"/>
+      <c r="K71" s="8" cm="1">
         <f t="array" ref="K71">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="L71" cm="1">
+      <c r="L71" s="8" cm="1">
         <f t="array" ref="L71">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="M71" t="str" cm="1">
+      <c r="M71" s="8" t="str" cm="1">
         <f t="array" ref="M71">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N71" t="str" cm="1">
+      <c r="N71" s="8" t="str" cm="1">
         <f t="array" ref="N71">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O71" t="str" cm="1">
+      <c r="O71" s="8" t="str" cm="1">
         <f t="array" ref="O71">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="5" t="s">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" cm="1">
+      <c r="J72" s="3"/>
+      <c r="K72" s="8" cm="1">
         <f t="array" ref="K72">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>32</v>
       </c>
-      <c r="L72" cm="1">
+      <c r="L72" s="8" cm="1">
         <f t="array" ref="L72">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>33</v>
       </c>
-      <c r="M72" t="str" cm="1">
+      <c r="M72" s="8" t="str" cm="1">
         <f t="array" ref="M72">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N72" t="str" cm="1">
+      <c r="N72" s="8" t="str" cm="1">
         <f t="array" ref="N72">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O72" t="str" cm="1">
+      <c r="O72" s="8" t="str" cm="1">
         <f t="array" ref="O72">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="5" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="5"/>
-      <c r="K73" cm="1">
+      <c r="J73" s="3"/>
+      <c r="K73" s="8" cm="1">
         <f t="array" ref="K73">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L73" t="str" cm="1">
+      <c r="L73" s="8" t="str" cm="1">
         <f t="array" ref="L73">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M73" t="str" cm="1">
+      <c r="M73" s="8" t="str" cm="1">
         <f t="array" ref="M73">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N73" t="str" cm="1">
+      <c r="N73" s="8" t="str" cm="1">
         <f t="array" ref="N73">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O73" t="str" cm="1">
+      <c r="O73" s="8" t="str" cm="1">
         <f t="array" ref="O73">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="5" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" cm="1">
+      <c r="J74" s="3"/>
+      <c r="K74" s="8" cm="1">
         <f t="array" ref="K74">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L74" t="str" cm="1">
+      <c r="L74" s="8" t="str" cm="1">
         <f t="array" ref="L74">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M74" t="str" cm="1">
+      <c r="M74" s="8" t="str" cm="1">
         <f t="array" ref="M74">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N74" t="str" cm="1">
+      <c r="N74" s="8" t="str" cm="1">
         <f t="array" ref="N74">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O74" t="str" cm="1">
+      <c r="O74" s="8" t="str" cm="1">
         <f t="array" ref="O74">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="5" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="5"/>
-      <c r="K75" cm="1">
+      <c r="J75" s="3"/>
+      <c r="K75" s="8" cm="1">
         <f t="array" ref="K75">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L75" t="str" cm="1">
+      <c r="L75" s="8" t="str" cm="1">
         <f t="array" ref="L75">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M75" t="str" cm="1">
+      <c r="M75" s="8" t="str" cm="1">
         <f t="array" ref="M75">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N75" t="str" cm="1">
+      <c r="N75" s="8" t="str" cm="1">
         <f t="array" ref="N75">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O75" t="str" cm="1">
+      <c r="O75" s="8" t="str" cm="1">
         <f t="array" ref="O75">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="5" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="5"/>
-      <c r="K76" cm="1">
+      <c r="J76" s="3"/>
+      <c r="K76" s="8" cm="1">
         <f t="array" ref="K76">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>39</v>
       </c>
-      <c r="L76" cm="1">
+      <c r="L76" s="8" cm="1">
         <f t="array" ref="L76">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>40</v>
       </c>
-      <c r="M76" t="str" cm="1">
+      <c r="M76" s="8" t="str" cm="1">
         <f t="array" ref="M76">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N76" t="str" cm="1">
+      <c r="N76" s="8" t="str" cm="1">
         <f t="array" ref="N76">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O76" t="str" cm="1">
+      <c r="O76" s="8" t="str" cm="1">
         <f t="array" ref="O76">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="5" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="5"/>
-      <c r="K77" cm="1">
+      <c r="J77" s="3"/>
+      <c r="K77" s="8" cm="1">
         <f t="array" ref="K77">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="L77" cm="1">
+      <c r="L77" s="8" cm="1">
         <f t="array" ref="L77">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="M77" t="str" cm="1">
+      <c r="M77" s="8" t="str" cm="1">
         <f t="array" ref="M77">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N77" t="str" cm="1">
+      <c r="N77" s="8" t="str" cm="1">
         <f t="array" ref="N77">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O77" t="str" cm="1">
+      <c r="O77" s="8" t="str" cm="1">
         <f t="array" ref="O77">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="5" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="5"/>
-      <c r="K78" cm="1">
+      <c r="J78" s="3"/>
+      <c r="K78" s="8" cm="1">
         <f t="array" ref="K78">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="L78" cm="1">
+      <c r="L78" s="8" cm="1">
         <f t="array" ref="L78">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="M78" t="str" cm="1">
+      <c r="M78" s="8" t="str" cm="1">
         <f t="array" ref="M78">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N78" t="str" cm="1">
+      <c r="N78" s="8" t="str" cm="1">
         <f t="array" ref="N78">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O78" t="str" cm="1">
+      <c r="O78" s="8" t="str" cm="1">
         <f t="array" ref="O78">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="5" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="5"/>
-      <c r="K79" cm="1">
+      <c r="J79" s="3"/>
+      <c r="K79" s="8" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>47</v>
       </c>
-      <c r="L79" cm="1">
+      <c r="L79" s="8" cm="1">
         <f t="array" ref="L79">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>48</v>
       </c>
-      <c r="M79" t="str" cm="1">
+      <c r="M79" s="8" t="str" cm="1">
         <f t="array" ref="M79">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N79" t="str" cm="1">
+      <c r="N79" s="8" t="str" cm="1">
         <f t="array" ref="N79">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O79" t="str" cm="1">
+      <c r="O79" s="8" t="str" cm="1">
         <f t="array" ref="O79">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="5" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" cm="1">
+      <c r="J80" s="3"/>
+      <c r="K80" s="8" cm="1">
         <f t="array" ref="K80">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L80" cm="1">
+      <c r="L80" s="8" cm="1">
         <f t="array" ref="L80">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M80" t="str" cm="1">
+      <c r="M80" s="8" t="str" cm="1">
         <f t="array" ref="M80">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N80" t="str" cm="1">
+      <c r="N80" s="8" t="str" cm="1">
         <f t="array" ref="N80">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O80" t="str" cm="1">
+      <c r="O80" s="8" t="str" cm="1">
         <f t="array" ref="O80">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="5" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" cm="1">
+      <c r="J81" s="3"/>
+      <c r="K81" s="8" cm="1">
         <f t="array" ref="K81">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L81" cm="1">
+      <c r="L81" s="8" cm="1">
         <f t="array" ref="L81">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M81" t="str" cm="1">
+      <c r="M81" s="8" t="str" cm="1">
         <f t="array" ref="M81">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N81" t="str" cm="1">
+      <c r="N81" s="8" t="str" cm="1">
         <f t="array" ref="N81">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O81" t="str" cm="1">
+      <c r="O81" s="8" t="str" cm="1">
         <f t="array" ref="O81">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="5" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" cm="1">
+      <c r="J82" s="3"/>
+      <c r="K82" s="8" cm="1">
         <f t="array" ref="K82">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L82" cm="1">
+      <c r="L82" s="8" cm="1">
         <f t="array" ref="L82">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M82" t="str" cm="1">
+      <c r="M82" s="8" t="str" cm="1">
         <f t="array" ref="M82">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N82" t="str" cm="1">
+      <c r="N82" s="8" t="str" cm="1">
         <f t="array" ref="N82">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O82" t="str" cm="1">
+      <c r="O82" s="8" t="str" cm="1">
         <f t="array" ref="O82">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="5" t="s">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" cm="1">
+      <c r="J83" s="3"/>
+      <c r="K83" s="8" cm="1">
         <f t="array" ref="K83">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L83" cm="1">
+      <c r="L83" s="8" cm="1">
         <f t="array" ref="L83">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M83" t="str" cm="1">
+      <c r="M83" s="8" t="str" cm="1">
         <f t="array" ref="M83">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N83" t="str" cm="1">
+      <c r="N83" s="8" t="str" cm="1">
         <f t="array" ref="N83">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O83" t="str" cm="1">
+      <c r="O83" s="8" t="str" cm="1">
         <f t="array" ref="O83">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="5" t="s">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" t="str" cm="1">
+      <c r="J84" s="3"/>
+      <c r="K84" s="8" t="str" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L84" cm="1">
+      <c r="L84" s="8" cm="1">
         <f t="array" ref="L84">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>51</v>
       </c>
-      <c r="M84" t="str" cm="1">
+      <c r="M84" s="8" t="str" cm="1">
         <f t="array" ref="M84">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N84" t="str" cm="1">
+      <c r="N84" s="8" t="str" cm="1">
         <f t="array" ref="N84">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O84" t="str" cm="1">
+      <c r="O84" s="8" t="str" cm="1">
         <f t="array" ref="O84">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>80</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="4">
         <v>41817</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="5" t="s">
+      <c r="F85" s="4"/>
+      <c r="G85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="5"/>
-      <c r="K85" cm="1">
+      <c r="J85" s="3"/>
+      <c r="K85" s="8" cm="1">
         <f t="array" ref="K85">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L85" cm="1">
+      <c r="L85" s="8" cm="1">
         <f t="array" ref="L85">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M85" t="str" cm="1">
+      <c r="M85" s="8" t="str" cm="1">
         <f t="array" ref="M85">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N85" t="str" cm="1">
+      <c r="N85" s="8" t="str" cm="1">
         <f t="array" ref="N85">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O85" t="str" cm="1">
+      <c r="O85" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O85" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>11 years, 7 months, 5 days</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>81</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="4">
         <v>44335</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="4">
         <v>45164</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="9" cm="1">
+      <c r="I86" s="4"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="8" cm="1">
         <f t="array" ref="K86">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L86" s="9" cm="1">
+      <c r="L86" s="8" cm="1">
         <f t="array" ref="L86">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M86" s="9" t="str" cm="1">
+      <c r="M86" s="8" t="str" cm="1">
         <f t="array" ref="M86">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N86" s="10" t="str" cm="1">
+      <c r="N86" s="8" t="str" cm="1">
         <f t="array" ref="N86">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>2 years, 3 months, 7 days</v>
       </c>
-      <c r="O86" s="10" t="str" cm="1">
+      <c r="O86" s="8" t="str" cm="1">
         <f t="array" ref="O86">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>82</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="4">
         <v>45188</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I87" s="6"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="9" cm="1">
+      <c r="I87" s="4"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="8" cm="1">
         <f t="array" ref="K87">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L87" s="9" cm="1">
+      <c r="L87" s="8" cm="1">
         <f t="array" ref="L87">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M87" s="9" t="str" cm="1">
+      <c r="M87" s="8" t="str" cm="1">
         <f t="array" ref="M87">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N87" s="10" t="str" cm="1">
+      <c r="N87" s="8" t="str" cm="1">
         <f t="array" ref="N87">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O87" s="10" t="str" cm="1">
+      <c r="O87" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="O87" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>2 years, 4 months, 13 days</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8tElWfJnWP+A652nkbOenVe0TIPHMqB+hzMn2S0e/Qf6R6AzhLYCgGtJw73kwlXibS6hWKY2e11QLr8oc0H1NA==" saltValue="MErHZgUwbc9mlqPOljtERQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D85" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
@@ -6122,8 +5497,8 @@
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
@@ -6132,40 +5507,40 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6186,11 +5561,11 @@
         <f t="array" ref="D6:D87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
         <v>male</v>
       </c>
-      <c r="E6" s="3" cm="1">
+      <c r="E6" s="2" cm="1">
         <f t="array" ref="E6:E87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
         <v>1174</v>
       </c>
-      <c r="F6" s="3" cm="1">
+      <c r="F6" s="2" cm="1">
         <f t="array" ref="F6:F87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
         <v>32314</v>
       </c>
@@ -6232,10 +5607,10 @@
       <c r="D7" t="str">
         <v>female</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4753</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>33847</v>
       </c>
       <c r="G7" t="str">
@@ -6271,10 +5646,10 @@
       <c r="D8" t="str">
         <v>female</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>11763</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>37626</v>
       </c>
       <c r="G8">
@@ -6310,10 +5685,10 @@
       <c r="D9" t="str">
         <v>male</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>12395</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9">
@@ -6349,10 +5724,10 @@
       <c r="D10" t="str">
         <v>female</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" t="str">
@@ -6388,10 +5763,10 @@
       <c r="D11" t="str">
         <v>male</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>13162</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11">
@@ -6427,10 +5802,10 @@
       <c r="D12" t="str">
         <v>female</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" t="str">
@@ -6466,10 +5841,10 @@
       <c r="D13" t="str">
         <v>male</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>14782</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13">
@@ -6505,10 +5880,10 @@
       <c r="D14" t="str">
         <v>female</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" t="str">
@@ -6544,10 +5919,10 @@
       <c r="D15" t="str">
         <v>male</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>15523</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15">
@@ -6583,10 +5958,10 @@
       <c r="D16" t="str">
         <v>female</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" t="str">
@@ -6622,10 +5997,10 @@
       <c r="D17" t="str">
         <v>male</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" t="str">
@@ -6661,10 +6036,10 @@
       <c r="D18" t="str">
         <v>female</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>17507</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18">
@@ -6700,10 +6075,10 @@
       <c r="D19" t="str">
         <v>male</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>18790</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>36903</v>
       </c>
       <c r="G19">
@@ -6739,10 +6114,10 @@
       <c r="D20" t="str">
         <v>female</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" t="str">
@@ -6778,10 +6153,10 @@
       <c r="D21" t="str">
         <v>male</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>19798</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21">
@@ -6817,10 +6192,10 @@
       <c r="D22" t="str">
         <v>female</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" t="str">
@@ -6856,10 +6231,10 @@
       <c r="D23" t="str">
         <v>male</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" t="str">
@@ -6895,10 +6270,10 @@
       <c r="D24" t="str">
         <v>female</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>20712</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
       <c r="G24">
@@ -6934,10 +6309,10 @@
       <c r="D25" t="str">
         <v>female</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25">
@@ -6973,10 +6348,10 @@
       <c r="D26" t="str">
         <v>female</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26">
@@ -7012,10 +6387,10 @@
       <c r="D27" t="str">
         <v>male</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27">
@@ -7051,10 +6426,10 @@
       <c r="D28" t="str">
         <v>female</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" t="str">
@@ -7090,10 +6465,10 @@
       <c r="D29" t="str">
         <v>male</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29">
@@ -7129,10 +6504,10 @@
       <c r="D30" t="str">
         <v>female</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" t="str">
@@ -7168,10 +6543,10 @@
       <c r="D31" t="str">
         <v>male</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31">
@@ -7207,10 +6582,10 @@
       <c r="D32" t="str">
         <v>female</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" t="str">
@@ -7246,10 +6621,10 @@
       <c r="D33" t="str">
         <v>male</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33">
@@ -7285,10 +6660,10 @@
       <c r="D34" t="str">
         <v>female</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" t="str">
@@ -7324,10 +6699,10 @@
       <c r="D35" t="str">
         <v>male</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35">
@@ -7363,10 +6738,10 @@
       <c r="D36" t="str">
         <v>female</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" t="str">
@@ -7402,10 +6777,10 @@
       <c r="D37" t="str">
         <v>male</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37">
@@ -7441,10 +6816,10 @@
       <c r="D38" t="str">
         <v>female</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" t="str">
@@ -7480,10 +6855,10 @@
       <c r="D39" t="str">
         <v>male</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39">
@@ -7519,10 +6894,10 @@
       <c r="D40" t="str">
         <v>male</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40">
@@ -7558,10 +6933,10 @@
       <c r="D41" t="str">
         <v>male</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41">
@@ -7597,10 +6972,10 @@
       <c r="D42" t="str">
         <v>female</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42">
@@ -7636,10 +7011,10 @@
       <c r="D43" t="str">
         <v>male</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" t="str">
@@ -7675,10 +7050,10 @@
       <c r="D44" t="str">
         <v>male</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44">
@@ -7714,10 +7089,10 @@
       <c r="D45" t="str">
         <v>female</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" t="str">
@@ -7753,10 +7128,10 @@
       <c r="D46" t="str">
         <v>male</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46">
@@ -7792,10 +7167,10 @@
       <c r="D47" t="str">
         <v>male</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47">
@@ -7831,10 +7206,10 @@
       <c r="D48" t="str">
         <v>male</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48">
@@ -7870,10 +7245,10 @@
       <c r="D49" t="str">
         <v>female</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" t="str">
@@ -7909,10 +7284,10 @@
       <c r="D50" t="str">
         <v>male</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>0</v>
       </c>
       <c r="G50">
@@ -7948,10 +7323,10 @@
       <c r="D51" t="str">
         <v>female</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" t="str">
@@ -7987,10 +7362,10 @@
       <c r="D52" t="str">
         <v>male</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" t="str">
@@ -8026,10 +7401,10 @@
       <c r="D53" t="str">
         <v>female</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53">
@@ -8065,10 +7440,10 @@
       <c r="D54" t="str">
         <v>male</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>0</v>
       </c>
       <c r="G54">
@@ -8104,10 +7479,10 @@
       <c r="D55" t="str">
         <v>female</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" t="str">
@@ -8143,10 +7518,10 @@
       <c r="D56" t="str">
         <v>female</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56">
@@ -8182,10 +7557,10 @@
       <c r="D57" t="str">
         <v>male</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" t="str">
@@ -8221,10 +7596,10 @@
       <c r="D58" t="str">
         <v>female</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58">
@@ -8260,10 +7635,10 @@
       <c r="D59" t="str">
         <v>male</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59">
@@ -8299,10 +7674,10 @@
       <c r="D60" t="str">
         <v>female</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60" t="str">
@@ -8338,10 +7713,10 @@
       <c r="D61" t="str">
         <v>male</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61">
@@ -8377,10 +7752,10 @@
       <c r="D62" t="str">
         <v>female</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" t="str">
@@ -8416,10 +7791,10 @@
       <c r="D63" t="str">
         <v>female</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
         <v>0</v>
       </c>
       <c r="G63">
@@ -8455,10 +7830,10 @@
       <c r="D64" t="str">
         <v>female</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
         <v>0</v>
       </c>
       <c r="G64">
@@ -8494,10 +7869,10 @@
       <c r="D65" t="str">
         <v>male</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
         <v>0</v>
       </c>
       <c r="G65">
@@ -8533,10 +7908,10 @@
       <c r="D66" t="str">
         <v>female</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66">
@@ -8572,10 +7947,10 @@
       <c r="D67" t="str">
         <v>female</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67">
@@ -8611,10 +7986,10 @@
       <c r="D68" t="str">
         <v>male</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
         <v>0</v>
       </c>
       <c r="G68">
@@ -8650,10 +8025,10 @@
       <c r="D69" t="str">
         <v>male</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
         <v>0</v>
       </c>
       <c r="G69">
@@ -8689,10 +8064,10 @@
       <c r="D70" t="str">
         <v>male</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70">
@@ -8728,10 +8103,10 @@
       <c r="D71" t="str">
         <v>female</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71">
@@ -8767,10 +8142,10 @@
       <c r="D72" t="str">
         <v>male</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
         <v>0</v>
       </c>
       <c r="G72">
@@ -8806,10 +8181,10 @@
       <c r="D73" t="str">
         <v>female</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73">
@@ -8845,10 +8220,10 @@
       <c r="D74" t="str">
         <v>male</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
         <v>0</v>
       </c>
       <c r="G74">
@@ -8884,10 +8259,10 @@
       <c r="D75" t="str">
         <v>male</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
         <v>0</v>
       </c>
       <c r="G75">
@@ -8923,10 +8298,10 @@
       <c r="D76" t="str">
         <v>female</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
         <v>0</v>
       </c>
       <c r="G76">
@@ -8962,10 +8337,10 @@
       <c r="D77" t="str">
         <v>female</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
         <v>0</v>
       </c>
       <c r="G77">
@@ -9001,10 +8376,10 @@
       <c r="D78" t="str">
         <v>male</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78">
@@ -9040,10 +8415,10 @@
       <c r="D79" t="str">
         <v>female</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
         <v>0</v>
       </c>
       <c r="G79">
@@ -9079,10 +8454,10 @@
       <c r="D80" t="str">
         <v>male</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
         <v>0</v>
       </c>
       <c r="G80">
@@ -9118,10 +8493,10 @@
       <c r="D81" t="str">
         <v>male</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
         <v>0</v>
       </c>
       <c r="G81">
@@ -9157,10 +8532,10 @@
       <c r="D82" t="str">
         <v>male</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82">
@@ -9196,10 +8571,10 @@
       <c r="D83" t="str">
         <v>female</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83">
@@ -9235,10 +8610,10 @@
       <c r="D84" t="str">
         <v>female</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
         <v>0</v>
       </c>
       <c r="G84" t="str">
@@ -9274,10 +8649,10 @@
       <c r="D85" t="str">
         <v>female</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>41817</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>0</v>
       </c>
       <c r="G85">
@@ -9313,10 +8688,10 @@
       <c r="D86" t="str">
         <v>female</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>44335</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>45164</v>
       </c>
       <c r="G86">
@@ -9352,10 +8727,10 @@
       <c r="D87" t="str">
         <v>female</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>45188</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>0</v>
       </c>
       <c r="G87">

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E144071C-1466-4677-8D30-6134246F66CA}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260EF488-964F-40D1-AE5D-185C4B6C0A05}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="106">
   <si>
     <t>ALTO FAMILY DATA ENTRY</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Nita Nash Wongbandue</t>
+  </si>
+  <si>
+    <t>Zoe Alto</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,11 +496,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +524,33 @@
       </border>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy\ \(ddd\)"/>
@@ -565,29 +590,6 @@
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -602,34 +604,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A5:O87" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A5:O88" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="18">
       <calculatedColumnFormula>ROW()-ROW(Family[[#Headers],[PersonID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{009CC418-924E-49F6-8FCA-7B769637F7FD}" name="Name" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{4C1D044A-8C5E-4AFC-8E4E-C2FCAB97A34D}" name="Nickname" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{898E856A-3E67-443A-B6CF-A9B5A12CEA46}" name="Gender" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C720E0FF-6359-47E6-A2F4-AB8D9A363EE2}" name="BirthDate" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{498E45FE-D50F-467A-AB83-B2E8C3D04DA1}" name="DeathDate" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{2AA98799-20C7-411D-B2A5-DFEA0A7F7642}" name="Father" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{5C4798DF-DFB6-4E73-9DAE-E1E139398347}" name="Mother" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{DA7E8D0B-ED72-46F5-9628-B968F57BEA59}" name="Spouse" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{EA2B7671-49E5-4902-A3F3-B1918B8494DE}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9E746590-7A16-434E-8227-D0E8463A67D0}" name="FatherID" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{009CC418-924E-49F6-8FCA-7B769637F7FD}" name="Name" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{4C1D044A-8C5E-4AFC-8E4E-C2FCAB97A34D}" name="Nickname" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{898E856A-3E67-443A-B6CF-A9B5A12CEA46}" name="Gender" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C720E0FF-6359-47E6-A2F4-AB8D9A363EE2}" name="BirthDate" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{498E45FE-D50F-467A-AB83-B2E8C3D04DA1}" name="DeathDate" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{2AA98799-20C7-411D-B2A5-DFEA0A7F7642}" name="Father" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{5C4798DF-DFB6-4E73-9DAE-E1E139398347}" name="Mother" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{DA7E8D0B-ED72-46F5-9628-B968F57BEA59}" name="Spouse" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{EA2B7671-49E5-4902-A3F3-B1918B8494DE}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9E746590-7A16-434E-8227-D0E8463A67D0}" name="FatherID" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7235B4CA-878D-4B51-8E3E-78366A0E6F26}" name="MotherID" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{7235B4CA-878D-4B51-8E3E-78366A0E6F26}" name="MotherID" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F7290562-5B6C-472E-A7B3-6D448F6C0C7C}" name="SpouseID" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{F7290562-5B6C-472E-A7B3-6D448F6C0C7C}" name="SpouseID" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E9A75D4F-73FD-4BCA-A42C-52AA6886EF1A}" name="LifeTime Age" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{E9A75D4F-73FD-4BCA-A42C-52AA6886EF1A}" name="LifeTime Age" dataDxfId="5">
       <calculatedColumnFormula array="1">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{475558A6-F896-4F9A-AC89-3F2AB0951ED8}" name="Current Age" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{475558A6-F896-4F9A-AC89-3F2AB0951ED8}" name="Current Age" dataDxfId="4">
       <calculatedColumnFormula array="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -638,10 +640,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}" name="Lookup_Gender" displayName="Lookup_Gender" ref="A3:A5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A3:A5" xr:uid="{9098B77B-4DD1-4DFD-BE95-AAA1FFD03E58}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{63BAEA8C-3836-42F0-ADBC-BA6F9A119A97}" name="Gender" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -970,95 +972,94 @@
   <dimension ref="A2:O149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="9" customWidth="1"/>
-    <col min="7" max="9" width="20.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <f ca="1">TODAY()</f>
         <v>46054</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>1</v>
       </c>
@@ -1085,29 +1086,29 @@
         <v>21</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="8" t="str" cm="1">
+      <c r="K6" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L6" s="8" t="str" cm="1">
+      <c r="L6" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M6" s="8" cm="1">
+      <c r="M6" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="8" t="str" cm="1">
+      <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
-      <c r="O6" s="8" t="str" cm="1">
+      <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>2</v>
       </c>
@@ -1134,29 +1135,29 @@
         <v>18</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="8" t="str" cm="1">
+      <c r="K7" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str" cm="1">
+      <c r="L7" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M7" s="8" cm="1">
+      <c r="M7" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="8" t="str" cm="1">
+      <c r="N7" t="str" cm="1">
         <f t="array" ref="N7">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>79 years, 7 months, 27 days</v>
       </c>
-      <c r="O7" s="8" t="str" cm="1">
+      <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>3</v>
       </c>
@@ -1183,29 +1184,29 @@
         <v>20</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="8" cm="1">
+      <c r="K8" cm="1">
         <f t="array" ref="K8">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="8" cm="1">
+      <c r="L8" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="8" t="str" cm="1">
+      <c r="M8" t="str" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N8" s="8" t="str" cm="1">
+      <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>70 years, 9 months, 21 days</v>
       </c>
-      <c r="O8" s="8" t="str" cm="1">
+      <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>4</v>
       </c>
@@ -1230,29 +1231,29 @@
         <v>25</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="8" cm="1">
+      <c r="K9" cm="1">
         <f t="array" ref="K9">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L9" s="8" cm="1">
+      <c r="L9" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M9" s="8" cm="1">
+      <c r="M9" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="N9" s="8" t="str" cm="1">
+      <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O9" s="8" t="str" cm="1">
+      <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>92 years, 1 months, 25 days</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>5</v>
       </c>
@@ -1275,29 +1276,29 @@
         <v>24</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="8" t="str" cm="1">
+      <c r="K10" t="str" cm="1">
         <f t="array" ref="K10">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str" cm="1">
+      <c r="L10" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M10" s="8" cm="1">
+      <c r="M10" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="N10" s="8" t="str" cm="1">
+      <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O10" s="8" t="str" cm="1">
+      <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>6</v>
       </c>
@@ -1322,29 +1323,29 @@
         <v>27</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="8" cm="1">
+      <c r="K11" cm="1">
         <f t="array" ref="K11">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="8" cm="1">
+      <c r="L11" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="8" cm="1">
+      <c r="M11" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="N11" s="8" t="str" cm="1">
+      <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O11" s="8" t="str" cm="1">
+      <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>90 years, 0 months, 19 days</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>7</v>
       </c>
@@ -1367,29 +1368,29 @@
         <v>26</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="8" t="str" cm="1">
+      <c r="K12" t="str" cm="1">
         <f t="array" ref="K12">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str" cm="1">
+      <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M12" s="8" cm="1">
+      <c r="M12" cm="1">
         <f t="array" ref="M12">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="N12" s="8" t="str" cm="1">
+      <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O12" s="8" t="str" cm="1">
+      <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>8</v>
       </c>
@@ -1414,29 +1415,29 @@
         <v>29</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="8" cm="1">
+      <c r="K13" cm="1">
         <f t="array" ref="K13">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="8" cm="1">
+      <c r="L13" cm="1">
         <f t="array" ref="L13">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="8" cm="1">
+      <c r="M13" cm="1">
         <f t="array" ref="M13">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="8" t="str" cm="1">
+      <c r="N13" t="str" cm="1">
         <f t="array" ref="N13">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O13" s="8" t="str" cm="1">
+      <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>85 years, 7 months, 12 days</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>9</v>
       </c>
@@ -1459,29 +1460,29 @@
         <v>28</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="8" t="str" cm="1">
+      <c r="K14" t="str" cm="1">
         <f t="array" ref="K14">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str" cm="1">
+      <c r="L14" t="str" cm="1">
         <f t="array" ref="L14">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M14" s="8" cm="1">
+      <c r="M14" cm="1">
         <f t="array" ref="M14">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="N14" s="8" t="str" cm="1">
+      <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O14" s="8" t="str" cm="1">
+      <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>10</v>
       </c>
@@ -1506,29 +1507,29 @@
         <v>31</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="8" cm="1">
+      <c r="K15" cm="1">
         <f t="array" ref="K15">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="8" cm="1">
+      <c r="L15" cm="1">
         <f t="array" ref="L15">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M15" s="8" cm="1">
+      <c r="M15" cm="1">
         <f t="array" ref="M15">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="N15" s="8" t="str" cm="1">
+      <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O15" s="8" t="str" cm="1">
+      <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>83 years, 7 months, 0 days</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>11</v>
       </c>
@@ -1551,29 +1552,29 @@
         <v>30</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="8" t="str" cm="1">
+      <c r="K16" t="str" cm="1">
         <f t="array" ref="K16">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str" cm="1">
+      <c r="L16" t="str" cm="1">
         <f t="array" ref="L16">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M16" s="8" cm="1">
+      <c r="M16" cm="1">
         <f t="array" ref="M16">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="N16" s="8" t="str" cm="1">
+      <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O16" s="8" t="str" cm="1">
+      <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>12</v>
       </c>
@@ -1596,29 +1597,29 @@
         <v>33</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="8" t="str" cm="1">
+      <c r="K17" t="str" cm="1">
         <f t="array" ref="K17">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str" cm="1">
+      <c r="L17" t="str" cm="1">
         <f t="array" ref="L17">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M17" s="8" cm="1">
+      <c r="M17" cm="1">
         <f t="array" ref="M17">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="N17" s="8" t="str" cm="1">
+      <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O17" s="8" t="str" cm="1">
+      <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>13</v>
       </c>
@@ -1643,29 +1644,29 @@
         <v>32</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="8" cm="1">
+      <c r="K18" cm="1">
         <f t="array" ref="K18">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="8" cm="1">
+      <c r="L18" cm="1">
         <f t="array" ref="L18">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="8" cm="1">
+      <c r="M18" cm="1">
         <f t="array" ref="M18">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="N18" s="8" t="str" cm="1">
+      <c r="N18" t="str" cm="1">
         <f t="array" ref="N18">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str" cm="1">
+      <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>78 years, 1 months, 26 days</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>14</v>
       </c>
@@ -1692,29 +1693,29 @@
         <v>35</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="8" cm="1">
+      <c r="K19" cm="1">
         <f t="array" ref="K19">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="8" cm="1">
+      <c r="L19" cm="1">
         <f t="array" ref="L19">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="8" cm="1">
+      <c r="M19" cm="1">
         <f t="array" ref="M19">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="N19" s="8" t="str" cm="1">
+      <c r="N19" t="str" cm="1">
         <f t="array" ref="N19">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>49 years, 7 months, 1 days</v>
       </c>
-      <c r="O19" s="8" t="str" cm="1">
+      <c r="O19" t="str" cm="1">
         <f t="array" ref="O19">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>15</v>
       </c>
@@ -1737,29 +1738,29 @@
         <v>34</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="8" t="str" cm="1">
+      <c r="K20" t="str" cm="1">
         <f t="array" ref="K20">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str" cm="1">
+      <c r="L20" t="str" cm="1">
         <f t="array" ref="L20">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M20" s="8" cm="1">
+      <c r="M20" cm="1">
         <f t="array" ref="M20">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="N20" s="8" t="str" cm="1">
+      <c r="N20" t="str" cm="1">
         <f t="array" ref="N20">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O20" s="8" t="str" cm="1">
+      <c r="O20" t="str" cm="1">
         <f t="array" ref="O20">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>16</v>
       </c>
@@ -1784,29 +1785,29 @@
         <v>37</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="8" cm="1">
+      <c r="K21" cm="1">
         <f t="array" ref="K21">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="8" cm="1">
+      <c r="L21" cm="1">
         <f t="array" ref="L21">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="8" cm="1">
+      <c r="M21" cm="1">
         <f t="array" ref="M21">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="N21" s="8" t="str" cm="1">
+      <c r="N21" t="str" cm="1">
         <f t="array" ref="N21">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O21" s="8" t="str" cm="1">
+      <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>71 years, 10 months, 17 days</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>17</v>
       </c>
@@ -1829,29 +1830,29 @@
         <v>36</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="8" t="str" cm="1">
+      <c r="K22" t="str" cm="1">
         <f t="array" ref="K22">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str" cm="1">
+      <c r="L22" t="str" cm="1">
         <f t="array" ref="L22">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M22" s="8" cm="1">
+      <c r="M22" cm="1">
         <f t="array" ref="M22">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="N22" s="8" t="str" cm="1">
+      <c r="N22" t="str" cm="1">
         <f t="array" ref="N22">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O22" s="8" t="str" cm="1">
+      <c r="O22" t="str" cm="1">
         <f t="array" ref="O22">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>18</v>
       </c>
@@ -1874,29 +1875,29 @@
         <v>39</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="8" t="str" cm="1">
+      <c r="K23" t="str" cm="1">
         <f t="array" ref="K23">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str" cm="1">
+      <c r="L23" t="str" cm="1">
         <f t="array" ref="L23">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M23" s="8" cm="1">
+      <c r="M23" cm="1">
         <f t="array" ref="M23">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="N23" s="8" t="str" cm="1">
+      <c r="N23" t="str" cm="1">
         <f t="array" ref="N23">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O23" s="8" t="str" cm="1">
+      <c r="O23" t="str" cm="1">
         <f t="array" ref="O23">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>19</v>
       </c>
@@ -1921,29 +1922,29 @@
         <v>38</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="8" cm="1">
+      <c r="K24" cm="1">
         <f t="array" ref="K24">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>1</v>
       </c>
-      <c r="L24" s="8" cm="1">
+      <c r="L24" cm="1">
         <f t="array" ref="L24">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>2</v>
       </c>
-      <c r="M24" s="8" cm="1">
+      <c r="M24" cm="1">
         <f t="array" ref="M24">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="N24" s="8" t="str" cm="1">
+      <c r="N24" t="str" cm="1">
         <f t="array" ref="N24">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O24" s="8" t="str" cm="1">
+      <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>69 years, 4 months, 18 days</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>20</v>
       </c>
@@ -1966,29 +1967,29 @@
         <v>20</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="8" cm="1">
+      <c r="K25" cm="1">
         <f t="array" ref="K25">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="L25" s="8" cm="1">
+      <c r="L25" cm="1">
         <f t="array" ref="L25">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="M25" s="8" t="str" cm="1">
+      <c r="M25" t="str" cm="1">
         <f t="array" ref="M25">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N25" s="8" t="str" cm="1">
+      <c r="N25" t="str" cm="1">
         <f t="array" ref="N25">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O25" s="8" t="str" cm="1">
+      <c r="O25" t="str" cm="1">
         <f t="array" ref="O25">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>21</v>
       </c>
@@ -2011,29 +2012,29 @@
         <v>20</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="8" cm="1">
+      <c r="K26" cm="1">
         <f t="array" ref="K26">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>4</v>
       </c>
-      <c r="L26" s="8" cm="1">
+      <c r="L26" cm="1">
         <f t="array" ref="L26">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>5</v>
       </c>
-      <c r="M26" s="8" t="str" cm="1">
+      <c r="M26" t="str" cm="1">
         <f t="array" ref="M26">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N26" s="8" t="str" cm="1">
+      <c r="N26" t="str" cm="1">
         <f t="array" ref="N26">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O26" s="8" t="str" cm="1">
+      <c r="O26" t="str" cm="1">
         <f t="array" ref="O26">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>22</v>
       </c>
@@ -2056,29 +2057,29 @@
         <v>43</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="8" cm="1">
+      <c r="K27" cm="1">
         <f t="array" ref="K27">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L27" s="8" cm="1">
+      <c r="L27" cm="1">
         <f t="array" ref="L27">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M27" s="8" cm="1">
+      <c r="M27" cm="1">
         <f t="array" ref="M27">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="N27" s="8" t="str" cm="1">
+      <c r="N27" t="str" cm="1">
         <f t="array" ref="N27">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O27" s="8" t="str" cm="1">
+      <c r="O27" t="str" cm="1">
         <f t="array" ref="O27">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>23</v>
       </c>
@@ -2101,29 +2102,29 @@
         <v>42</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="8" t="str" cm="1">
+      <c r="K28" t="str" cm="1">
         <f t="array" ref="K28">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str" cm="1">
+      <c r="L28" t="str" cm="1">
         <f t="array" ref="L28">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M28" s="8" cm="1">
+      <c r="M28" cm="1">
         <f t="array" ref="M28">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="N28" s="8" t="str" cm="1">
+      <c r="N28" t="str" cm="1">
         <f t="array" ref="N28">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O28" s="8" t="str" cm="1">
+      <c r="O28" t="str" cm="1">
         <f t="array" ref="O28">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>24</v>
       </c>
@@ -2146,29 +2147,29 @@
         <v>45</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="8" cm="1">
+      <c r="K29" cm="1">
         <f t="array" ref="K29">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L29" s="8" cm="1">
+      <c r="L29" cm="1">
         <f t="array" ref="L29">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M29" s="8" cm="1">
+      <c r="M29" cm="1">
         <f t="array" ref="M29">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>25</v>
       </c>
-      <c r="N29" s="8" t="str" cm="1">
+      <c r="N29" t="str" cm="1">
         <f t="array" ref="N29">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O29" s="8" t="str" cm="1">
+      <c r="O29" t="str" cm="1">
         <f t="array" ref="O29">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>25</v>
       </c>
@@ -2191,29 +2192,29 @@
         <v>44</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="8" t="str" cm="1">
+      <c r="K30" t="str" cm="1">
         <f t="array" ref="K30">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str" cm="1">
+      <c r="L30" t="str" cm="1">
         <f t="array" ref="L30">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M30" s="8" cm="1">
+      <c r="M30" cm="1">
         <f t="array" ref="M30">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>24</v>
       </c>
-      <c r="N30" s="8" t="str" cm="1">
+      <c r="N30" t="str" cm="1">
         <f t="array" ref="N30">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O30" s="8" t="str" cm="1">
+      <c r="O30" t="str" cm="1">
         <f t="array" ref="O30">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>26</v>
       </c>
@@ -2236,29 +2237,29 @@
         <v>47</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="8" cm="1">
+      <c r="K31" cm="1">
         <f t="array" ref="K31">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>6</v>
       </c>
-      <c r="L31" s="8" cm="1">
+      <c r="L31" cm="1">
         <f t="array" ref="L31">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>7</v>
       </c>
-      <c r="M31" s="8" cm="1">
+      <c r="M31" cm="1">
         <f t="array" ref="M31">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="N31" s="8" t="str" cm="1">
+      <c r="N31" t="str" cm="1">
         <f t="array" ref="N31">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O31" s="8" t="str" cm="1">
+      <c r="O31" t="str" cm="1">
         <f t="array" ref="O31">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>27</v>
       </c>
@@ -2281,29 +2282,29 @@
         <v>46</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="8" t="str" cm="1">
+      <c r="K32" t="str" cm="1">
         <f t="array" ref="K32">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L32" s="8" t="str" cm="1">
+      <c r="L32" t="str" cm="1">
         <f t="array" ref="L32">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M32" s="8" cm="1">
+      <c r="M32" cm="1">
         <f t="array" ref="M32">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="N32" s="8" t="str" cm="1">
+      <c r="N32" t="str" cm="1">
         <f t="array" ref="N32">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O32" s="8" t="str" cm="1">
+      <c r="O32" t="str" cm="1">
         <f t="array" ref="O32">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>28</v>
       </c>
@@ -2326,29 +2327,29 @@
         <v>49</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="8" cm="1">
+      <c r="K33" cm="1">
         <f t="array" ref="K33">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="L33" s="8" cm="1">
+      <c r="L33" cm="1">
         <f t="array" ref="L33">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="M33" s="8" cm="1">
+      <c r="M33" cm="1">
         <f t="array" ref="M33">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>29</v>
       </c>
-      <c r="N33" s="8" t="str" cm="1">
+      <c r="N33" t="str" cm="1">
         <f t="array" ref="N33">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O33" s="8" t="str" cm="1">
+      <c r="O33" t="str" cm="1">
         <f t="array" ref="O33">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>29</v>
       </c>
@@ -2371,29 +2372,29 @@
         <v>48</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="8" t="str" cm="1">
+      <c r="K34" t="str" cm="1">
         <f t="array" ref="K34">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L34" s="8" t="str" cm="1">
+      <c r="L34" t="str" cm="1">
         <f t="array" ref="L34">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M34" s="8" cm="1">
+      <c r="M34" cm="1">
         <f t="array" ref="M34">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>28</v>
       </c>
-      <c r="N34" s="8" t="str" cm="1">
+      <c r="N34" t="str" cm="1">
         <f t="array" ref="N34">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O34" s="8" t="str" cm="1">
+      <c r="O34" t="str" cm="1">
         <f t="array" ref="O34">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>30</v>
       </c>
@@ -2416,29 +2417,29 @@
         <v>51</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="8" cm="1">
+      <c r="K35" cm="1">
         <f t="array" ref="K35">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>8</v>
       </c>
-      <c r="L35" s="8" cm="1">
+      <c r="L35" cm="1">
         <f t="array" ref="L35">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>9</v>
       </c>
-      <c r="M35" s="8" cm="1">
+      <c r="M35" cm="1">
         <f t="array" ref="M35">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="N35" s="8" t="str" cm="1">
+      <c r="N35" t="str" cm="1">
         <f t="array" ref="N35">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O35" s="8" t="str" cm="1">
+      <c r="O35" t="str" cm="1">
         <f t="array" ref="O35">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>31</v>
       </c>
@@ -2461,29 +2462,29 @@
         <v>50</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="8" t="str" cm="1">
+      <c r="K36" t="str" cm="1">
         <f t="array" ref="K36">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L36" s="8" t="str" cm="1">
+      <c r="L36" t="str" cm="1">
         <f t="array" ref="L36">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M36" s="8" cm="1">
+      <c r="M36" cm="1">
         <f t="array" ref="M36">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="N36" s="8" t="str" cm="1">
+      <c r="N36" t="str" cm="1">
         <f t="array" ref="N36">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O36" s="8" t="str" cm="1">
+      <c r="O36" t="str" cm="1">
         <f t="array" ref="O36">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>32</v>
       </c>
@@ -2506,29 +2507,29 @@
         <v>53</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="8" cm="1">
+      <c r="K37" cm="1">
         <f t="array" ref="K37">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L37" s="8" cm="1">
+      <c r="L37" cm="1">
         <f t="array" ref="L37">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M37" s="8" cm="1">
+      <c r="M37" cm="1">
         <f t="array" ref="M37">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>33</v>
       </c>
-      <c r="N37" s="8" t="str" cm="1">
+      <c r="N37" t="str" cm="1">
         <f t="array" ref="N37">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O37" s="8" t="str" cm="1">
+      <c r="O37" t="str" cm="1">
         <f t="array" ref="O37">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>33</v>
       </c>
@@ -2551,29 +2552,29 @@
         <v>52</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="8" t="str" cm="1">
+      <c r="K38" t="str" cm="1">
         <f t="array" ref="K38">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L38" s="8" t="str" cm="1">
+      <c r="L38" t="str" cm="1">
         <f t="array" ref="L38">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M38" s="8" cm="1">
+      <c r="M38" cm="1">
         <f t="array" ref="M38">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>32</v>
       </c>
-      <c r="N38" s="8" t="str" cm="1">
+      <c r="N38" t="str" cm="1">
         <f t="array" ref="N38">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O38" s="8" t="str" cm="1">
+      <c r="O38" t="str" cm="1">
         <f t="array" ref="O38">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>34</v>
       </c>
@@ -2596,29 +2597,29 @@
         <v>20</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="8" cm="1">
+      <c r="K39" cm="1">
         <f t="array" ref="K39">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L39" s="8" cm="1">
+      <c r="L39" cm="1">
         <f t="array" ref="L39">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M39" s="8" t="str" cm="1">
+      <c r="M39" t="str" cm="1">
         <f t="array" ref="M39">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N39" s="8" t="str" cm="1">
+      <c r="N39" t="str" cm="1">
         <f t="array" ref="N39">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O39" s="8" t="str" cm="1">
+      <c r="O39" t="str" cm="1">
         <f t="array" ref="O39">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
       </c>
@@ -2641,29 +2642,29 @@
         <v>20</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="8" cm="1">
+      <c r="K40" cm="1">
         <f t="array" ref="K40">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L40" s="8" cm="1">
+      <c r="L40" cm="1">
         <f t="array" ref="L40">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M40" s="8" t="str" cm="1">
+      <c r="M40" t="str" cm="1">
         <f t="array" ref="M40">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N40" s="8" t="str" cm="1">
+      <c r="N40" t="str" cm="1">
         <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O40" s="8" t="str" cm="1">
+      <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>36</v>
       </c>
@@ -2686,29 +2687,29 @@
         <v>20</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="8" cm="1">
+      <c r="K41" cm="1">
         <f t="array" ref="K41">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L41" s="8" cm="1">
+      <c r="L41" cm="1">
         <f t="array" ref="L41">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M41" s="8" t="str" cm="1">
+      <c r="M41" t="str" cm="1">
         <f t="array" ref="M41">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N41" s="8" t="str" cm="1">
+      <c r="N41" t="str" cm="1">
         <f t="array" ref="N41">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O41" s="8" t="str" cm="1">
+      <c r="O41" t="str" cm="1">
         <f t="array" ref="O41">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>37</v>
       </c>
@@ -2731,29 +2732,29 @@
         <v>58</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="8" cm="1">
+      <c r="K42" cm="1">
         <f t="array" ref="K42">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>10</v>
       </c>
-      <c r="L42" s="8" cm="1">
+      <c r="L42" cm="1">
         <f t="array" ref="L42">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M42" s="8" cm="1">
+      <c r="M42" cm="1">
         <f t="array" ref="M42">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>38</v>
       </c>
-      <c r="N42" s="8" t="str" cm="1">
+      <c r="N42" t="str" cm="1">
         <f t="array" ref="N42">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O42" s="8" t="str" cm="1">
+      <c r="O42" t="str" cm="1">
         <f t="array" ref="O42">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>38</v>
       </c>
@@ -2776,29 +2777,29 @@
         <v>57</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="8" t="str" cm="1">
+      <c r="K43" t="str" cm="1">
         <f t="array" ref="K43">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L43" s="8" t="str" cm="1">
+      <c r="L43" t="str" cm="1">
         <f t="array" ref="L43">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M43" s="8" cm="1">
+      <c r="M43" cm="1">
         <f t="array" ref="M43">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>37</v>
       </c>
-      <c r="N43" s="8" t="str" cm="1">
+      <c r="N43" t="str" cm="1">
         <f t="array" ref="N43">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O43" s="8" t="str" cm="1">
+      <c r="O43" t="str" cm="1">
         <f t="array" ref="O43">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>39</v>
       </c>
@@ -2821,29 +2822,29 @@
         <v>60</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="8" cm="1">
+      <c r="K44" cm="1">
         <f t="array" ref="K44">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L44" s="8" cm="1">
+      <c r="L44" cm="1">
         <f t="array" ref="L44">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M44" s="8" cm="1">
+      <c r="M44" cm="1">
         <f t="array" ref="M44">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>40</v>
       </c>
-      <c r="N44" s="8" t="str" cm="1">
+      <c r="N44" t="str" cm="1">
         <f t="array" ref="N44">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O44" s="8" t="str" cm="1">
+      <c r="O44" t="str" cm="1">
         <f t="array" ref="O44">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>40</v>
       </c>
@@ -2866,29 +2867,29 @@
         <v>59</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="8" t="str" cm="1">
+      <c r="K45" t="str" cm="1">
         <f t="array" ref="K45">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L45" s="8" t="str" cm="1">
+      <c r="L45" t="str" cm="1">
         <f t="array" ref="L45">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M45" s="8" cm="1">
+      <c r="M45" cm="1">
         <f t="array" ref="M45">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>39</v>
       </c>
-      <c r="N45" s="8" t="str" cm="1">
+      <c r="N45" t="str" cm="1">
         <f t="array" ref="N45">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O45" s="8" t="str" cm="1">
+      <c r="O45" t="str" cm="1">
         <f t="array" ref="O45">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>41</v>
       </c>
@@ -2911,29 +2912,29 @@
         <v>20</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="8" cm="1">
+      <c r="K46" cm="1">
         <f t="array" ref="K46">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L46" s="8" cm="1">
+      <c r="L46" cm="1">
         <f t="array" ref="L46">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M46" s="8" t="str" cm="1">
+      <c r="M46" t="str" cm="1">
         <f t="array" ref="M46">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N46" s="8" t="str" cm="1">
+      <c r="N46" t="str" cm="1">
         <f t="array" ref="N46">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O46" s="8" t="str" cm="1">
+      <c r="O46" t="str" cm="1">
         <f t="array" ref="O46">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>42</v>
       </c>
@@ -2956,29 +2957,29 @@
         <v>20</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="8" cm="1">
+      <c r="K47" cm="1">
         <f t="array" ref="K47">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L47" s="8" cm="1">
+      <c r="L47" cm="1">
         <f t="array" ref="L47">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M47" s="8" t="str" cm="1">
+      <c r="M47" t="str" cm="1">
         <f t="array" ref="M47">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N47" s="8" t="str" cm="1">
+      <c r="N47" t="str" cm="1">
         <f t="array" ref="N47">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O47" s="8" t="str" cm="1">
+      <c r="O47" t="str" cm="1">
         <f t="array" ref="O47">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>43</v>
       </c>
@@ -3001,29 +3002,29 @@
         <v>64</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="8" cm="1">
+      <c r="K48" cm="1">
         <f t="array" ref="K48">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>12</v>
       </c>
-      <c r="L48" s="8" cm="1">
+      <c r="L48" cm="1">
         <f t="array" ref="L48">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M48" s="8" cm="1">
+      <c r="M48" cm="1">
         <f t="array" ref="M48">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>44</v>
       </c>
-      <c r="N48" s="8" t="str" cm="1">
+      <c r="N48" t="str" cm="1">
         <f t="array" ref="N48">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O48" s="8" t="str" cm="1">
+      <c r="O48" t="str" cm="1">
         <f t="array" ref="O48">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>44</v>
       </c>
@@ -3046,29 +3047,29 @@
         <v>63</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="8" t="str" cm="1">
+      <c r="K49" t="str" cm="1">
         <f t="array" ref="K49">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L49" s="8" t="str" cm="1">
+      <c r="L49" t="str" cm="1">
         <f t="array" ref="L49">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M49" s="8" cm="1">
+      <c r="M49" cm="1">
         <f t="array" ref="M49">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>43</v>
       </c>
-      <c r="N49" s="8" t="str" cm="1">
+      <c r="N49" t="str" cm="1">
         <f t="array" ref="N49">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O49" s="8" t="str" cm="1">
+      <c r="O49" t="str" cm="1">
         <f t="array" ref="O49">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>45</v>
       </c>
@@ -3091,29 +3092,29 @@
         <v>66</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="8" cm="1">
+      <c r="K50" cm="1">
         <f t="array" ref="K50">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L50" s="8" cm="1">
+      <c r="L50" cm="1">
         <f t="array" ref="L50">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M50" s="8" cm="1">
+      <c r="M50" cm="1">
         <f t="array" ref="M50">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="N50" s="8" t="str" cm="1">
+      <c r="N50" t="str" cm="1">
         <f t="array" ref="N50">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O50" s="8" t="str" cm="1">
+      <c r="O50" t="str" cm="1">
         <f t="array" ref="O50">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>46</v>
       </c>
@@ -3136,29 +3137,29 @@
         <v>65</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="8" t="str" cm="1">
+      <c r="K51" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L51" s="8" t="str" cm="1">
+      <c r="L51" t="str" cm="1">
         <f t="array" ref="L51">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M51" s="8" cm="1">
+      <c r="M51" cm="1">
         <f t="array" ref="M51">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="N51" s="8" t="str" cm="1">
+      <c r="N51" t="str" cm="1">
         <f t="array" ref="N51">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O51" s="8" t="str" cm="1">
+      <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>47</v>
       </c>
@@ -3181,29 +3182,29 @@
         <v>68</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="8" t="str" cm="1">
+      <c r="K52" t="str" cm="1">
         <f t="array" ref="K52">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L52" s="8" t="str" cm="1">
+      <c r="L52" t="str" cm="1">
         <f t="array" ref="L52">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M52" s="8" cm="1">
+      <c r="M52" cm="1">
         <f t="array" ref="M52">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>48</v>
       </c>
-      <c r="N52" s="8" t="str" cm="1">
+      <c r="N52" t="str" cm="1">
         <f t="array" ref="N52">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O52" s="8" t="str" cm="1">
+      <c r="O52" t="str" cm="1">
         <f t="array" ref="O52">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+      <c r="A53">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>48</v>
       </c>
@@ -3226,29 +3227,29 @@
         <v>67</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="8" cm="1">
+      <c r="K53" cm="1">
         <f t="array" ref="K53">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L53" s="8" cm="1">
+      <c r="L53" cm="1">
         <f t="array" ref="L53">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M53" s="8" cm="1">
+      <c r="M53" cm="1">
         <f t="array" ref="M53">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>47</v>
       </c>
-      <c r="N53" s="8" t="str" cm="1">
+      <c r="N53" t="str" cm="1">
         <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O53" s="8" t="str" cm="1">
+      <c r="O53" t="str" cm="1">
         <f t="array" ref="O53">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+      <c r="A54">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>49</v>
       </c>
@@ -3271,29 +3272,29 @@
         <v>70</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="8" cm="1">
+      <c r="K54" cm="1">
         <f t="array" ref="K54">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L54" s="8" cm="1">
+      <c r="L54" cm="1">
         <f t="array" ref="L54">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M54" s="8" cm="1">
+      <c r="M54" cm="1">
         <f t="array" ref="M54">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="N54" s="8" t="str" cm="1">
+      <c r="N54" t="str" cm="1">
         <f t="array" ref="N54">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O54" s="8" t="str" cm="1">
+      <c r="O54" t="str" cm="1">
         <f t="array" ref="O54">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+      <c r="A55">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>50</v>
       </c>
@@ -3316,29 +3317,29 @@
         <v>69</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="8" t="str" cm="1">
+      <c r="K55" t="str" cm="1">
         <f t="array" ref="K55">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L55" s="8" t="str" cm="1">
+      <c r="L55" t="str" cm="1">
         <f t="array" ref="L55">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M55" s="8" cm="1">
+      <c r="M55" cm="1">
         <f t="array" ref="M55">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="N55" s="8" t="str" cm="1">
+      <c r="N55" t="str" cm="1">
         <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O55" s="8" t="str" cm="1">
+      <c r="O55" t="str" cm="1">
         <f t="array" ref="O55">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>51</v>
       </c>
@@ -3361,29 +3362,29 @@
         <v>20</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56" s="8" cm="1">
+      <c r="K56" cm="1">
         <f t="array" ref="K56">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>14</v>
       </c>
-      <c r="L56" s="8" cm="1">
+      <c r="L56" cm="1">
         <f t="array" ref="L56">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M56" s="8" t="str" cm="1">
+      <c r="M56" t="str" cm="1">
         <f t="array" ref="M56">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N56" s="8" t="str" cm="1">
+      <c r="N56" t="str" cm="1">
         <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O56" s="8" t="str" cm="1">
+      <c r="O56" t="str" cm="1">
         <f t="array" ref="O56">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+      <c r="A57">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>52</v>
       </c>
@@ -3406,29 +3407,29 @@
         <v>73</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="8" t="str" cm="1">
+      <c r="K57" t="str" cm="1">
         <f t="array" ref="K57">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L57" s="8" t="str" cm="1">
+      <c r="L57" t="str" cm="1">
         <f t="array" ref="L57">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M57" s="8" cm="1">
+      <c r="M57" cm="1">
         <f t="array" ref="M57">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="N57" s="8" t="str" cm="1">
+      <c r="N57" t="str" cm="1">
         <f t="array" ref="N57">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O57" s="8" t="str" cm="1">
+      <c r="O57" t="str" cm="1">
         <f t="array" ref="O57">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>53</v>
       </c>
@@ -3451,29 +3452,29 @@
         <v>72</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" s="8" cm="1">
+      <c r="K58" cm="1">
         <f t="array" ref="K58">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="L58" s="8" cm="1">
+      <c r="L58" cm="1">
         <f t="array" ref="L58">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="M58" s="8" cm="1">
+      <c r="M58" cm="1">
         <f t="array" ref="M58">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="N58" s="8" t="str" cm="1">
+      <c r="N58" t="str" cm="1">
         <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O58" s="8" t="str" cm="1">
+      <c r="O58" t="str" cm="1">
         <f t="array" ref="O58">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>54</v>
       </c>
@@ -3496,29 +3497,29 @@
         <v>75</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="8" cm="1">
+      <c r="K59" cm="1">
         <f t="array" ref="K59">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>16</v>
       </c>
-      <c r="L59" s="8" cm="1">
+      <c r="L59" cm="1">
         <f t="array" ref="L59">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>17</v>
       </c>
-      <c r="M59" s="8" cm="1">
+      <c r="M59" cm="1">
         <f t="array" ref="M59">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>55</v>
       </c>
-      <c r="N59" s="8" t="str" cm="1">
+      <c r="N59" t="str" cm="1">
         <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O59" s="8" t="str" cm="1">
+      <c r="O59" t="str" cm="1">
         <f t="array" ref="O59">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>55</v>
       </c>
@@ -3541,29 +3542,29 @@
         <v>74</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="8" t="str" cm="1">
+      <c r="K60" t="str" cm="1">
         <f t="array" ref="K60">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L60" s="8" t="str" cm="1">
+      <c r="L60" t="str" cm="1">
         <f t="array" ref="L60">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M60" s="8" cm="1">
+      <c r="M60" cm="1">
         <f t="array" ref="M60">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>54</v>
       </c>
-      <c r="N60" s="8" t="str" cm="1">
+      <c r="N60" t="str" cm="1">
         <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O60" s="8" t="str" cm="1">
+      <c r="O60" t="str" cm="1">
         <f t="array" ref="O60">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>56</v>
       </c>
@@ -3586,29 +3587,29 @@
         <v>104</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="8" cm="1">
+      <c r="K61" cm="1">
         <f t="array" ref="K61">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="L61" s="8" cm="1">
+      <c r="L61" cm="1">
         <f t="array" ref="L61">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="M61" s="8" cm="1">
+      <c r="M61" cm="1">
         <f t="array" ref="M61">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>57</v>
       </c>
-      <c r="N61" s="8" t="str" cm="1">
+      <c r="N61" t="str" cm="1">
         <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O61" s="8" t="str" cm="1">
+      <c r="O61" t="str" cm="1">
         <f t="array" ref="O61">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>57</v>
       </c>
@@ -3627,29 +3628,29 @@
         <v>76</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="8" t="str" cm="1">
+      <c r="K62" t="str" cm="1">
         <f t="array" ref="K62">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L62" s="8" t="str" cm="1">
+      <c r="L62" t="str" cm="1">
         <f t="array" ref="L62">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M62" s="8" cm="1">
+      <c r="M62" cm="1">
         <f t="array" ref="M62">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>56</v>
       </c>
-      <c r="N62" s="8" t="str" cm="1">
+      <c r="N62" t="str" cm="1">
         <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O62" s="8" t="str" cm="1">
+      <c r="O62" t="str" cm="1">
         <f t="array" ref="O62">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>58</v>
       </c>
@@ -3672,29 +3673,29 @@
         <v>20</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="8" cm="1">
+      <c r="K63" cm="1">
         <f t="array" ref="K63">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>18</v>
       </c>
-      <c r="L63" s="8" cm="1">
+      <c r="L63" cm="1">
         <f t="array" ref="L63">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>19</v>
       </c>
-      <c r="M63" s="8" t="str" cm="1">
+      <c r="M63" t="str" cm="1">
         <f t="array" ref="M63">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N63" s="8" t="str" cm="1">
+      <c r="N63" t="str" cm="1">
         <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O63" s="8" t="str" cm="1">
+      <c r="O63" t="str" cm="1">
         <f t="array" ref="O63">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>59</v>
       </c>
@@ -3717,29 +3718,29 @@
         <v>20</v>
       </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="8" cm="1">
+      <c r="K64" cm="1">
         <f t="array" ref="K64">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="L64" s="8" cm="1">
+      <c r="L64" cm="1">
         <f t="array" ref="L64">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="M64" s="8" t="str" cm="1">
+      <c r="M64" t="str" cm="1">
         <f t="array" ref="M64">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N64" s="8" t="str" cm="1">
+      <c r="N64" t="str" cm="1">
         <f t="array" ref="N64">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O64" s="8" t="str" cm="1">
+      <c r="O64" t="str" cm="1">
         <f t="array" ref="O64">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>60</v>
       </c>
@@ -3762,29 +3763,29 @@
         <v>20</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="8" cm="1">
+      <c r="K65" cm="1">
         <f t="array" ref="K65">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>22</v>
       </c>
-      <c r="L65" s="8" cm="1">
+      <c r="L65" cm="1">
         <f t="array" ref="L65">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>23</v>
       </c>
-      <c r="M65" s="8" t="str" cm="1">
+      <c r="M65" t="str" cm="1">
         <f t="array" ref="M65">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N65" s="8" t="str" cm="1">
+      <c r="N65" t="str" cm="1">
         <f t="array" ref="N65">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O65" s="8" t="str" cm="1">
+      <c r="O65" t="str" cm="1">
         <f t="array" ref="O65">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>61</v>
       </c>
@@ -3807,29 +3808,29 @@
         <v>20</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="8" cm="1">
+      <c r="K66" cm="1">
         <f t="array" ref="K66">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>24</v>
       </c>
-      <c r="L66" s="8" cm="1">
+      <c r="L66" cm="1">
         <f t="array" ref="L66">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>25</v>
       </c>
-      <c r="M66" s="8" t="str" cm="1">
+      <c r="M66" t="str" cm="1">
         <f t="array" ref="M66">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N66" s="8" t="str" cm="1">
+      <c r="N66" t="str" cm="1">
         <f t="array" ref="N66">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O66" s="8" t="str" cm="1">
+      <c r="O66" t="str" cm="1">
         <f t="array" ref="O66">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="A67">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>62</v>
       </c>
@@ -3852,29 +3853,29 @@
         <v>20</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="8" cm="1">
+      <c r="K67" cm="1">
         <f t="array" ref="K67">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="L67" s="8" cm="1">
+      <c r="L67" cm="1">
         <f t="array" ref="L67">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="M67" s="8" t="str" cm="1">
+      <c r="M67" t="str" cm="1">
         <f t="array" ref="M67">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N67" s="8" t="str" cm="1">
+      <c r="N67" t="str" cm="1">
         <f t="array" ref="N67">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O67" s="8" t="str" cm="1">
+      <c r="O67" t="str" cm="1">
         <f t="array" ref="O67">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>63</v>
       </c>
@@ -3897,29 +3898,29 @@
         <v>20</v>
       </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="8" cm="1">
+      <c r="K68" cm="1">
         <f t="array" ref="K68">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>26</v>
       </c>
-      <c r="L68" s="8" cm="1">
+      <c r="L68" cm="1">
         <f t="array" ref="L68">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>27</v>
       </c>
-      <c r="M68" s="8" t="str" cm="1">
+      <c r="M68" t="str" cm="1">
         <f t="array" ref="M68">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N68" s="8" t="str" cm="1">
+      <c r="N68" t="str" cm="1">
         <f t="array" ref="N68">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O68" s="8" t="str" cm="1">
+      <c r="O68" t="str" cm="1">
         <f t="array" ref="O68">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="A69">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>64</v>
       </c>
@@ -3942,29 +3943,29 @@
         <v>20</v>
       </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="8" cm="1">
+      <c r="K69" cm="1">
         <f t="array" ref="K69">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>28</v>
       </c>
-      <c r="L69" s="8" cm="1">
+      <c r="L69" cm="1">
         <f t="array" ref="L69">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>29</v>
       </c>
-      <c r="M69" s="8" t="str" cm="1">
+      <c r="M69" t="str" cm="1">
         <f t="array" ref="M69">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N69" s="8" t="str" cm="1">
+      <c r="N69" t="str" cm="1">
         <f t="array" ref="N69">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O69" s="8" t="str" cm="1">
+      <c r="O69" t="str" cm="1">
         <f t="array" ref="O69">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+      <c r="A70">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>65</v>
       </c>
@@ -3987,29 +3988,29 @@
         <v>20</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="8" cm="1">
+      <c r="K70" cm="1">
         <f t="array" ref="K70">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="L70" s="8" cm="1">
+      <c r="L70" cm="1">
         <f t="array" ref="L70">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="M70" s="8" t="str" cm="1">
+      <c r="M70" t="str" cm="1">
         <f t="array" ref="M70">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N70" s="8" t="str" cm="1">
+      <c r="N70" t="str" cm="1">
         <f t="array" ref="N70">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O70" s="8" t="str" cm="1">
+      <c r="O70" t="str" cm="1">
         <f t="array" ref="O70">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+      <c r="A71">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>66</v>
       </c>
@@ -4032,29 +4033,29 @@
         <v>20</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="8" cm="1">
+      <c r="K71" cm="1">
         <f t="array" ref="K71">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>30</v>
       </c>
-      <c r="L71" s="8" cm="1">
+      <c r="L71" cm="1">
         <f t="array" ref="L71">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>31</v>
       </c>
-      <c r="M71" s="8" t="str" cm="1">
+      <c r="M71" t="str" cm="1">
         <f t="array" ref="M71">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N71" s="8" t="str" cm="1">
+      <c r="N71" t="str" cm="1">
         <f t="array" ref="N71">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O71" s="8" t="str" cm="1">
+      <c r="O71" t="str" cm="1">
         <f t="array" ref="O71">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+      <c r="A72">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>67</v>
       </c>
@@ -4077,29 +4078,29 @@
         <v>20</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="8" cm="1">
+      <c r="K72" cm="1">
         <f t="array" ref="K72">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>32</v>
       </c>
-      <c r="L72" s="8" cm="1">
+      <c r="L72" cm="1">
         <f t="array" ref="L72">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>33</v>
       </c>
-      <c r="M72" s="8" t="str" cm="1">
+      <c r="M72" t="str" cm="1">
         <f t="array" ref="M72">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N72" s="8" t="str" cm="1">
+      <c r="N72" t="str" cm="1">
         <f t="array" ref="N72">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O72" s="8" t="str" cm="1">
+      <c r="O72" t="str" cm="1">
         <f t="array" ref="O72">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="A73">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>68</v>
       </c>
@@ -4122,29 +4123,29 @@
         <v>20</v>
       </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="8" cm="1">
+      <c r="K73" cm="1">
         <f t="array" ref="K73">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L73" s="8" t="str" cm="1">
+      <c r="L73" t="str" cm="1">
         <f t="array" ref="L73">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M73" s="8" t="str" cm="1">
+      <c r="M73" t="str" cm="1">
         <f t="array" ref="M73">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N73" s="8" t="str" cm="1">
+      <c r="N73" t="str" cm="1">
         <f t="array" ref="N73">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O73" s="8" t="str" cm="1">
+      <c r="O73" t="str" cm="1">
         <f t="array" ref="O73">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>69</v>
       </c>
@@ -4167,29 +4168,29 @@
         <v>20</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="8" cm="1">
+      <c r="K74" cm="1">
         <f t="array" ref="K74">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L74" s="8" t="str" cm="1">
+      <c r="L74" t="str" cm="1">
         <f t="array" ref="L74">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M74" s="8" t="str" cm="1">
+      <c r="M74" t="str" cm="1">
         <f t="array" ref="M74">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N74" s="8" t="str" cm="1">
+      <c r="N74" t="str" cm="1">
         <f t="array" ref="N74">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O74" s="8" t="str" cm="1">
+      <c r="O74" t="str" cm="1">
         <f t="array" ref="O74">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="A75">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>70</v>
       </c>
@@ -4212,29 +4213,29 @@
         <v>20</v>
       </c>
       <c r="J75" s="3"/>
-      <c r="K75" s="8" cm="1">
+      <c r="K75" cm="1">
         <f t="array" ref="K75">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>35</v>
       </c>
-      <c r="L75" s="8" t="str" cm="1">
+      <c r="L75" t="str" cm="1">
         <f t="array" ref="L75">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M75" s="8" t="str" cm="1">
+      <c r="M75" t="str" cm="1">
         <f t="array" ref="M75">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N75" s="8" t="str" cm="1">
+      <c r="N75" t="str" cm="1">
         <f t="array" ref="N75">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O75" s="8" t="str" cm="1">
+      <c r="O75" t="str" cm="1">
         <f t="array" ref="O75">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="A76">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>71</v>
       </c>
@@ -4257,29 +4258,29 @@
         <v>20</v>
       </c>
       <c r="J76" s="3"/>
-      <c r="K76" s="8" cm="1">
+      <c r="K76" cm="1">
         <f t="array" ref="K76">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>39</v>
       </c>
-      <c r="L76" s="8" cm="1">
+      <c r="L76" cm="1">
         <f t="array" ref="L76">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>40</v>
       </c>
-      <c r="M76" s="8" t="str" cm="1">
+      <c r="M76" t="str" cm="1">
         <f t="array" ref="M76">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N76" s="8" t="str" cm="1">
+      <c r="N76" t="str" cm="1">
         <f t="array" ref="N76">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O76" s="8" t="str" cm="1">
+      <c r="O76" t="str" cm="1">
         <f t="array" ref="O76">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="A77">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>72</v>
       </c>
@@ -4302,29 +4303,29 @@
         <v>20</v>
       </c>
       <c r="J77" s="3"/>
-      <c r="K77" s="8" cm="1">
+      <c r="K77" cm="1">
         <f t="array" ref="K77">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="L77" s="8" cm="1">
+      <c r="L77" cm="1">
         <f t="array" ref="L77">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="M77" s="8" t="str" cm="1">
+      <c r="M77" t="str" cm="1">
         <f t="array" ref="M77">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N77" s="8" t="str" cm="1">
+      <c r="N77" t="str" cm="1">
         <f t="array" ref="N77">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O77" s="8" t="str" cm="1">
+      <c r="O77" t="str" cm="1">
         <f t="array" ref="O77">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="A78">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>73</v>
       </c>
@@ -4347,29 +4348,29 @@
         <v>20</v>
       </c>
       <c r="J78" s="3"/>
-      <c r="K78" s="8" cm="1">
+      <c r="K78" cm="1">
         <f t="array" ref="K78">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>45</v>
       </c>
-      <c r="L78" s="8" cm="1">
+      <c r="L78" cm="1">
         <f t="array" ref="L78">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>46</v>
       </c>
-      <c r="M78" s="8" t="str" cm="1">
+      <c r="M78" t="str" cm="1">
         <f t="array" ref="M78">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N78" s="8" t="str" cm="1">
+      <c r="N78" t="str" cm="1">
         <f t="array" ref="N78">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O78" s="8" t="str" cm="1">
+      <c r="O78" t="str" cm="1">
         <f t="array" ref="O78">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+      <c r="A79">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>74</v>
       </c>
@@ -4392,29 +4393,29 @@
         <v>20</v>
       </c>
       <c r="J79" s="3"/>
-      <c r="K79" s="8" cm="1">
+      <c r="K79" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>47</v>
       </c>
-      <c r="L79" s="8" cm="1">
+      <c r="L79" cm="1">
         <f t="array" ref="L79">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>48</v>
       </c>
-      <c r="M79" s="8" t="str" cm="1">
+      <c r="M79" t="str" cm="1">
         <f t="array" ref="M79">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N79" s="8" t="str" cm="1">
+      <c r="N79" t="str" cm="1">
         <f t="array" ref="N79">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O79" s="8" t="str" cm="1">
+      <c r="O79" t="str" cm="1">
         <f t="array" ref="O79">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+      <c r="A80">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>75</v>
       </c>
@@ -4437,29 +4438,29 @@
         <v>20</v>
       </c>
       <c r="J80" s="3"/>
-      <c r="K80" s="8" cm="1">
+      <c r="K80" cm="1">
         <f t="array" ref="K80">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L80" s="8" cm="1">
+      <c r="L80" cm="1">
         <f t="array" ref="L80">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M80" s="8" t="str" cm="1">
+      <c r="M80" t="str" cm="1">
         <f t="array" ref="M80">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N80" s="8" t="str" cm="1">
+      <c r="N80" t="str" cm="1">
         <f t="array" ref="N80">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O80" s="8" t="str" cm="1">
+      <c r="O80" t="str" cm="1">
         <f t="array" ref="O80">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+      <c r="A81">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>76</v>
       </c>
@@ -4482,29 +4483,29 @@
         <v>20</v>
       </c>
       <c r="J81" s="3"/>
-      <c r="K81" s="8" cm="1">
+      <c r="K81" cm="1">
         <f t="array" ref="K81">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L81" s="8" cm="1">
+      <c r="L81" cm="1">
         <f t="array" ref="L81">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M81" s="8" t="str" cm="1">
+      <c r="M81" t="str" cm="1">
         <f t="array" ref="M81">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N81" s="8" t="str" cm="1">
+      <c r="N81" t="str" cm="1">
         <f t="array" ref="N81">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O81" s="8" t="str" cm="1">
+      <c r="O81" t="str" cm="1">
         <f t="array" ref="O81">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="A82">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>77</v>
       </c>
@@ -4527,29 +4528,29 @@
         <v>20</v>
       </c>
       <c r="J82" s="3"/>
-      <c r="K82" s="8" cm="1">
+      <c r="K82" cm="1">
         <f t="array" ref="K82">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L82" s="8" cm="1">
+      <c r="L82" cm="1">
         <f t="array" ref="L82">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M82" s="8" t="str" cm="1">
+      <c r="M82" t="str" cm="1">
         <f t="array" ref="M82">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N82" s="8" t="str" cm="1">
+      <c r="N82" t="str" cm="1">
         <f t="array" ref="N82">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O82" s="8" t="str" cm="1">
+      <c r="O82" t="str" cm="1">
         <f t="array" ref="O82">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+      <c r="A83">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>78</v>
       </c>
@@ -4572,29 +4573,29 @@
         <v>20</v>
       </c>
       <c r="J83" s="3"/>
-      <c r="K83" s="8" cm="1">
+      <c r="K83" cm="1">
         <f t="array" ref="K83">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>49</v>
       </c>
-      <c r="L83" s="8" cm="1">
+      <c r="L83" cm="1">
         <f t="array" ref="L83">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="M83" s="8" t="str" cm="1">
+      <c r="M83" t="str" cm="1">
         <f t="array" ref="M83">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N83" s="8" t="str" cm="1">
+      <c r="N83" t="str" cm="1">
         <f t="array" ref="N83">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O83" s="8" t="str" cm="1">
+      <c r="O83" t="str" cm="1">
         <f t="array" ref="O83">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
+      <c r="A84">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>79</v>
       </c>
@@ -4617,29 +4618,29 @@
         <v>20</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="8" t="str" cm="1">
+      <c r="K84" t="str" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L84" s="8" cm="1">
+      <c r="L84" cm="1">
         <f t="array" ref="L84">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>51</v>
       </c>
-      <c r="M84" s="8" t="str" cm="1">
+      <c r="M84" t="str" cm="1">
         <f t="array" ref="M84">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N84" s="8" t="str" cm="1">
+      <c r="N84" t="str" cm="1">
         <f t="array" ref="N84">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O84" s="8" t="str" cm="1">
+      <c r="O84" t="str" cm="1">
         <f t="array" ref="O84">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+      <c r="A85">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>80</v>
       </c>
@@ -4664,29 +4665,29 @@
         <v>20</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" s="8" cm="1">
+      <c r="K85" cm="1">
         <f t="array" ref="K85">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L85" s="8" cm="1">
+      <c r="L85" cm="1">
         <f t="array" ref="L85">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M85" s="8" t="str" cm="1">
+      <c r="M85" t="str" cm="1">
         <f t="array" ref="M85">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N85" s="8" t="str" cm="1">
+      <c r="N85" t="str" cm="1">
         <f t="array" ref="N85">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O85" s="8" t="str" cm="1">
+      <c r="O85" t="str" cm="1">
         <f t="array" aca="1" ref="O85" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>11 years, 7 months, 5 days</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
+      <c r="A86">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>81</v>
       </c>
@@ -4711,29 +4712,29 @@
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="8" cm="1">
+      <c r="K86" cm="1">
         <f t="array" ref="K86">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L86" s="8" cm="1">
+      <c r="L86" cm="1">
         <f t="array" ref="L86">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M86" s="8" t="str" cm="1">
+      <c r="M86" t="str" cm="1">
         <f t="array" ref="M86">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N86" s="8" t="str" cm="1">
+      <c r="N86" t="str" cm="1">
         <f t="array" ref="N86">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v>2 years, 3 months, 7 days</v>
       </c>
-      <c r="O86" s="8" t="str" cm="1">
+      <c r="O86" t="str" cm="1">
         <f t="array" ref="O86">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+      <c r="A87">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>82</v>
       </c>
@@ -4756,37 +4757,69 @@
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="8" cm="1">
+      <c r="K87" cm="1">
         <f t="array" ref="K87">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>52</v>
       </c>
-      <c r="L87" s="8" cm="1">
+      <c r="L87" cm="1">
         <f t="array" ref="L87">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>53</v>
       </c>
-      <c r="M87" s="8" t="str" cm="1">
+      <c r="M87" t="str" cm="1">
         <f t="array" ref="M87">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N87" s="8" t="str" cm="1">
+      <c r="N87" t="str" cm="1">
         <f t="array" ref="N87">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O87" s="8" t="str" cm="1">
+      <c r="O87" t="str" cm="1">
         <f t="array" aca="1" ref="O87" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v>2 years, 4 months, 13 days</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
+      <c r="A88" s="9">
+        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
+        <v>83</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="G88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88" s="4"/>
       <c r="J88" s="3"/>
+      <c r="K88" s="9" cm="1">
+        <f t="array" ref="K88">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>54</v>
+      </c>
+      <c r="L88" s="9" cm="1">
+        <f t="array" ref="L88">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>55</v>
+      </c>
+      <c r="M88" s="9" t="str" cm="1">
+        <f t="array" ref="M88">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v/>
+      </c>
+      <c r="N88" s="10" t="str" cm="1">
+        <f t="array" ref="N88">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <v/>
+      </c>
+      <c r="O88" s="10" t="str" cm="1">
+        <f t="array" ref="O88">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B89" s="3"/>
@@ -5462,18 +5495,15 @@
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D85" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D88" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:J85" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J85 G6:I88" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
       <formula1>INDIRECT("Family[name]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G6:I16 I18:I22 I24:I51 I58 I53:I56 I63:I85 G63:H85 G53:H56 G58:H58 G24:H51 G18:H22 G17:H17 G23:H23 G52:H52 G57:H57 G59:H61 I59:I60" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5485,7 +5515,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A5:L87"/>
+  <dimension ref="A5:L88"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
@@ -5546,51 +5576,51 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A87">Family[PersonID]</f>
+        <f t="array" ref="A6:A88">Family[PersonID]</f>
         <v>1</v>
       </c>
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:B87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
+        <f t="array" ref="B6:B88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
         <v>Jose G. Alto</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
+        <f t="array" ref="C6:C88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6:D87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
+        <f t="array" ref="D6:D88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
         <v>male</v>
       </c>
       <c r="E6" s="2" cm="1">
-        <f t="array" ref="E6:E87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
+        <f t="array" ref="E6:E88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
         <v>1174</v>
       </c>
       <c r="F6" s="2" cm="1">
-        <f t="array" ref="F6:F87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
+        <f t="array" ref="F6:F88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
         <v>32314</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6:G87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
+        <f t="array" ref="G6:G88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
         <v/>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6:H87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
+        <f t="array" ref="H6:H88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
         <v/>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6:I87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
+        <f t="array" ref="I6:I88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:J87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" ref="J6:J88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
-        <f t="array" aca="1" ref="K6:K87" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
+        <f t="array" aca="1" ref="K6:K88" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
         <v/>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6:L87">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
+        <f t="array" ref="L6:L88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8750,6 +8780,45 @@
         <v>2 years, 4 months, 13 days</v>
       </c>
       <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Zoe Alto</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="str">
+        <v>female</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>54</v>
+      </c>
+      <c r="H88">
+        <v>55</v>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L88">
         <v>0</v>
       </c>
     </row>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{28C1A374-CA4E-49F8-9C0F-2E90EAC04F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260EF488-964F-40D1-AE5D-185C4B6C0A05}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{E8745F7B-4877-4AF3-A4C7-9C884177D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87161A4-B058-4F41-8E1A-63C53ED06DD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="107">
   <si>
     <t>ALTO FAMILY DATA ENTRY</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Zoe Alto</t>
+  </si>
+  <si>
+    <t>Suzanne Alto</t>
   </si>
 </sst>
 </file>
@@ -603,9 +606,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A5:O88" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O89" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A5:O89" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="18">
       <calculatedColumnFormula>ROW()-ROW(Family[[#Headers],[PersonID]])</calculatedColumnFormula>
@@ -969,13 +976,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A2:O149"/>
+  <dimension ref="A2:O150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1014,7 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
+        <v>46056</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1249,7 +1256,7 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>92 years, 1 months, 25 days</v>
+        <v>92 years, 1 months, 27 days</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1341,7 +1348,7 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>90 years, 0 months, 19 days</v>
+        <v>90 years, 0 months, 21 days</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1433,7 +1440,7 @@
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>85 years, 7 months, 12 days</v>
+        <v>85 years, 7 months, 14 days</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1525,7 +1532,7 @@
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>83 years, 7 months, 0 days</v>
+        <v>83 years, 7 months, 2 days</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1662,7 +1669,7 @@
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>78 years, 1 months, 26 days</v>
+        <v>78 years, 1 months, 28 days</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1803,7 +1810,7 @@
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>71 years, 10 months, 17 days</v>
+        <v>71 years, 10 months, 19 days</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1940,7 +1947,7 @@
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>69 years, 4 months, 18 days</v>
+        <v>69 years, 4 months, 20 days</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2594,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" cm="1">
@@ -2605,9 +2612,9 @@
         <f t="array" ref="L39">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M39" t="str" cm="1">
+      <c r="M39" cm="1">
         <f t="array" ref="M39">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="N39" t="str" cm="1">
         <f t="array" ref="N39">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2619,46 +2626,42 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="9">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>20</v>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" cm="1">
+      <c r="K40" s="9" t="str" cm="1">
         <f t="array" ref="K40">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>10</v>
-      </c>
-      <c r="L40" cm="1">
+        <v/>
+      </c>
+      <c r="L40" s="9" t="str" cm="1">
         <f t="array" ref="L40">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>11</v>
-      </c>
-      <c r="M40" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="M40" s="9" cm="1">
         <f t="array" ref="M40">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="N40" t="str" cm="1">
+        <v>34</v>
+      </c>
+      <c r="N40" s="10" t="str" cm="1">
         <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O40" t="str" cm="1">
+      <c r="O40" s="10" t="str" cm="1">
         <f t="array" ref="O40">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
@@ -2669,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -2714,11 +2717,11 @@
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2729,7 +2732,7 @@
         <v>31</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" cm="1">
@@ -2740,9 +2743,9 @@
         <f t="array" ref="L42">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>11</v>
       </c>
-      <c r="M42" cm="1">
+      <c r="M42" t="str" cm="1">
         <f t="array" ref="M42">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>38</v>
+        <v/>
       </c>
       <c r="N42" t="str" cm="1">
         <f t="array" ref="N42">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2759,35 +2762,35 @@
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" t="str" cm="1">
+      <c r="K43" cm="1">
         <f t="array" ref="K43">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L43" t="str" cm="1">
+        <v>10</v>
+      </c>
+      <c r="L43" cm="1">
         <f t="array" ref="L43">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="M43" cm="1">
         <f t="array" ref="M43">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N43" t="str" cm="1">
         <f t="array" ref="N43">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2804,7 +2807,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -2813,26 +2816,26 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" cm="1">
+      <c r="K44" t="str" cm="1">
         <f t="array" ref="K44">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>12</v>
-      </c>
-      <c r="L44" cm="1">
+        <v/>
+      </c>
+      <c r="L44" t="str" cm="1">
         <f t="array" ref="L44">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="M44" cm="1">
         <f t="array" ref="M44">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N44" t="str" cm="1">
         <f t="array" ref="N44">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2849,35 +2852,35 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" t="str" cm="1">
+      <c r="K45" cm="1">
         <f t="array" ref="K45">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L45" t="str" cm="1">
+        <v>12</v>
+      </c>
+      <c r="L45" cm="1">
         <f t="array" ref="L45">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M45" cm="1">
         <f t="array" ref="M45">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N45" t="str" cm="1">
         <f t="array" ref="N45">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2894,35 +2897,35 @@
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" cm="1">
+      <c r="K46" t="str" cm="1">
         <f t="array" ref="K46">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>12</v>
-      </c>
-      <c r="L46" cm="1">
+        <v/>
+      </c>
+      <c r="L46" t="str" cm="1">
         <f t="array" ref="L46">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>13</v>
-      </c>
-      <c r="M46" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="M46" cm="1">
         <f t="array" ref="M46">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="N46" t="str" cm="1">
         <f t="array" ref="N46">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -2939,7 +2942,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
@@ -2984,7 +2987,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -2999,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" cm="1">
@@ -3010,9 +3013,9 @@
         <f t="array" ref="L48">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>13</v>
       </c>
-      <c r="M48" cm="1">
+      <c r="M48" t="str" cm="1">
         <f t="array" ref="M48">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>44</v>
+        <v/>
       </c>
       <c r="N48" t="str" cm="1">
         <f t="array" ref="N48">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3029,35 +3032,35 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" t="str" cm="1">
+      <c r="K49" cm="1">
         <f t="array" ref="K49">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L49" t="str" cm="1">
+        <v>12</v>
+      </c>
+      <c r="L49" cm="1">
         <f t="array" ref="L49">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="M49" cm="1">
         <f t="array" ref="M49">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N49" t="str" cm="1">
         <f t="array" ref="N49">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3074,35 +3077,35 @@
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" cm="1">
+      <c r="K50" t="str" cm="1">
         <f t="array" ref="K50">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>14</v>
-      </c>
-      <c r="L50" cm="1">
+        <v/>
+      </c>
+      <c r="L50" t="str" cm="1">
         <f t="array" ref="L50">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="M50" cm="1">
         <f t="array" ref="M50">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N50" t="str" cm="1">
         <f t="array" ref="N50">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3119,35 +3122,35 @@
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" t="str" cm="1">
+      <c r="K51" cm="1">
         <f t="array" ref="K51">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L51" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="L51" cm="1">
         <f t="array" ref="L51">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="M51" cm="1">
         <f t="array" ref="M51">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N51" t="str" cm="1">
         <f t="array" ref="N51">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3164,11 +3167,11 @@
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -3179,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" t="str" cm="1">
@@ -3192,7 +3195,7 @@
       </c>
       <c r="M52" cm="1">
         <f t="array" ref="M52">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N52" t="str" cm="1">
         <f t="array" ref="N52">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3209,35 +3212,35 @@
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" cm="1">
+      <c r="K53" t="str" cm="1">
         <f t="array" ref="K53">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>14</v>
-      </c>
-      <c r="L53" cm="1">
+        <v/>
+      </c>
+      <c r="L53" t="str" cm="1">
         <f t="array" ref="L53">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="M53" cm="1">
         <f t="array" ref="M53">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N53" t="str" cm="1">
         <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3254,11 +3257,11 @@
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3269,7 +3272,7 @@
         <v>35</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" cm="1">
@@ -3282,7 +3285,7 @@
       </c>
       <c r="M54" cm="1">
         <f t="array" ref="M54">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N54" t="str" cm="1">
         <f t="array" ref="N54">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3299,35 +3302,35 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" t="str" cm="1">
+      <c r="K55" cm="1">
         <f t="array" ref="K55">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L55" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="L55" cm="1">
         <f t="array" ref="L55">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="M55" cm="1">
         <f t="array" ref="M55">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N55" t="str" cm="1">
         <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3344,7 +3347,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -3353,26 +3356,26 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56" cm="1">
+      <c r="K56" t="str" cm="1">
         <f t="array" ref="K56">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>14</v>
-      </c>
-      <c r="L56" cm="1">
+        <v/>
+      </c>
+      <c r="L56" t="str" cm="1">
         <f t="array" ref="L56">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>15</v>
-      </c>
-      <c r="M56" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="M56" cm="1">
         <f t="array" ref="M56">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="N56" t="str" cm="1">
         <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3389,35 +3392,35 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="J57" s="3"/>
-      <c r="K57" t="str" cm="1">
+      <c r="K57" cm="1">
         <f t="array" ref="K57">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L57" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="L57" cm="1">
         <f t="array" ref="L57">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="M57" cm="1">
+        <v>15</v>
+      </c>
+      <c r="M57" t="str" cm="1">
         <f t="array" ref="M57">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v/>
       </c>
       <c r="N57" t="str" cm="1">
         <f t="array" ref="N57">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3434,35 +3437,35 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" cm="1">
+      <c r="K58" t="str" cm="1">
         <f t="array" ref="K58">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>16</v>
-      </c>
-      <c r="L58" cm="1">
+        <v/>
+      </c>
+      <c r="L58" t="str" cm="1">
         <f t="array" ref="L58">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="M58" cm="1">
         <f t="array" ref="M58">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N58" t="str" cm="1">
         <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3479,11 +3482,11 @@
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3494,7 +3497,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" cm="1">
@@ -3507,7 +3510,7 @@
       </c>
       <c r="M59" cm="1">
         <f t="array" ref="M59">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N59" t="str" cm="1">
         <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3524,35 +3527,35 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" t="str" cm="1">
+      <c r="K60" cm="1">
         <f t="array" ref="K60">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L60" t="str" cm="1">
+        <v>16</v>
+      </c>
+      <c r="L60" cm="1">
         <f t="array" ref="L60">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="M60" cm="1">
         <f t="array" ref="M60">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N60" t="str" cm="1">
         <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3569,35 +3572,35 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" cm="1">
+      <c r="K61" t="str" cm="1">
         <f t="array" ref="K61">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>18</v>
-      </c>
-      <c r="L61" cm="1">
+        <v/>
+      </c>
+      <c r="L61" t="str" cm="1">
         <f t="array" ref="L61">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="M61" cm="1">
         <f t="array" ref="M61">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N61" t="str" cm="1">
         <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3614,31 +3617,35 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4" t="s">
-        <v>76</v>
+      <c r="G62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" t="str" cm="1">
+      <c r="K62" cm="1">
         <f t="array" ref="K62">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L62" t="str" cm="1">
+        <v>18</v>
+      </c>
+      <c r="L62" cm="1">
         <f t="array" ref="L62">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="M62" cm="1">
         <f t="array" ref="M62">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N62" t="str" cm="1">
         <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3655,7 +3662,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
@@ -3663,27 +3670,23 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>20</v>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" cm="1">
+      <c r="K63" t="str" cm="1">
         <f t="array" ref="K63">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>18</v>
-      </c>
-      <c r="L63" cm="1">
+        <v/>
+      </c>
+      <c r="L63" t="str" cm="1">
         <f t="array" ref="L63">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>19</v>
-      </c>
-      <c r="M63" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="M63" cm="1">
         <f t="array" ref="M63">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>57</v>
       </c>
       <c r="N63" t="str" cm="1">
         <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3700,7 +3703,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
@@ -3709,10 +3712,10 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>20</v>
@@ -3720,11 +3723,11 @@
       <c r="J64" s="3"/>
       <c r="K64" cm="1">
         <f t="array" ref="K64">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L64" cm="1">
         <f t="array" ref="L64">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M64" t="str" cm="1">
         <f t="array" ref="M64">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3745,11 +3748,11 @@
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3790,19 +3793,19 @@
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>20</v>
@@ -3810,11 +3813,11 @@
       <c r="J66" s="3"/>
       <c r="K66" cm="1">
         <f t="array" ref="K66">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L66" cm="1">
         <f t="array" ref="L66">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M66" t="str" cm="1">
         <f t="array" ref="M66">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3835,7 +3838,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
@@ -3844,10 +3847,10 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>20</v>
@@ -3855,11 +3858,11 @@
       <c r="J67" s="3"/>
       <c r="K67" cm="1">
         <f t="array" ref="K67">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L67" cm="1">
         <f t="array" ref="L67">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M67" t="str" cm="1">
         <f t="array" ref="M67">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3880,11 +3883,11 @@
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3925,7 +3928,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
@@ -3934,10 +3937,10 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>20</v>
@@ -3945,11 +3948,11 @@
       <c r="J69" s="3"/>
       <c r="K69" cm="1">
         <f t="array" ref="K69">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L69" cm="1">
         <f t="array" ref="L69">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M69" t="str" cm="1">
         <f t="array" ref="M69">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3970,7 +3973,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
@@ -3979,10 +3982,10 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>20</v>
@@ -3990,11 +3993,11 @@
       <c r="J70" s="3"/>
       <c r="K70" cm="1">
         <f t="array" ref="K70">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L70" cm="1">
         <f t="array" ref="L70">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M70" t="str" cm="1">
         <f t="array" ref="M70">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4015,11 +4018,11 @@
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -4060,19 +4063,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>20</v>
@@ -4080,11 +4083,11 @@
       <c r="J72" s="3"/>
       <c r="K72" cm="1">
         <f t="array" ref="K72">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L72" cm="1">
         <f t="array" ref="L72">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M72" t="str" cm="1">
         <f t="array" ref="M72">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4105,19 +4108,19 @@
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>20</v>
@@ -4125,11 +4128,11 @@
       <c r="J73" s="3"/>
       <c r="K73" cm="1">
         <f t="array" ref="K73">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>35</v>
-      </c>
-      <c r="L73" t="str" cm="1">
+        <v>32</v>
+      </c>
+      <c r="L73" cm="1">
         <f t="array" ref="L73">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="M73" t="str" cm="1">
         <f t="array" ref="M73">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4150,11 +4153,11 @@
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4170,7 +4173,7 @@
       <c r="J74" s="3"/>
       <c r="K74" cm="1">
         <f t="array" ref="K74">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L74" t="str" cm="1">
         <f t="array" ref="L74">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4195,7 +4198,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
@@ -4215,7 +4218,7 @@
       <c r="J75" s="3"/>
       <c r="K75" cm="1">
         <f t="array" ref="K75">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L75" t="str" cm="1">
         <f t="array" ref="L75">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4240,19 +4243,19 @@
         <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>20</v>
@@ -4260,11 +4263,11 @@
       <c r="J76" s="3"/>
       <c r="K76" cm="1">
         <f t="array" ref="K76">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>39</v>
-      </c>
-      <c r="L76" cm="1">
+        <v>36</v>
+      </c>
+      <c r="L76" t="str" cm="1">
         <f t="array" ref="L76">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>40</v>
+        <v/>
       </c>
       <c r="M76" t="str" cm="1">
         <f t="array" ref="M76">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4285,7 +4288,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
@@ -4294,10 +4297,10 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>20</v>
@@ -4305,11 +4308,11 @@
       <c r="J77" s="3"/>
       <c r="K77" cm="1">
         <f t="array" ref="K77">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L77" cm="1">
         <f t="array" ref="L77">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M77" t="str" cm="1">
         <f t="array" ref="M77">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4330,11 +4333,11 @@
         <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4350,11 +4353,11 @@
       <c r="J78" s="3"/>
       <c r="K78" cm="1">
         <f t="array" ref="K78">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L78" cm="1">
         <f t="array" ref="L78">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M78" t="str" cm="1">
         <f t="array" ref="M78">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4375,19 +4378,19 @@
         <v>74</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>20</v>
@@ -4395,11 +4398,11 @@
       <c r="J79" s="3"/>
       <c r="K79" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L79" cm="1">
         <f t="array" ref="L79">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M79" t="str" cm="1">
         <f t="array" ref="M79">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4420,19 +4423,19 @@
         <v>75</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>20</v>
@@ -4440,11 +4443,11 @@
       <c r="J80" s="3"/>
       <c r="K80" cm="1">
         <f t="array" ref="K80">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L80" cm="1">
         <f t="array" ref="L80">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M80" t="str" cm="1">
         <f t="array" ref="M80">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4465,7 +4468,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
@@ -4485,11 +4488,11 @@
       <c r="J81" s="3"/>
       <c r="K81" cm="1">
         <f t="array" ref="K81">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L81" cm="1">
         <f t="array" ref="L81">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M81" t="str" cm="1">
         <f t="array" ref="M81">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4510,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -4530,11 +4533,11 @@
       <c r="J82" s="3"/>
       <c r="K82" cm="1">
         <f t="array" ref="K82">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L82" cm="1">
         <f t="array" ref="L82">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M82" t="str" cm="1">
         <f t="array" ref="M82">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4555,11 +4558,11 @@
         <v>78</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4575,11 +4578,11 @@
       <c r="J83" s="3"/>
       <c r="K83" cm="1">
         <f t="array" ref="K83">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L83" cm="1">
         <f t="array" ref="L83">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M83" t="str" cm="1">
         <f t="array" ref="M83">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4600,7 +4603,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -4609,18 +4612,18 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" t="str" cm="1">
+      <c r="K84" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="L84" cm="1">
         <f t="array" ref="L84">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4645,33 +4648,31 @@
         <v>80</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="4">
-        <v>41817</v>
-      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" cm="1">
+      <c r="K85" t="str" cm="1">
         <f t="array" ref="K85">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="L85" cm="1">
         <f t="array" ref="L85">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M85" t="str" cm="1">
         <f t="array" ref="M85">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4682,8 +4683,8 @@
         <v/>
       </c>
       <c r="O85" t="str" cm="1">
-        <f t="array" aca="1" ref="O85" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>11 years, 7 months, 5 days</v>
+        <f t="array" ref="O85">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4692,33 +4693,33 @@
         <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="4">
-        <v>44335</v>
-      </c>
-      <c r="F86" s="4">
-        <v>45164</v>
-      </c>
-      <c r="G86" s="4" t="s">
+        <v>41817</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="4"/>
+      <c r="I86" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" cm="1">
         <f t="array" ref="K86">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L86" cm="1">
         <f t="array" ref="L86">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M86" t="str" cm="1">
         <f t="array" ref="M86">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4726,11 +4727,11 @@
       </c>
       <c r="N86" t="str" cm="1">
         <f t="array" ref="N86">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
-        <v>2 years, 3 months, 7 days</v>
+        <v/>
       </c>
       <c r="O86" t="str" cm="1">
-        <f t="array" ref="O86">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v/>
+        <f t="array" aca="1" ref="O86" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>11 years, 7 months, 7 days</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4739,16 +4740,18 @@
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="4">
-        <v>45188</v>
-      </c>
-      <c r="F87" s="4"/>
+        <v>44335</v>
+      </c>
+      <c r="F87" s="4">
+        <v>45164</v>
+      </c>
       <c r="G87" s="4" t="s">
         <v>72</v>
       </c>
@@ -4759,11 +4762,11 @@
       <c r="J87" s="3"/>
       <c r="K87" cm="1">
         <f t="array" ref="K87">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L87" cm="1">
         <f t="array" ref="L87">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M87" t="str" cm="1">
         <f t="array" ref="M87">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4771,66 +4774,100 @@
       </c>
       <c r="N87" t="str" cm="1">
         <f t="array" ref="N87">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
-        <v/>
+        <v>2 years, 3 months, 7 days</v>
       </c>
       <c r="O87" t="str" cm="1">
-        <f t="array" aca="1" ref="O87" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>2 years, 4 months, 13 days</v>
+        <f t="array" ref="O87">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
+      <c r="A88">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>83</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4">
+        <v>45188</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="9" cm="1">
+      <c r="K88" cm="1">
         <f t="array" ref="K88">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>53</v>
+      </c>
+      <c r="L88" cm="1">
+        <f t="array" ref="L88">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>54</v>
       </c>
-      <c r="L88" s="9" cm="1">
-        <f t="array" ref="L88">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>55</v>
-      </c>
-      <c r="M88" s="9" t="str" cm="1">
+      <c r="M88" t="str" cm="1">
         <f t="array" ref="M88">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="N88" s="10" t="str" cm="1">
+      <c r="N88" t="str" cm="1">
         <f t="array" ref="N88">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O88" s="10" t="str" cm="1">
-        <f t="array" ref="O88">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v/>
+      <c r="O88" t="str" cm="1">
+        <f t="array" aca="1" ref="O88" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>2 years, 4 months, 15 days</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
+      <c r="A89">
+        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
+        <v>84</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="G89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="4"/>
       <c r="J89" s="3"/>
+      <c r="K89" cm="1">
+        <f t="array" ref="K89">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>55</v>
+      </c>
+      <c r="L89" cm="1">
+        <f t="array" ref="L89">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v>56</v>
+      </c>
+      <c r="M89" t="str" cm="1">
+        <f t="array" ref="M89">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
+        <v/>
+      </c>
+      <c r="N89" t="str" cm="1">
+        <f t="array" ref="N89">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
+        <v/>
+      </c>
+      <c r="O89" t="str" cm="1">
+        <f t="array" ref="O89">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
@@ -5492,13 +5529,24 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D88" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D89" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J85 G6:I88" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J86 G6:I89" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
       <formula1>INDIRECT("Family[name]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -5515,7 +5563,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A5:L88"/>
+  <dimension ref="A5:L89"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
@@ -5576,51 +5624,51 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A88">Family[PersonID]</f>
+        <f t="array" ref="A6:A89">Family[PersonID]</f>
         <v>1</v>
       </c>
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:B88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
+        <f t="array" ref="B6:B89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
         <v>Jose G. Alto</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
+        <f t="array" ref="C6:C89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6:D88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
+        <f t="array" ref="D6:D89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
         <v>male</v>
       </c>
       <c r="E6" s="2" cm="1">
-        <f t="array" ref="E6:E88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
+        <f t="array" ref="E6:E89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
         <v>1174</v>
       </c>
       <c r="F6" s="2" cm="1">
-        <f t="array" ref="F6:F88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
+        <f t="array" ref="F6:F89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
         <v>32314</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6:G88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
+        <f t="array" ref="G6:G89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
         <v/>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6:H88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
+        <f t="array" ref="H6:H89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
         <v/>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6:I88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
+        <f t="array" ref="I6:I89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:J88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" ref="J6:J89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
-        <f t="array" aca="1" ref="K6:K88" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
+        <f t="array" aca="1" ref="K6:K89" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
         <v/>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6:L88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
+        <f t="array" ref="L6:L89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +5783,7 @@
       </c>
       <c r="K9" t="str">
         <f ca="1"/>
-        <v>92 years, 1 months, 25 days</v>
+        <v>92 years, 1 months, 27 days</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5813,7 +5861,7 @@
       </c>
       <c r="K11" t="str">
         <f ca="1"/>
-        <v>90 years, 0 months, 19 days</v>
+        <v>90 years, 0 months, 21 days</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5891,7 +5939,7 @@
       </c>
       <c r="K13" t="str">
         <f ca="1"/>
-        <v>85 years, 7 months, 12 days</v>
+        <v>85 years, 7 months, 14 days</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5969,7 +6017,7 @@
       </c>
       <c r="K15" t="str">
         <f ca="1"/>
-        <v>83 years, 7 months, 0 days</v>
+        <v>83 years, 7 months, 2 days</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6086,7 +6134,7 @@
       </c>
       <c r="K18" t="str">
         <f ca="1"/>
-        <v>78 years, 1 months, 26 days</v>
+        <v>78 years, 1 months, 28 days</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -6203,7 +6251,7 @@
       </c>
       <c r="K21" t="str">
         <f ca="1"/>
-        <v>71 years, 10 months, 17 days</v>
+        <v>71 years, 10 months, 19 days</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -6320,7 +6368,7 @@
       </c>
       <c r="K24" t="str">
         <f ca="1"/>
-        <v>69 years, 4 months, 18 days</v>
+        <v>69 years, 4 months, 20 days</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6897,8 +6945,8 @@
       <c r="H39">
         <v>11</v>
       </c>
-      <c r="I39" t="str">
-        <v/>
+      <c r="I39">
+        <v>35</v>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -6916,13 +6964,13 @@
         <v>35</v>
       </c>
       <c r="B40" t="str">
-        <v>Jimmy Jr. Alto</v>
+        <v>Suzanne Alto</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -6930,14 +6978,14 @@
       <c r="F40" s="2">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
-      <c r="I40" t="str">
-        <v/>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40">
+        <v>34</v>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -6955,7 +7003,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="str">
-        <v>Angelo Alto</v>
+        <v>Jimmy Jr. Alto</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6994,13 +7042,13 @@
         <v>37</v>
       </c>
       <c r="B42" t="str">
-        <v>Josalyn  Elliott</v>
+        <v>Angelo Alto</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -7014,8 +7062,8 @@
       <c r="H42">
         <v>11</v>
       </c>
-      <c r="I42">
-        <v>38</v>
+      <c r="I42" t="str">
+        <v/>
       </c>
       <c r="J42" t="str">
         <v/>
@@ -7033,13 +7081,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="str">
-        <v>Patrick Elliott</v>
+        <v>Josalyn  Elliott</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -7047,14 +7095,14 @@
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-      <c r="H43" t="str">
-        <v/>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J43" t="str">
         <v/>
@@ -7072,7 +7120,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="str">
-        <v>Reginald Zano</v>
+        <v>Patrick Elliott</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -7086,14 +7134,14 @@
       <c r="F44" s="2">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>12</v>
-      </c>
-      <c r="H44">
-        <v>13</v>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
       </c>
       <c r="I44">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J44" t="str">
         <v/>
@@ -7111,13 +7159,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="str">
-        <v>Angelia Nina Zano</v>
+        <v>Reginald Zano</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -7125,14 +7173,14 @@
       <c r="F45" s="2">
         <v>0</v>
       </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <v/>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
       </c>
       <c r="I45">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -7150,13 +7198,13 @@
         <v>41</v>
       </c>
       <c r="B46" t="str">
-        <v>Laurenti Raul Zano</v>
+        <v>Angelia Nina Zano</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -7164,14 +7212,14 @@
       <c r="F46" s="2">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>12</v>
-      </c>
-      <c r="H46">
-        <v>13</v>
-      </c>
-      <c r="I46" t="str">
-        <v/>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46">
+        <v>40</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -7189,7 +7237,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="str">
-        <v>Raymond Zano</v>
+        <v>Laurenti Raul Zano</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -7228,7 +7276,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="str">
-        <v>Ryan Joy Zano</v>
+        <v>Raymond Zano</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -7248,8 +7296,8 @@
       <c r="H48">
         <v>13</v>
       </c>
-      <c r="I48">
-        <v>44</v>
+      <c r="I48" t="str">
+        <v/>
       </c>
       <c r="J48" t="str">
         <v/>
@@ -7267,13 +7315,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="str">
-        <v>Riza Joy Zano</v>
+        <v>Ryan Joy Zano</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -7281,14 +7329,14 @@
       <c r="F49" s="2">
         <v>0</v>
       </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <v/>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
       </c>
       <c r="I49">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -7306,13 +7354,13 @@
         <v>45</v>
       </c>
       <c r="B50" t="str">
-        <v>Joey Andrew Alto</v>
+        <v>Riza Joy Zano</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -7320,14 +7368,14 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>14</v>
-      </c>
-      <c r="H50">
-        <v>15</v>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
       </c>
       <c r="I50">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J50" t="str">
         <v/>
@@ -7345,13 +7393,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="str">
-        <v>Rebecca Reyes Alto</v>
+        <v>Joey Andrew Alto</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -7359,14 +7407,14 @@
       <c r="F51" s="2">
         <v>0</v>
       </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <v/>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -7384,13 +7432,13 @@
         <v>47</v>
       </c>
       <c r="B52" t="str">
-        <v>Richard Obilex</v>
+        <v>Rebecca Reyes Alto</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -7405,7 +7453,7 @@
         <v/>
       </c>
       <c r="I52">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J52" t="str">
         <v/>
@@ -7423,13 +7471,13 @@
         <v>48</v>
       </c>
       <c r="B53" t="str">
-        <v>Jo Ann Alto-Obilex</v>
+        <v>Richard Obilex</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -7437,14 +7485,14 @@
       <c r="F53" s="2">
         <v>0</v>
       </c>
-      <c r="G53">
-        <v>14</v>
-      </c>
-      <c r="H53">
-        <v>15</v>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
       </c>
       <c r="I53">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J53" t="str">
         <v/>
@@ -7462,13 +7510,13 @@
         <v>49</v>
       </c>
       <c r="B54" t="str">
-        <v>Joel Adam Alto</v>
+        <v>Jo Ann Alto-Obilex</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -7483,7 +7531,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J54" t="str">
         <v/>
@@ -7501,13 +7549,13 @@
         <v>50</v>
       </c>
       <c r="B55" t="str">
-        <v>Lea Abello Alto</v>
+        <v>Joel Adam Alto</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -7515,14 +7563,14 @@
       <c r="F55" s="2">
         <v>0</v>
       </c>
-      <c r="G55" t="str">
-        <v/>
-      </c>
-      <c r="H55" t="str">
-        <v/>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J55" t="str">
         <v/>
@@ -7540,7 +7588,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="str">
-        <v>Jesy Angeli Alto</v>
+        <v>Lea Abello Alto</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -7554,14 +7602,14 @@
       <c r="F56" s="2">
         <v>0</v>
       </c>
-      <c r="G56">
-        <v>14</v>
-      </c>
-      <c r="H56">
-        <v>15</v>
-      </c>
-      <c r="I56" t="str">
-        <v/>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56">
+        <v>50</v>
       </c>
       <c r="J56" t="str">
         <v/>
@@ -7579,13 +7627,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="str">
-        <v>Fabian Lim</v>
+        <v>Jesy Angeli Alto</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -7593,14 +7641,14 @@
       <c r="F57" s="2">
         <v>0</v>
       </c>
-      <c r="G57" t="str">
-        <v/>
-      </c>
-      <c r="H57" t="str">
-        <v/>
-      </c>
-      <c r="I57">
-        <v>53</v>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>15</v>
+      </c>
+      <c r="I57" t="str">
+        <v/>
       </c>
       <c r="J57" t="str">
         <v/>
@@ -7618,13 +7666,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="str">
-        <v>Grace Ann Lim</v>
+        <v>Fabian Lim</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -7632,14 +7680,14 @@
       <c r="F58" s="2">
         <v>0</v>
       </c>
-      <c r="G58">
-        <v>16</v>
-      </c>
-      <c r="H58">
-        <v>17</v>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
       </c>
       <c r="I58">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J58" t="str">
         <v/>
@@ -7657,13 +7705,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="str">
-        <v>Jason Alto</v>
+        <v>Grace Ann Lim</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -7678,7 +7726,7 @@
         <v>17</v>
       </c>
       <c r="I59">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J59" t="str">
         <v/>
@@ -7696,13 +7744,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="str">
-        <v>Amy Hung</v>
+        <v>Jason Alto</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -7710,14 +7758,14 @@
       <c r="F60" s="2">
         <v>0</v>
       </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <v/>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
       </c>
       <c r="I60">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J60" t="str">
         <v/>
@@ -7735,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="str">
-        <v>Jaime Wongbandue</v>
+        <v>Amy Hung</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -7749,14 +7797,14 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>18</v>
-      </c>
-      <c r="H61">
-        <v>19</v>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v/>
       </c>
       <c r="I61">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -7774,13 +7822,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="str">
-        <v>Nita Nash Wongbandue</v>
+        <v>Jaime Wongbandue</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -7788,14 +7836,14 @@
       <c r="F62" s="2">
         <v>0</v>
       </c>
-      <c r="G62" t="str">
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <v/>
+      <c r="G62">
+        <v>18</v>
+      </c>
+      <c r="H62">
+        <v>19</v>
       </c>
       <c r="I62">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -7813,7 +7861,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="str">
-        <v>Julie Wongbandue</v>
+        <v>Nita Nash Wongbandue</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7827,14 +7875,14 @@
       <c r="F63" s="2">
         <v>0</v>
       </c>
-      <c r="G63">
-        <v>18</v>
-      </c>
-      <c r="H63">
-        <v>19</v>
-      </c>
-      <c r="I63" t="str">
-        <v/>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63">
+        <v>57</v>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -7852,7 +7900,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="str">
-        <v>Denice Alto</v>
+        <v>Julie Wongbandue</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7867,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H64">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I64" t="str">
         <v/>
@@ -7891,13 +7939,13 @@
         <v>60</v>
       </c>
       <c r="B65" t="str">
-        <v>Nicolas Miles Alto</v>
+        <v>Denice Alto</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -7930,13 +7978,13 @@
         <v>61</v>
       </c>
       <c r="B66" t="str">
-        <v>Ava Margaux Alto</v>
+        <v>Nicolas Miles Alto</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -7945,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H66">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I66" t="str">
         <v/>
@@ -7969,7 +8017,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="str">
-        <v xml:space="preserve">Tifanny Claire </v>
+        <v>Ava Margaux Alto</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7984,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H67">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I67" t="str">
         <v/>
@@ -8008,13 +8056,13 @@
         <v>63</v>
       </c>
       <c r="B68" t="str">
-        <v>Matthew Ira James</v>
+        <v xml:space="preserve">Tifanny Claire </v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -8047,7 +8095,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="str">
-        <v>Brandon Alto</v>
+        <v>Matthew Ira James</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8062,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -8086,7 +8134,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="str">
-        <v>Harold Wilson Alto</v>
+        <v>Brandon Alto</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8101,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I70" t="str">
         <v/>
@@ -8125,13 +8173,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="str">
-        <v>Sophia Joy Alto</v>
+        <v>Harold Wilson Alto</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -8164,13 +8212,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="str">
-        <v>Noah Michael Alto</v>
+        <v>Sophia Joy Alto</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -8179,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -8203,13 +8251,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="str">
-        <v>Marina Alto</v>
+        <v>Noah Michael Alto</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -8218,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>35</v>
-      </c>
-      <c r="H73" t="str">
-        <v/>
+        <v>32</v>
+      </c>
+      <c r="H73">
+        <v>33</v>
       </c>
       <c r="I73" t="str">
         <v/>
@@ -8242,13 +8290,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="str">
-        <v>Alexander Adam Alto</v>
+        <v>Marina Alto</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -8257,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -8281,7 +8329,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="str">
-        <v>Jayson Jordan Alto</v>
+        <v>Alexander Adam Alto</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8296,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -8320,13 +8368,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="str">
-        <v>Dianne Joy Zano</v>
+        <v>Jayson Jordan Alto</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -8335,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>39</v>
-      </c>
-      <c r="H76">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -8359,7 +8407,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="str">
-        <v>Arlene Reese Alto</v>
+        <v>Dianne Joy Zano</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8374,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I77" t="str">
         <v/>
@@ -8398,13 +8446,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="str">
-        <v>Arden Rhyle</v>
+        <v>Arlene Reese Alto</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -8413,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="str">
         <v/>
@@ -8437,13 +8485,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="str">
-        <v>Janiyah Obilex</v>
+        <v>Arden Rhyle</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -8452,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="G79">
+        <v>46</v>
+      </c>
+      <c r="H79">
         <v>47</v>
-      </c>
-      <c r="H79">
-        <v>48</v>
       </c>
       <c r="I79" t="str">
         <v/>
@@ -8476,13 +8524,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="str">
-        <v>Justin Lhance Alto</v>
+        <v>Janiyah Obilex</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -8491,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="G80">
+        <v>48</v>
+      </c>
+      <c r="H80">
         <v>49</v>
-      </c>
-      <c r="H80">
-        <v>50</v>
       </c>
       <c r="I80" t="str">
         <v/>
@@ -8515,7 +8563,7 @@
         <v>76</v>
       </c>
       <c r="B81" t="str">
-        <v>Joshua Landice Alto</v>
+        <v>Justin Lhance Alto</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8530,10 +8578,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I81" t="str">
         <v/>
@@ -8554,7 +8602,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="str">
-        <v>Jairo Leslie Alto</v>
+        <v>Joshua Landice Alto</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8569,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -8593,13 +8641,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="str">
-        <v>Lyza Joelie Alto</v>
+        <v>Jairo Leslie Alto</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -8608,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H83">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -8632,7 +8680,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="str">
-        <v>Ryder Garland</v>
+        <v>Lyza Joelie Alto</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8646,8 +8694,8 @@
       <c r="F84" s="2">
         <v>0</v>
       </c>
-      <c r="G84" t="str">
-        <v/>
+      <c r="G84">
+        <v>50</v>
       </c>
       <c r="H84">
         <v>51</v>
@@ -8671,7 +8719,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="str">
-        <v>Alexis Mei Lim</v>
+        <v>Ryder Garland</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8680,16 +8728,16 @@
         <v>female</v>
       </c>
       <c r="E85" s="2">
-        <v>41817</v>
+        <v>0</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85">
         <v>52</v>
-      </c>
-      <c r="H85">
-        <v>53</v>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -8699,7 +8747,7 @@
       </c>
       <c r="K85" t="str">
         <f ca="1"/>
-        <v>11 years, 7 months, 5 days</v>
+        <v/>
       </c>
       <c r="L85">
         <v>0</v>
@@ -8710,7 +8758,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="str">
-        <v>Samara Jia Lim</v>
+        <v>Alexis Mei Lim</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -8719,26 +8767,26 @@
         <v>female</v>
       </c>
       <c r="E86" s="2">
-        <v>44335</v>
+        <v>41817</v>
       </c>
       <c r="F86" s="2">
-        <v>45164</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H86">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I86" t="str">
         <v/>
       </c>
       <c r="J86" t="str">
-        <v>2 years, 3 months, 7 days</v>
+        <v/>
       </c>
       <c r="K86" t="str">
         <f ca="1"/>
-        <v/>
+        <v>11 years, 7 months, 7 days</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -8749,7 +8797,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="str">
-        <v>Tamsyn Jie Lim</v>
+        <v>Samara Jia Lim</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8758,26 +8806,26 @@
         <v>female</v>
       </c>
       <c r="E87" s="2">
-        <v>45188</v>
+        <v>44335</v>
       </c>
       <c r="F87" s="2">
-        <v>0</v>
+        <v>45164</v>
       </c>
       <c r="G87">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H87">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I87" t="str">
         <v/>
       </c>
       <c r="J87" t="str">
-        <v/>
+        <v>2 years, 3 months, 7 days</v>
       </c>
       <c r="K87" t="str">
         <f ca="1"/>
-        <v>2 years, 4 months, 13 days</v>
+        <v/>
       </c>
       <c r="L87">
         <v>0</v>
@@ -8788,7 +8836,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="str">
-        <v>Zoe Alto</v>
+        <v>Tamsyn Jie Lim</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -8797,16 +8845,16 @@
         <v>female</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>45188</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88">
+        <v>53</v>
+      </c>
+      <c r="H88">
         <v>54</v>
-      </c>
-      <c r="H88">
-        <v>55</v>
       </c>
       <c r="I88" t="str">
         <v/>
@@ -8816,9 +8864,48 @@
       </c>
       <c r="K88" t="str">
         <f ca="1"/>
-        <v/>
+        <v>2 years, 4 months, 15 days</v>
       </c>
       <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Zoe Alto</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="str">
+        <v>female</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>55</v>
+      </c>
+      <c r="H89">
+        <v>56</v>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L89">
         <v>0</v>
       </c>
     </row>

--- a/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
+++ b/family_tree_project/alto_family/excel/Alto Family Tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/washingtonalto.github.io/family_tree_project/alto_family/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{E8745F7B-4877-4AF3-A4C7-9C884177D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87161A4-B058-4F41-8E1A-63C53ED06DD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{50D98804-C5B4-443B-9209-2A692216128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1E33E0-BCBF-411C-B6A4-073C88D53E64}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="109">
   <si>
     <t>ALTO FAMILY DATA ENTRY</t>
   </si>
@@ -360,12 +360,6 @@
     <t>Dianne Joy Zano</t>
   </si>
   <si>
-    <t>Arlene Reese Alto</t>
-  </si>
-  <si>
-    <t>Arden Rhyle</t>
-  </si>
-  <si>
     <t>Janiyah Obilex</t>
   </si>
   <si>
@@ -406,6 +400,18 @@
   </si>
   <si>
     <t>Suzanne Alto</t>
+  </si>
+  <si>
+    <t>Jo-Ann Alto</t>
+  </si>
+  <si>
+    <t>Grace Ann Alto</t>
+  </si>
+  <si>
+    <t>Arwen Reese Alto</t>
+  </si>
+  <si>
+    <t>Aiden Rhyle</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,8 +507,6 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,13 +610,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O89" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A5:O89" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}" name="Family" displayName="Family" ref="A5:O88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A5:O88" xr:uid="{10E5E3DB-85CE-4457-908D-EB99FC4303A8}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9209114C-0460-4570-9D94-C60095FA5745}" name="PersonID" dataDxfId="18">
       <calculatedColumnFormula>ROW()-ROW(Family[[#Headers],[PersonID]])</calculatedColumnFormula>
@@ -976,13 +976,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A2:O150"/>
+  <dimension ref="A2:O149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>46056</v>
+        <v>46063</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>92 years, 1 months, 27 days</v>
+        <v>92 years, 2 months, 3 days</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>90 years, 0 months, 21 days</v>
+        <v>90 years, 0 months, 28 days</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>85 years, 7 months, 14 days</v>
+        <v>85 years, 7 months, 21 days</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>83 years, 7 months, 2 days</v>
+        <v>83 years, 7 months, 9 days</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>78 years, 1 months, 28 days</v>
+        <v>78 years, 2 months, 4 days</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>71 years, 10 months, 19 days</v>
+        <v>71 years, 10 months, 26 days</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>69 years, 4 months, 20 days</v>
+        <v>69 years, 4 months, 27 days</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" cm="1">
@@ -2626,12 +2626,12 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40">
         <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
@@ -2645,23 +2645,23 @@
         <v>54</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="9" t="str" cm="1">
+      <c r="K40" t="str" cm="1">
         <f t="array" ref="K40">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="L40" s="9" t="str" cm="1">
+      <c r="L40" t="str" cm="1">
         <f t="array" ref="L40">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M40" s="9" cm="1">
+      <c r="M40" cm="1">
         <f t="array" ref="M40">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>34</v>
       </c>
-      <c r="N40" s="10" t="str" cm="1">
+      <c r="N40" t="str" cm="1">
         <f t="array" ref="N40">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
         <v/>
       </c>
-      <c r="O40" s="10" t="str" cm="1">
+      <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
         <v/>
       </c>
@@ -3238,9 +3238,9 @@
         <f t="array" ref="L53">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v/>
       </c>
-      <c r="M53" cm="1">
+      <c r="M53" t="str" cm="1">
         <f t="array" ref="M53">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v/>
       </c>
       <c r="N53" t="str" cm="1">
         <f t="array" ref="N53">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3257,7 +3257,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -3328,9 +3328,9 @@
         <f t="array" ref="L55">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>15</v>
       </c>
-      <c r="M55" cm="1">
+      <c r="M55" t="str" cm="1">
         <f t="array" ref="M55">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="N55" t="str" cm="1">
         <f t="array" ref="N55">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3347,7 +3347,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -3356,26 +3356,26 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J56" s="3"/>
-      <c r="K56" t="str" cm="1">
+      <c r="K56" cm="1">
         <f t="array" ref="K56">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L56" t="str" cm="1">
+        <v>14</v>
+      </c>
+      <c r="L56" cm="1">
         <f t="array" ref="L56">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="M56" cm="1">
+        <v>15</v>
+      </c>
+      <c r="M56" t="str" cm="1">
         <f t="array" ref="M56">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="N56" t="str" cm="1">
         <f t="array" ref="N56">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3392,31 +3392,31 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" cm="1">
+      <c r="K57" t="str" cm="1">
         <f t="array" ref="K57">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>14</v>
-      </c>
-      <c r="L57" cm="1">
+        <v/>
+      </c>
+      <c r="L57" t="str" cm="1">
         <f t="array" ref="L57">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="M57" t="str" cm="1">
         <f t="array" ref="M57">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3437,35 +3437,35 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" t="str" cm="1">
+      <c r="K58" cm="1">
         <f t="array" ref="K58">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L58" t="str" cm="1">
+        <v>16</v>
+      </c>
+      <c r="L58" cm="1">
         <f t="array" ref="L58">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="M58" cm="1">
         <f t="array" ref="M58">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N58" t="str" cm="1">
         <f t="array" ref="N58">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3482,11 +3482,11 @@
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3497,7 +3497,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" cm="1">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M59" cm="1">
         <f t="array" ref="M59">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N59" t="str" cm="1">
         <f t="array" ref="N59">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3527,35 +3527,35 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" cm="1">
+      <c r="K60" t="str" cm="1">
         <f t="array" ref="K60">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>16</v>
-      </c>
-      <c r="L60" cm="1">
+        <v/>
+      </c>
+      <c r="L60" t="str" cm="1">
         <f t="array" ref="L60">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="M60" cm="1">
         <f t="array" ref="M60">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N60" t="str" cm="1">
         <f t="array" ref="N60">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3572,35 +3572,35 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" t="str" cm="1">
+      <c r="K61" cm="1">
         <f t="array" ref="K61">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L61" t="str" cm="1">
+        <v>18</v>
+      </c>
+      <c r="L61" cm="1">
         <f t="array" ref="L61">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="M61" cm="1">
         <f t="array" ref="M61">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N61" t="str" cm="1">
         <f t="array" ref="N61">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3617,35 +3617,31 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>104</v>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" cm="1">
+      <c r="K62" t="str" cm="1">
         <f t="array" ref="K62">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>18</v>
-      </c>
-      <c r="L62" cm="1">
+        <v/>
+      </c>
+      <c r="L62" t="str" cm="1">
         <f t="array" ref="L62">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="M62" cm="1">
         <f t="array" ref="M62">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N62" t="str" cm="1">
         <f t="array" ref="N62">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3662,7 +3658,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
@@ -3670,23 +3666,27 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4" t="s">
-        <v>76</v>
+      <c r="G63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" t="str" cm="1">
+      <c r="K63" cm="1">
         <f t="array" ref="K63">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L63" t="str" cm="1">
+        <v>18</v>
+      </c>
+      <c r="L63" cm="1">
         <f t="array" ref="L63">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="M63" cm="1">
+        <v>19</v>
+      </c>
+      <c r="M63" t="str" cm="1">
         <f t="array" ref="M63">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>57</v>
+        <v/>
       </c>
       <c r="N63" t="str" cm="1">
         <f t="array" ref="N63">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
@@ -3703,7 +3703,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
@@ -3712,10 +3712,10 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>20</v>
@@ -3723,11 +3723,11 @@
       <c r="J64" s="3"/>
       <c r="K64" cm="1">
         <f t="array" ref="K64">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L64" cm="1">
         <f t="array" ref="L64">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M64" t="str" cm="1">
         <f t="array" ref="M64">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3748,11 +3748,11 @@
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3793,19 +3793,19 @@
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>20</v>
@@ -3813,11 +3813,11 @@
       <c r="J66" s="3"/>
       <c r="K66" cm="1">
         <f t="array" ref="K66">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L66" cm="1">
         <f t="array" ref="L66">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M66" t="str" cm="1">
         <f t="array" ref="M66">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3838,7 +3838,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
@@ -3847,10 +3847,10 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>20</v>
@@ -3858,11 +3858,11 @@
       <c r="J67" s="3"/>
       <c r="K67" cm="1">
         <f t="array" ref="K67">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L67" cm="1">
         <f t="array" ref="L67">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M67" t="str" cm="1">
         <f t="array" ref="M67">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3883,11 +3883,11 @@
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3928,7 +3928,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
@@ -3937,10 +3937,10 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>20</v>
@@ -3948,11 +3948,11 @@
       <c r="J69" s="3"/>
       <c r="K69" cm="1">
         <f t="array" ref="K69">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L69" cm="1">
         <f t="array" ref="L69">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M69" t="str" cm="1">
         <f t="array" ref="M69">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -3973,7 +3973,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
@@ -3982,10 +3982,10 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>20</v>
@@ -3993,11 +3993,11 @@
       <c r="J70" s="3"/>
       <c r="K70" cm="1">
         <f t="array" ref="K70">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L70" cm="1">
         <f t="array" ref="L70">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M70" t="str" cm="1">
         <f t="array" ref="M70">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4018,11 +4018,11 @@
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -4063,19 +4063,19 @@
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>20</v>
@@ -4083,11 +4083,11 @@
       <c r="J72" s="3"/>
       <c r="K72" cm="1">
         <f t="array" ref="K72">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L72" cm="1">
         <f t="array" ref="L72">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M72" t="str" cm="1">
         <f t="array" ref="M72">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4108,19 +4108,19 @@
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>20</v>
@@ -4128,11 +4128,11 @@
       <c r="J73" s="3"/>
       <c r="K73" cm="1">
         <f t="array" ref="K73">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>32</v>
-      </c>
-      <c r="L73" cm="1">
+        <v>36</v>
+      </c>
+      <c r="L73" t="str" cm="1">
         <f t="array" ref="L73">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="M73" t="str" cm="1">
         <f t="array" ref="M73">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4153,11 +4153,11 @@
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4198,7 +4198,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
@@ -4243,19 +4243,19 @@
         <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>20</v>
@@ -4263,11 +4263,11 @@
       <c r="J76" s="3"/>
       <c r="K76" cm="1">
         <f t="array" ref="K76">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>36</v>
-      </c>
-      <c r="L76" t="str" cm="1">
+        <v>40</v>
+      </c>
+      <c r="L76" cm="1">
         <f t="array" ref="L76">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
+        <v>41</v>
       </c>
       <c r="M76" t="str" cm="1">
         <f t="array" ref="M76">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4288,7 +4288,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
@@ -4297,10 +4297,10 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>20</v>
@@ -4308,11 +4308,11 @@
       <c r="J77" s="3"/>
       <c r="K77" cm="1">
         <f t="array" ref="K77">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L77" cm="1">
         <f t="array" ref="L77">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M77" t="str" cm="1">
         <f t="array" ref="M77">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4333,11 +4333,11 @@
         <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4378,19 +4378,19 @@
         <v>74</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>20</v>
@@ -4398,11 +4398,11 @@
       <c r="J79" s="3"/>
       <c r="K79" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>46</v>
-      </c>
-      <c r="L79" cm="1">
+        <v>48</v>
+      </c>
+      <c r="L79" t="str" cm="1">
         <f t="array" ref="L79">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>47</v>
+        <v/>
       </c>
       <c r="M79" t="str" cm="1">
         <f t="array" ref="M79">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4423,19 +4423,19 @@
         <v>75</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>20</v>
@@ -4443,11 +4443,11 @@
       <c r="J80" s="3"/>
       <c r="K80" cm="1">
         <f t="array" ref="K80">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>48</v>
-      </c>
-      <c r="L80" cm="1">
+        <v>50</v>
+      </c>
+      <c r="L80" t="str" cm="1">
         <f t="array" ref="L80">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>49</v>
+        <v/>
       </c>
       <c r="M80" t="str" cm="1">
         <f t="array" ref="M80">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4468,7 +4468,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
@@ -4490,9 +4490,9 @@
         <f t="array" ref="K81">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="L81" cm="1">
+      <c r="L81" t="str" cm="1">
         <f t="array" ref="L81">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="M81" t="str" cm="1">
         <f t="array" ref="M81">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4513,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -4535,9 +4535,9 @@
         <f t="array" ref="K82">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="L82" cm="1">
+      <c r="L82" t="str" cm="1">
         <f t="array" ref="L82">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="M82" t="str" cm="1">
         <f t="array" ref="M82">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4558,11 +4558,11 @@
         <v>78</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4580,9 +4580,9 @@
         <f t="array" ref="K83">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
         <v>50</v>
       </c>
-      <c r="L83" cm="1">
+      <c r="L83" t="str" cm="1">
         <f t="array" ref="L83">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="M83" t="str" cm="1">
         <f t="array" ref="M83">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4603,7 +4603,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -4612,18 +4612,18 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="3" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" cm="1">
+      <c r="K84" t="str" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="L84" cm="1">
         <f t="array" ref="L84">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4648,31 +4648,33 @@
         <v>80</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4">
+        <v>41817</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" t="str" cm="1">
+      <c r="K85" cm="1">
         <f t="array" ref="K85">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="L85" cm="1">
+        <v>52</v>
+      </c>
+      <c r="L85" t="str" cm="1">
         <f t="array" ref="L85">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="M85" t="str" cm="1">
         <f t="array" ref="M85">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4683,8 +4685,8 @@
         <v/>
       </c>
       <c r="O85" t="str" cm="1">
-        <f t="array" ref="O85">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v/>
+        <f t="array" aca="1" ref="O85" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>11 years, 7 months, 14 days</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4693,33 +4695,33 @@
         <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="4">
-        <v>41817</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3" t="s">
+        <v>44335</v>
+      </c>
+      <c r="F86" s="4">
+        <v>45164</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="3"/>
       <c r="K86" cm="1">
         <f t="array" ref="K86">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
-      </c>
-      <c r="L86" cm="1">
+        <v>52</v>
+      </c>
+      <c r="L86" t="str" cm="1">
         <f t="array" ref="L86">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>54</v>
+        <v/>
       </c>
       <c r="M86" t="str" cm="1">
         <f t="array" ref="M86">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4727,11 +4729,11 @@
       </c>
       <c r="N86" t="str" cm="1">
         <f t="array" ref="N86">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
-        <v/>
+        <v>2 years, 3 months, 7 days</v>
       </c>
       <c r="O86" t="str" cm="1">
-        <f t="array" aca="1" ref="O86" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>11 years, 7 months, 7 days</v>
+        <f t="array" ref="O86">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4740,18 +4742,16 @@
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="4">
-        <v>44335</v>
-      </c>
-      <c r="F87" s="4">
-        <v>45164</v>
-      </c>
+        <v>45188</v>
+      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
         <v>72</v>
       </c>
@@ -4762,11 +4762,11 @@
       <c r="J87" s="3"/>
       <c r="K87" cm="1">
         <f t="array" ref="K87">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
-      </c>
-      <c r="L87" cm="1">
+        <v>52</v>
+      </c>
+      <c r="L87" t="str" cm="1">
         <f t="array" ref="L87">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>54</v>
+        <v/>
       </c>
       <c r="M87" t="str" cm="1">
         <f t="array" ref="M87">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4774,11 +4774,11 @@
       </c>
       <c r="N87" t="str" cm="1">
         <f t="array" ref="N87">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
-        <v>2 years, 3 months, 7 days</v>
+        <v/>
       </c>
       <c r="O87" t="str" cm="1">
-        <f t="array" ref="O87">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v/>
+        <f t="array" aca="1" ref="O87" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v>2 years, 4 months, 22 days</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -4793,25 +4793,23 @@
       <c r="D88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4">
-        <v>45188</v>
-      </c>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="3"/>
       <c r="K88" cm="1">
         <f t="array" ref="K88">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L88" cm="1">
         <f t="array" ref="L88">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M88" t="str" cm="1">
         <f t="array" ref="M88">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
@@ -4822,52 +4820,20 @@
         <v/>
       </c>
       <c r="O88" t="str" cm="1">
-        <f t="array" aca="1" ref="O88" ca="1">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v>2 years, 4 months, 15 days</v>
+        <f t="array" ref="O88">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <f>ROW()-ROW(Family[[#Headers],[PersonID]])</f>
-        <v>84</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I89" s="4"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" cm="1">
-        <f t="array" ref="K89">_xlfn.XLOOKUP(Family[[#This Row],[Father]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>55</v>
-      </c>
-      <c r="L89" cm="1">
-        <f t="array" ref="L89">_xlfn.XLOOKUP(Family[[#This Row],[Mother]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v>56</v>
-      </c>
-      <c r="M89" t="str" cm="1">
-        <f t="array" ref="M89">_xlfn.XLOOKUP(Family[[#This Row],[Spouse]],Family[[Name]:[Name]],Family[[PersonID]:[PersonID]],"",0)</f>
-        <v/>
-      </c>
-      <c r="N89" t="str" cm="1">
-        <f t="array" ref="N89">lambda_lifetimeage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]])</f>
-        <v/>
-      </c>
-      <c r="O89" t="str" cm="1">
-        <f t="array" ref="O89">lambda_currentage(Family[[#This Row],[BirthDate]],Family[[#This Row],[DeathDate]],$B$3)</f>
-        <v/>
-      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
@@ -5529,24 +5495,13 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D89" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D88" xr:uid="{88B235F2-0B48-45BB-976F-4DE8389AF51E}">
       <formula1>INDIRECT("Lookup_Gender[Gender]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J86 G6:I89" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I88 J6:J85" xr:uid="{22E5EF5B-D42A-4822-8EC6-9949242216BD}">
       <formula1>INDIRECT("Family[name]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -5563,7 +5518,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A5:L89"/>
+  <dimension ref="A5:L88"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
@@ -5576,7 +5531,7 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
@@ -5624,51 +5579,51 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A89">Family[PersonID]</f>
+        <f t="array" ref="A6:A88">Family[PersonID]</f>
         <v>1</v>
       </c>
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:B89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
+        <f t="array" ref="B6:B88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Name],"",0)</f>
         <v>Jose G. Alto</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
+        <f t="array" ref="C6:C88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Nickname],"",0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6:D89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
+        <f t="array" ref="D6:D88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Gender],"",0)</f>
         <v>male</v>
       </c>
       <c r="E6" s="2" cm="1">
-        <f t="array" ref="E6:E89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
+        <f t="array" ref="E6:E88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[BirthDate],"",0)</f>
         <v>1174</v>
       </c>
       <c r="F6" s="2" cm="1">
-        <f t="array" ref="F6:F89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
+        <f t="array" ref="F6:F88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[DeathDate],"",0)</f>
         <v>32314</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6:G89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
+        <f t="array" ref="G6:G88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[FatherID],"",0)</f>
         <v/>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6:H89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
+        <f t="array" ref="H6:H88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[MotherID],"",0)</f>
         <v/>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6:I89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
+        <f t="array" ref="I6:I88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[SpouseID],"",0)</f>
         <v>2</v>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:J89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
+        <f t="array" ref="J6:J88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[LifeTime Age],"",0)</f>
         <v>85 years, 3 months, 1 days</v>
       </c>
       <c r="K6" t="str" cm="1">
-        <f t="array" aca="1" ref="K6:K89" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
+        <f t="array" aca="1" ref="K6:K88" ca="1">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Current Age],"",0)</f>
         <v/>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6:L89">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
+        <f t="array" ref="L6:L88">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY($A$6),Family[[PersonID]:[PersonID]],Family[Notes],"",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5783,7 +5738,7 @@
       </c>
       <c r="K9" t="str">
         <f ca="1"/>
-        <v>92 years, 1 months, 27 days</v>
+        <v>92 years, 2 months, 3 days</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5861,7 +5816,7 @@
       </c>
       <c r="K11" t="str">
         <f ca="1"/>
-        <v>90 years, 0 months, 21 days</v>
+        <v>90 years, 0 months, 28 days</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5939,7 +5894,7 @@
       </c>
       <c r="K13" t="str">
         <f ca="1"/>
-        <v>85 years, 7 months, 14 days</v>
+        <v>85 years, 7 months, 21 days</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6017,7 +5972,7 @@
       </c>
       <c r="K15" t="str">
         <f ca="1"/>
-        <v>83 years, 7 months, 2 days</v>
+        <v>83 years, 7 months, 9 days</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6134,7 +6089,7 @@
       </c>
       <c r="K18" t="str">
         <f ca="1"/>
-        <v>78 years, 1 months, 28 days</v>
+        <v>78 years, 2 months, 4 days</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -6251,7 +6206,7 @@
       </c>
       <c r="K21" t="str">
         <f ca="1"/>
-        <v>71 years, 10 months, 19 days</v>
+        <v>71 years, 10 months, 26 days</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -6368,7 +6323,7 @@
       </c>
       <c r="K24" t="str">
         <f ca="1"/>
-        <v>69 years, 4 months, 20 days</v>
+        <v>69 years, 4 months, 27 days</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -7491,8 +7446,8 @@
       <c r="H53" t="str">
         <v/>
       </c>
-      <c r="I53">
-        <v>49</v>
+      <c r="I53" t="str">
+        <v/>
       </c>
       <c r="J53" t="str">
         <v/>
@@ -7510,7 +7465,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="str">
-        <v>Jo Ann Alto-Obilex</v>
+        <v>Jo-Ann Alto</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -7569,8 +7524,8 @@
       <c r="H55">
         <v>15</v>
       </c>
-      <c r="I55">
-        <v>51</v>
+      <c r="I55" t="str">
+        <v/>
       </c>
       <c r="J55" t="str">
         <v/>
@@ -7588,7 +7543,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="str">
-        <v>Lea Abello Alto</v>
+        <v>Jesy Angeli Alto</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -7602,14 +7557,14 @@
       <c r="F56" s="2">
         <v>0</v>
       </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <v/>
-      </c>
-      <c r="I56">
-        <v>50</v>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56" t="str">
+        <v/>
       </c>
       <c r="J56" t="str">
         <v/>
@@ -7627,13 +7582,13 @@
         <v>52</v>
       </c>
       <c r="B57" t="str">
-        <v>Jesy Angeli Alto</v>
+        <v>Fabian Lim</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -7641,11 +7596,11 @@
       <c r="F57" s="2">
         <v>0</v>
       </c>
-      <c r="G57">
-        <v>14</v>
-      </c>
-      <c r="H57">
-        <v>15</v>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
       </c>
       <c r="I57" t="str">
         <v/>
@@ -7666,13 +7621,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="str">
-        <v>Fabian Lim</v>
+        <v>Grace Ann Alto</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -7680,14 +7635,14 @@
       <c r="F58" s="2">
         <v>0</v>
       </c>
-      <c r="G58" t="str">
-        <v/>
-      </c>
-      <c r="H58" t="str">
-        <v/>
+      <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58">
+        <v>17</v>
       </c>
       <c r="I58">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J58" t="str">
         <v/>
@@ -7705,13 +7660,13 @@
         <v>54</v>
       </c>
       <c r="B59" t="str">
-        <v>Grace Ann Lim</v>
+        <v>Jason Alto</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -7726,7 +7681,7 @@
         <v>17</v>
       </c>
       <c r="I59">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J59" t="str">
         <v/>
@@ -7744,13 +7699,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="str">
-        <v>Jason Alto</v>
+        <v>Amy Hung</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -7758,14 +7713,14 @@
       <c r="F60" s="2">
         <v>0</v>
       </c>
-      <c r="G60">
-        <v>16</v>
-      </c>
-      <c r="H60">
-        <v>17</v>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
       </c>
       <c r="I60">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60" t="str">
         <v/>
@@ -7783,13 +7738,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="str">
-        <v>Amy Hung</v>
+        <v>Jaime Wongbandue</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -7797,14 +7752,14 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61" t="str">
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <v/>
+      <c r="G61">
+        <v>18</v>
+      </c>
+      <c r="H61">
+        <v>19</v>
       </c>
       <c r="I61">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -7822,13 +7777,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="str">
-        <v>Jaime Wongbandue</v>
+        <v>Nita Nash Wongbandue</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -7836,14 +7791,14 @@
       <c r="F62" s="2">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>18</v>
-      </c>
-      <c r="H62">
-        <v>19</v>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
       </c>
       <c r="I62">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -7861,7 +7816,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="str">
-        <v>Nita Nash Wongbandue</v>
+        <v>Julie Wongbandue</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7875,14 +7830,14 @@
       <c r="F63" s="2">
         <v>0</v>
       </c>
-      <c r="G63" t="str">
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <v/>
-      </c>
-      <c r="I63">
-        <v>57</v>
+      <c r="G63">
+        <v>18</v>
+      </c>
+      <c r="H63">
+        <v>19</v>
+      </c>
+      <c r="I63" t="str">
+        <v/>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -7900,7 +7855,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="str">
-        <v>Julie Wongbandue</v>
+        <v>Denice Alto</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7915,10 +7870,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H64">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I64" t="str">
         <v/>
@@ -7939,13 +7894,13 @@
         <v>60</v>
       </c>
       <c r="B65" t="str">
-        <v>Denice Alto</v>
+        <v>Nicolas Miles Alto</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -7978,13 +7933,13 @@
         <v>61</v>
       </c>
       <c r="B66" t="str">
-        <v>Nicolas Miles Alto</v>
+        <v>Ava Margaux Alto</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -7993,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I66" t="str">
         <v/>
@@ -8017,7 +7972,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="str">
-        <v>Ava Margaux Alto</v>
+        <v xml:space="preserve">Tifanny Claire </v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -8032,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H67">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I67" t="str">
         <v/>
@@ -8056,13 +8011,13 @@
         <v>63</v>
       </c>
       <c r="B68" t="str">
-        <v xml:space="preserve">Tifanny Claire </v>
+        <v>Matthew Ira James</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -8095,7 +8050,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="str">
-        <v>Matthew Ira James</v>
+        <v>Brandon Alto</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8110,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -8134,7 +8089,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="str">
-        <v>Brandon Alto</v>
+        <v>Harold Wilson Alto</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8149,10 +8104,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I70" t="str">
         <v/>
@@ -8173,13 +8128,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="str">
-        <v>Harold Wilson Alto</v>
+        <v>Sophia Joy Alto</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -8212,13 +8167,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="str">
-        <v>Sophia Joy Alto</v>
+        <v>Noah Michael Alto</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -8227,10 +8182,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -8251,13 +8206,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="str">
-        <v>Noah Michael Alto</v>
+        <v>Marina Alto</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -8266,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>32</v>
-      </c>
-      <c r="H73">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
       </c>
       <c r="I73" t="str">
         <v/>
@@ -8290,13 +8245,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="str">
-        <v>Marina Alto</v>
+        <v>Alexander Adam Alto</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -8329,7 +8284,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="str">
-        <v>Alexander Adam Alto</v>
+        <v>Jayson Jordan Alto</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8368,13 +8323,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="str">
-        <v>Jayson Jordan Alto</v>
+        <v>Dianne Joy Zano</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -8383,10 +8338,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>36</v>
-      </c>
-      <c r="H76" t="str">
-        <v/>
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>41</v>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -8407,7 +8362,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="str">
-        <v>Dianne Joy Zano</v>
+        <v>Arwen Reese Alto</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8422,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H77">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I77" t="str">
         <v/>
@@ -8446,13 +8401,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="str">
-        <v>Arlene Reese Alto</v>
+        <v>Aiden Rhyle</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -8485,13 +8440,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="str">
-        <v>Arden Rhyle</v>
+        <v>Janiyah Obilex</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -8500,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>46</v>
-      </c>
-      <c r="H79">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
       </c>
       <c r="I79" t="str">
         <v/>
@@ -8524,13 +8479,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="str">
-        <v>Janiyah Obilex</v>
+        <v>Justin Lhance Alto</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -8539,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>48</v>
-      </c>
-      <c r="H80">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
       </c>
       <c r="I80" t="str">
         <v/>
@@ -8563,7 +8518,7 @@
         <v>76</v>
       </c>
       <c r="B81" t="str">
-        <v>Justin Lhance Alto</v>
+        <v>Joshua Landice Alto</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8580,8 +8535,8 @@
       <c r="G81">
         <v>50</v>
       </c>
-      <c r="H81">
-        <v>51</v>
+      <c r="H81" t="str">
+        <v/>
       </c>
       <c r="I81" t="str">
         <v/>
@@ -8602,7 +8557,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="str">
-        <v>Joshua Landice Alto</v>
+        <v>Jairo Leslie Alto</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8619,8 +8574,8 @@
       <c r="G82">
         <v>50</v>
       </c>
-      <c r="H82">
-        <v>51</v>
+      <c r="H82" t="str">
+        <v/>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -8641,13 +8596,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="str">
-        <v>Jairo Leslie Alto</v>
+        <v>Lyza Joelie Alto</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -8658,8 +8613,8 @@
       <c r="G83">
         <v>50</v>
       </c>
-      <c r="H83">
-        <v>51</v>
+      <c r="H83" t="str">
+        <v/>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -8680,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="str">
-        <v>Lyza Joelie Alto</v>
+        <v>Ryder Garland</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8694,8 +8649,8 @@
       <c r="F84" s="2">
         <v>0</v>
       </c>
-      <c r="G84">
-        <v>50</v>
+      <c r="G84" t="str">
+        <v/>
       </c>
       <c r="H84">
         <v>51</v>
@@ -8719,7 +8674,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="str">
-        <v>Ryder Garland</v>
+        <v>Alexis Mei Lim</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8728,16 +8683,16 @@
         <v>female</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>41817</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
       </c>
-      <c r="G85" t="str">
-        <v/>
-      </c>
-      <c r="H85">
+      <c r="G85">
         <v>52</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -8747,7 +8702,7 @@
       </c>
       <c r="K85" t="str">
         <f ca="1"/>
-        <v/>
+        <v>11 years, 7 months, 14 days</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -8758,7 +8713,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="str">
-        <v>Alexis Mei Lim</v>
+        <v>Samara Jia Lim</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -8767,26 +8722,26 @@
         <v>female</v>
       </c>
       <c r="E86" s="2">
-        <v>41817</v>
+        <v>44335</v>
       </c>
       <c r="F86" s="2">
-        <v>0</v>
+        <v>45164</v>
       </c>
       <c r="G86">
-        <v>53</v>
-      </c>
-      <c r="H86">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H86" t="str">
+        <v/>
       </c>
       <c r="I86" t="str">
         <v/>
       </c>
       <c r="J86" t="str">
-        <v/>
+        <v>2 years, 3 months, 7 days</v>
       </c>
       <c r="K86" t="str">
         <f ca="1"/>
-        <v>11 years, 7 months, 7 days</v>
+        <v/>
       </c>
       <c r="L86">
         <v>0</v>
@@ -8797,7 +8752,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="str">
-        <v>Samara Jia Lim</v>
+        <v>Tamsyn Jie Lim</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8806,26 +8761,26 @@
         <v>female</v>
       </c>
       <c r="E87" s="2">
-        <v>44335</v>
+        <v>45188</v>
       </c>
       <c r="F87" s="2">
-        <v>45164</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>53</v>
-      </c>
-      <c r="H87">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
       </c>
       <c r="I87" t="str">
         <v/>
       </c>
       <c r="J87" t="str">
-        <v>2 years, 3 months, 7 days</v>
+        <v/>
       </c>
       <c r="K87" t="str">
         <f ca="1"/>
-        <v/>
+        <v>2 years, 4 months, 22 days</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -8836,7 +8791,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="str">
-        <v>Tamsyn Jie Lim</v>
+        <v>Zoe Alto</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -8845,16 +8800,16 @@
         <v>female</v>
       </c>
       <c r="E88" s="2">
-        <v>45188</v>
+        <v>0</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H88">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I88" t="str">
         <v/>
@@ -8864,48 +8819,9 @@
       </c>
       <c r="K88" t="str">
         <f ca="1"/>
-        <v>2 years, 4 months, 15 days</v>
+        <v/>
       </c>
       <c r="L88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>84</v>
-      </c>
-      <c r="B89" t="str">
-        <v>Zoe Alto</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="str">
-        <v>female</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>55</v>
-      </c>
-      <c r="H89">
-        <v>56</v>
-      </c>
-      <c r="I89" t="str">
-        <v/>
-      </c>
-      <c r="J89" t="str">
-        <v/>
-      </c>
-      <c r="K89" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="L89">
         <v>0</v>
       </c>
     </row>
@@ -8938,7 +8854,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8946,7 +8862,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
